--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/10_245-70R19.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/10_245-70R19.xlsx
@@ -1043,100 +1043,100 @@
         <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.1883562720413256</v>
+        <v>0.1582799338574765</v>
       </c>
       <c r="AS2">
-        <v>0.02510516389178956</v>
+        <v>0.02976356826885447</v>
       </c>
       <c r="AT2">
-        <v>0.2806140951908258</v>
+        <v>0.2309081705824061</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>0.007435948128591326</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>0.009759633217620085</v>
       </c>
       <c r="AW2">
-        <v>0.01799627644658349</v>
+        <v>0.02416723028259336</v>
       </c>
       <c r="AX2">
-        <v>0.09188788860966107</v>
+        <v>0.08233701271362144</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>0.005042146156178672</v>
       </c>
       <c r="AZ2">
-        <v>0.01772962084126473</v>
+        <v>0.02395731067072763</v>
       </c>
       <c r="BA2">
-        <v>0.08651575188835429</v>
+        <v>0.07810789908190803</v>
       </c>
       <c r="BB2">
-        <v>0.007515628400145689</v>
+        <v>0.01591653715585574</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>0.001200630701436203</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>0.001510895475352135</v>
       </c>
       <c r="BE2">
-        <v>0.0679215628021367</v>
+        <v>0.06346997331518424</v>
       </c>
       <c r="BF2">
-        <v>0.009354707817189264</v>
+        <v>0.01736431785018822</v>
       </c>
       <c r="BG2">
-        <v>0.009409078027060314</v>
+        <v>0.01740711977568889</v>
       </c>
       <c r="BH2">
-        <v>0.06249699576466432</v>
+        <v>0.05919958490281763</v>
       </c>
       <c r="BI2">
-        <v>0</v>
+        <v>0.001692714321858239</v>
       </c>
       <c r="BJ2">
-        <v>0.0009130098233818617</v>
+        <v>0.01071874981785892</v>
       </c>
       <c r="BK2">
-        <v>0.08538596395270243</v>
+        <v>0.07721849477083376</v>
       </c>
       <c r="BL2">
-        <v>0.01451133998321967</v>
+        <v>0.02142377957248523</v>
       </c>
       <c r="BM2">
-        <v>0.02045269134469629</v>
+        <v>0.02610099672780508</v>
       </c>
       <c r="BN2">
-        <v>0</v>
+        <v>9.364172999275077E-06</v>
       </c>
       <c r="BO2">
-        <v>0</v>
+        <v>0.0002255233741107637</v>
       </c>
       <c r="BP2">
-        <v>0</v>
+        <v>0.00642212007671395</v>
       </c>
       <c r="BQ2">
-        <v>0</v>
+        <v>0.001176847128283185</v>
       </c>
       <c r="BR2">
-        <v>0</v>
+        <v>0.001009274229347933</v>
       </c>
       <c r="BS2">
-        <v>0</v>
+        <v>0.001135935292444357</v>
       </c>
       <c r="BT2">
-        <v>0</v>
+        <v>0.0003288726482394361</v>
       </c>
       <c r="BU2">
-        <v>0</v>
+        <v>0.001218978784841863</v>
       </c>
       <c r="BV2">
-        <v>0</v>
+        <v>0.004599917402339626</v>
       </c>
       <c r="BW2">
-        <v>0.0138339531749992</v>
+        <v>0.02089051954333781</v>
       </c>
     </row>
     <row r="3" spans="1:75">
@@ -1270,100 +1270,100 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.2810718858277978</v>
+        <v>0.2359324336513552</v>
       </c>
       <c r="AS3">
-        <v>0.09570109906500639</v>
+        <v>0.08692687637963657</v>
       </c>
       <c r="AT3">
-        <v>0.3081852082731207</v>
+        <v>0.2577267831872556</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>0.006894872849615351</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>0.001430526072309883</v>
       </c>
       <c r="AW3">
-        <v>0.0043345091647187</v>
+        <v>0.01348418413099125</v>
       </c>
       <c r="AX3">
-        <v>0.1147149655833565</v>
+        <v>0.102210685797149</v>
       </c>
       <c r="AY3">
-        <v>0.00793617876372193</v>
+        <v>0.01637929395428196</v>
       </c>
       <c r="AZ3">
-        <v>0.02655650898660795</v>
+        <v>0.03134676930407895</v>
       </c>
       <c r="BA3">
-        <v>0.01184477026260017</v>
+        <v>0.01952111508267325</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>0.000781438912351826</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>0.001237464920465276</v>
       </c>
       <c r="BD3">
-        <v>0.002125668525927968</v>
+        <v>0.01170866417957302</v>
       </c>
       <c r="BE3">
-        <v>0.007929201533682935</v>
+        <v>0.01637368548668936</v>
       </c>
       <c r="BF3">
-        <v>0.02547915724157416</v>
+        <v>0.03048076770830517</v>
       </c>
       <c r="BG3">
-        <v>0</v>
+        <v>0.001086670994902704</v>
       </c>
       <c r="BH3">
-        <v>0.01472853565955751</v>
+        <v>0.02183915600766747</v>
       </c>
       <c r="BI3">
-        <v>0</v>
+        <v>0.003011790692456108</v>
       </c>
       <c r="BJ3">
-        <v>0</v>
+        <v>0.0002575385460480553</v>
       </c>
       <c r="BK3">
-        <v>0.06350268928220477</v>
+        <v>0.06104500968027951</v>
       </c>
       <c r="BL3">
-        <v>0</v>
+        <v>0.006996789545668194</v>
       </c>
       <c r="BM3">
-        <v>0.005367150936926981</v>
+        <v>0.01431424676069163</v>
       </c>
       <c r="BN3">
-        <v>0</v>
+        <v>2.502827914025464E-06</v>
       </c>
       <c r="BO3">
-        <v>0</v>
+        <v>2.423670285203422E-05</v>
       </c>
       <c r="BP3">
-        <v>0</v>
+        <v>0.002726218598186293</v>
       </c>
       <c r="BQ3">
-        <v>0</v>
+        <v>0.002417979340146228</v>
       </c>
       <c r="BR3">
-        <v>0</v>
+        <v>0.0001649385421000762</v>
       </c>
       <c r="BS3">
-        <v>0</v>
+        <v>0.0005709664378209294</v>
       </c>
       <c r="BT3">
-        <v>0</v>
+        <v>0.002363171179722317</v>
       </c>
       <c r="BU3">
-        <v>0</v>
+        <v>0.006208516362079939</v>
       </c>
       <c r="BV3">
-        <v>0.008915787724415331</v>
+        <v>0.01716672751728061</v>
       </c>
       <c r="BW3">
-        <v>0.02160668316878013</v>
+        <v>0.02736797864745204</v>
       </c>
     </row>
     <row r="4" spans="1:75">
@@ -1497,100 +1497,100 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.2847639121176406</v>
+        <v>0.2412224171542024</v>
       </c>
       <c r="AS4">
-        <v>0.1407597575663971</v>
+        <v>0.1242940168945855</v>
       </c>
       <c r="AT4">
-        <v>0.2709178435558056</v>
+        <v>0.2299796953600599</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>0.001079146618584842</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>0.00202767267402883</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>0.001382593649543406</v>
       </c>
       <c r="AX4">
-        <v>0.1238003093150366</v>
+        <v>0.1105232950741142</v>
       </c>
       <c r="AY4">
-        <v>0.01895901933885585</v>
+        <v>0.02539433225862033</v>
       </c>
       <c r="AZ4">
-        <v>0.03177633361973534</v>
+        <v>0.03580172681718962</v>
       </c>
       <c r="BA4">
-        <v>0.004106824489686503</v>
+        <v>0.01333465669252745</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>4.113125218718544E-05</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>0.0006660989829517935</v>
       </c>
       <c r="BD4">
-        <v>0.003039826768261577</v>
+        <v>0.01246827657290057</v>
       </c>
       <c r="BE4">
-        <v>0</v>
+        <v>0.005643537232047784</v>
       </c>
       <c r="BF4">
-        <v>0.01598442663664308</v>
+        <v>0.02297902440047168</v>
       </c>
       <c r="BG4">
-        <v>0</v>
+        <v>0.005064990458729038</v>
       </c>
       <c r="BH4">
-        <v>0.004849594737302712</v>
+        <v>0.01393777079770625</v>
       </c>
       <c r="BI4">
-        <v>0</v>
+        <v>0.001519505444166734</v>
       </c>
       <c r="BJ4">
-        <v>0</v>
+        <v>0.004490230564271972</v>
       </c>
       <c r="BK4">
-        <v>0.06836687521874248</v>
+        <v>0.06551249111519039</v>
       </c>
       <c r="BL4">
-        <v>0</v>
+        <v>0.006808395252841702</v>
       </c>
       <c r="BM4">
-        <v>0</v>
+        <v>0.007899619783207261</v>
       </c>
       <c r="BN4">
-        <v>0</v>
+        <v>0.0008634232988327312</v>
       </c>
       <c r="BO4">
-        <v>0</v>
+        <v>0.001804315183125061</v>
       </c>
       <c r="BP4">
-        <v>0</v>
+        <v>0.0004398175871438931</v>
       </c>
       <c r="BQ4">
-        <v>0</v>
+        <v>0.002157522184236378</v>
       </c>
       <c r="BR4">
-        <v>0</v>
+        <v>0.001116734703165016</v>
       </c>
       <c r="BS4">
-        <v>0</v>
+        <v>0.00131318468325835</v>
       </c>
       <c r="BT4">
-        <v>0</v>
+        <v>0.003702727324166083</v>
       </c>
       <c r="BU4">
-        <v>0.000849403767639064</v>
+        <v>0.01068969832178824</v>
       </c>
       <c r="BV4">
-        <v>0.01497005020782152</v>
+        <v>0.02215537168397342</v>
       </c>
       <c r="BW4">
-        <v>0.01685582266043188</v>
+        <v>0.02368657998018211</v>
       </c>
     </row>
     <row r="5" spans="1:75">
@@ -1724,100 +1724,100 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.2016516135182773</v>
+        <v>0.1696070221949173</v>
       </c>
       <c r="AS5">
-        <v>0.04034648798539808</v>
+        <v>0.04193419924105256</v>
       </c>
       <c r="AT5">
-        <v>0.3233782875579669</v>
+        <v>0.2659535459156672</v>
       </c>
       <c r="AU5">
-        <v>0.007408307741336323</v>
+        <v>0.01586366713099011</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>0.003169019478353818</v>
       </c>
       <c r="AW5">
-        <v>0.03172615759207197</v>
+        <v>0.03511121756285034</v>
       </c>
       <c r="AX5">
-        <v>0.1075433285689083</v>
+        <v>0.09512042195118491</v>
       </c>
       <c r="AY5">
-        <v>0.01045456113914201</v>
+        <v>0.01827477322229271</v>
       </c>
       <c r="AZ5">
-        <v>0.03323315708005286</v>
+        <v>0.03630400593944369</v>
       </c>
       <c r="BA5">
-        <v>0.02547289721365328</v>
+        <v>0.03016176910272976</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>0.001573306140093603</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>0.001788213036622541</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>0.003890138463041729</v>
       </c>
       <c r="BE5">
-        <v>0.02467773573741563</v>
+        <v>0.02953239970085833</v>
       </c>
       <c r="BF5">
-        <v>0.01150139106056939</v>
+        <v>0.01910333791160237</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>0.004439076341898951</v>
       </c>
       <c r="BH5">
-        <v>0.03517353274975801</v>
+        <v>0.03783981106977575</v>
       </c>
       <c r="BI5">
-        <v>0</v>
+        <v>0.000309854482794494</v>
       </c>
       <c r="BJ5">
-        <v>0</v>
+        <v>0.001083251065675064</v>
       </c>
       <c r="BK5">
-        <v>0.09222974245457435</v>
+        <v>0.08299973600084541</v>
       </c>
       <c r="BL5">
-        <v>0.01130436783930669</v>
+        <v>0.01894739425660086</v>
       </c>
       <c r="BM5">
-        <v>0.02186882985574325</v>
+        <v>0.02730915389797324</v>
       </c>
       <c r="BN5">
-        <v>0</v>
+        <v>0.0001126782219415111</v>
       </c>
       <c r="BO5">
-        <v>0</v>
+        <v>0.0007971241205287643</v>
       </c>
       <c r="BP5">
-        <v>0</v>
+        <v>0.006791007693432307</v>
       </c>
       <c r="BQ5">
-        <v>0</v>
+        <v>0.00525613301017086</v>
       </c>
       <c r="BR5">
-        <v>0</v>
+        <v>0.0001682312527507867</v>
       </c>
       <c r="BS5">
-        <v>0</v>
+        <v>0.0004296298331455021</v>
       </c>
       <c r="BT5">
-        <v>0</v>
+        <v>0.003281377798315111</v>
       </c>
       <c r="BU5">
-        <v>0</v>
+        <v>0.005412099170134015</v>
       </c>
       <c r="BV5">
-        <v>0.003305170023756752</v>
+        <v>0.01261603830554971</v>
       </c>
       <c r="BW5">
-        <v>0.01872443188206918</v>
+        <v>0.02482036648676633</v>
       </c>
     </row>
     <row r="6" spans="1:75">
@@ -1948,100 +1948,100 @@
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.005630125271338065</v>
+        <v>0.01453263636904105</v>
       </c>
       <c r="AR6">
-        <v>0.2212141198256587</v>
+        <v>0.1880925142059736</v>
       </c>
       <c r="AS6">
-        <v>0.2265284776502698</v>
+        <v>0.1923709361580673</v>
       </c>
       <c r="AT6">
-        <v>0.1807452827802943</v>
+        <v>0.1555123292608135</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>0.001244872732292092</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>0.002681351633310149</v>
       </c>
       <c r="AW6">
-        <v>0.005106432762393669</v>
+        <v>0.01411102803923712</v>
       </c>
       <c r="AX6">
-        <v>0.1973088537913883</v>
+        <v>0.1688471381234652</v>
       </c>
       <c r="AY6">
-        <v>0.01555486107933129</v>
+        <v>0.0225227282956711</v>
       </c>
       <c r="AZ6">
-        <v>0.003096913791262934</v>
+        <v>0.01249322766467096</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>0.008536265613997495</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>0.0002406732964225959</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>0.003080565638346547</v>
       </c>
       <c r="BD6">
-        <v>0.009917407698003351</v>
+        <v>0.01798419229629224</v>
       </c>
       <c r="BE6">
-        <v>0</v>
+        <v>0.0001179116541926458</v>
       </c>
       <c r="BF6">
-        <v>0</v>
+        <v>0.008898425159575995</v>
       </c>
       <c r="BG6">
-        <v>0.01354812936084224</v>
+        <v>0.02090717185034</v>
       </c>
       <c r="BH6">
-        <v>0</v>
+        <v>0.005407179719341838</v>
       </c>
       <c r="BI6">
-        <v>0</v>
+        <v>0.00171898118371056</v>
       </c>
       <c r="BJ6">
-        <v>0.01871049013293005</v>
+        <v>0.02506322576707905</v>
       </c>
       <c r="BK6">
-        <v>0.0824615938098706</v>
+        <v>0.07638722961538641</v>
       </c>
       <c r="BL6">
-        <v>0</v>
+        <v>2.113758153013928E-06</v>
       </c>
       <c r="BM6">
-        <v>0</v>
+        <v>0.006020800331356083</v>
       </c>
       <c r="BN6">
-        <v>0</v>
+        <v>0.001199061936805612</v>
       </c>
       <c r="BO6">
-        <v>0</v>
+        <v>0.0001740231645584444</v>
       </c>
       <c r="BP6">
-        <v>0</v>
+        <v>0.002126642536586437</v>
       </c>
       <c r="BQ6">
-        <v>0</v>
+        <v>0.003547765944820098</v>
       </c>
       <c r="BR6">
-        <v>0</v>
+        <v>0.00156803990294849</v>
       </c>
       <c r="BS6">
-        <v>0</v>
+        <v>2.853432736955325E-05</v>
       </c>
       <c r="BT6">
-        <v>0</v>
+        <v>0.008338315971382425</v>
       </c>
       <c r="BU6">
-        <v>0.002053884637459715</v>
+        <v>0.01165351777392194</v>
       </c>
       <c r="BV6">
-        <v>0.01812342740895694</v>
+        <v>0.02459060007487017</v>
       </c>
       <c r="BW6">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.002056664043484111</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.129334167665091</v>
+        <v>0.1405024519496363</v>
       </c>
       <c r="F7">
-        <v>0.02072565488618068</v>
+        <v>0.01281764374176696</v>
       </c>
       <c r="G7">
-        <v>0.2755030635257049</v>
+        <v>0.3123448513747267</v>
       </c>
       <c r="H7">
-        <v>0.06612825498102003</v>
+        <v>0.06619488035902286</v>
       </c>
       <c r="I7">
-        <v>0.02041544467279583</v>
+        <v>0.0124529473603627</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2085,25 +2085,25 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2405682824292601</v>
+        <v>0.2712740300371416</v>
       </c>
       <c r="N7">
-        <v>0.04740479292504285</v>
+        <v>0.04418277835674781</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.05875091417251681</v>
+        <v>0.057521763288215</v>
       </c>
       <c r="Q7">
-        <v>0.009822985698967083</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0.01983851680862085</v>
+        <v>0.0117746863124749</v>
       </c>
       <c r="S7">
-        <v>0.01339703983617692</v>
+        <v>0.004201810754587505</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -2115,13 +2115,13 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.02581443201604547</v>
+        <v>0.01880022756705204</v>
       </c>
       <c r="X7">
-        <v>0.02574345689215807</v>
+        <v>0.01871678617881078</v>
       </c>
       <c r="Y7">
-        <v>0.01037491380084151</v>
+        <v>0.0006488702591465145</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.03412141564609376</v>
+        <v>0.02856627246030824</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -2288,46 +2288,46 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1714552967088327</v>
+        <v>0.1564184647388446</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.0006257720422178086</v>
       </c>
       <c r="G8">
-        <v>0.1268710911921427</v>
+        <v>0.1175769189423239</v>
       </c>
       <c r="H8">
-        <v>0.1378342289241996</v>
+        <v>0.1271279519002589</v>
       </c>
       <c r="I8">
-        <v>0.06823849261464773</v>
+        <v>0.06649648055783257</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.000632564968630007</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.002658185090607857</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.0009411345246219961</v>
       </c>
       <c r="M8">
-        <v>0.153850546015204</v>
+        <v>0.1410812904552987</v>
       </c>
       <c r="N8">
-        <v>0.03204187273025869</v>
+        <v>0.03496215909521413</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.08062121855260755</v>
+        <v>0.07728425194528016</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0.06660888750725841</v>
+        <v>0.06507677641204014</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -2336,22 +2336,22 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.008471117633059612</v>
+        <v>0.01442743041817834</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0.007658505086714576</v>
+        <v>0.01371948626917085</v>
       </c>
       <c r="X8">
-        <v>0.02478325568067999</v>
+        <v>0.02863848677037984</v>
       </c>
       <c r="Y8">
-        <v>0.02018285149994988</v>
+        <v>0.02463063673475584</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.006741228664557306</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>0.004446981228344656</v>
       </c>
       <c r="AE8">
-        <v>0.01160321557743421</v>
+        <v>0.01715609911005561</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -2375,13 +2375,13 @@
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>0.00904238017927256</v>
+        <v>0.0149251116057967</v>
       </c>
       <c r="AI8">
-        <v>0.02444696682975859</v>
+        <v>0.02834551353798629</v>
       </c>
       <c r="AJ8">
-        <v>0.05629007326797934</v>
+        <v>0.05608707498760387</v>
       </c>
       <c r="AK8">
         <v>0</v>
@@ -2515,46 +2515,46 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1179134946918223</v>
+        <v>0.1135212304626478</v>
       </c>
       <c r="F9">
-        <v>0.0183554702629268</v>
+        <v>0.02202217113585119</v>
       </c>
       <c r="G9">
-        <v>0.09569603518254148</v>
+        <v>0.09310221695377416</v>
       </c>
       <c r="H9">
-        <v>0.01209090311215746</v>
+        <v>0.01626470452607202</v>
       </c>
       <c r="I9">
-        <v>0.07298728256956917</v>
+        <v>0.07223167924984564</v>
       </c>
       <c r="J9">
-        <v>0.004563525169494958</v>
+        <v>0.009346648398483818</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.001770524836030253</v>
       </c>
       <c r="M9">
-        <v>0.2620351786288969</v>
+        <v>0.2459766360864747</v>
       </c>
       <c r="N9">
-        <v>0.1249911123441372</v>
+        <v>0.1200259332344877</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.0005067763653602818</v>
       </c>
       <c r="P9">
-        <v>0.06165712643233144</v>
+        <v>0.06181867000694534</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0.01252288916095265</v>
+        <v>0.01666172241924335</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.02995617729909208</v>
+        <v>0.03268383088074666</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -2572,16 +2572,16 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0.08403937075492668</v>
+        <v>0.08238912942383192</v>
       </c>
       <c r="Y9">
-        <v>0.03347887952436204</v>
+        <v>0.03592137945354722</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>0.001382185452395864</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.03039189379499306</v>
+        <v>0.03308427725095944</v>
       </c>
       <c r="AJ9">
-        <v>0.03932066107179593</v>
+        <v>0.04129028386330268</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -2742,46 +2742,46 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1834483479035048</v>
+        <v>0.1765212686794697</v>
       </c>
       <c r="F10">
-        <v>0.09868925206733722</v>
+        <v>0.09631278544086362</v>
       </c>
       <c r="G10">
-        <v>0.1412585292806602</v>
+        <v>0.1365965700206824</v>
       </c>
       <c r="H10">
-        <v>0.05322447292395576</v>
+        <v>0.05328895490216207</v>
       </c>
       <c r="I10">
-        <v>0.05325716232128996</v>
+        <v>0.05331988924557731</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.02399020499160533</v>
+        <v>0.02562423920041337</v>
       </c>
       <c r="L10">
-        <v>0.01682131171582579</v>
+        <v>0.01884023507109657</v>
       </c>
       <c r="M10">
-        <v>0.1854228294438118</v>
+        <v>0.1783897427112924</v>
       </c>
       <c r="N10">
-        <v>0.003908067678128713</v>
+        <v>0.006620287374206564</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.0002536955610089835</v>
       </c>
       <c r="P10">
-        <v>0.07212393339297606</v>
+        <v>0.07117372636289376</v>
       </c>
       <c r="Q10">
-        <v>0.02023687831029175</v>
+        <v>0.02207242405612424</v>
       </c>
       <c r="R10">
-        <v>0.0116978624894173</v>
+        <v>0.01399185759200505</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -2796,13 +2796,13 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>0.0003843947939096492</v>
       </c>
       <c r="X10">
-        <v>0.04340759332505884</v>
+        <v>0.04399913160950318</v>
       </c>
       <c r="Y10">
-        <v>0.02784244972854763</v>
+        <v>0.02926966161043157</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2811,13 +2811,13 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>0.000453987796996606</v>
       </c>
       <c r="AC10">
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.01068838288523369</v>
+        <v>0.01303657571797018</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -2826,16 +2826,16 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>0.003720983445460993</v>
+        <v>0.006443247466075156</v>
       </c>
       <c r="AH10">
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.01395853284653089</v>
+        <v>0.01613115531170992</v>
       </c>
       <c r="AJ10">
-        <v>0.03630320525036314</v>
+        <v>0.03727616947560757</v>
       </c>
       <c r="AK10">
         <v>0</v>
@@ -2969,55 +2969,55 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1698418394585446</v>
+        <v>0.2024147165386041</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.2449806199036375</v>
+        <v>0.3029540848524558</v>
       </c>
       <c r="H11">
-        <v>0.08895842438740055</v>
+        <v>0.09418874573964663</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.001065897181899224</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.04107583087983967</v>
+        <v>0.03011949047675391</v>
       </c>
       <c r="L11">
-        <v>0.01856582489903747</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.03782057311391854</v>
+        <v>0.02576379615292029</v>
       </c>
       <c r="N11">
-        <v>0.08341615656435937</v>
+        <v>0.08677291994830406</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.009690195706483782</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0.07012212624807908</v>
+        <v>0.06898485628228934</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0.01159324596035673</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>0.01929577644966685</v>
+        <v>0.0009767109256400837</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.04538870475074969</v>
+        <v>0.03589032694801483</v>
       </c>
       <c r="Y11">
-        <v>0.1042990517826987</v>
+        <v>0.1147152565337431</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -3059,10 +3059,10 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.007503963675418255</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0.04638176903791005</v>
+        <v>0.03721909560162783</v>
       </c>
       <c r="AK11">
         <v>0</v>
@@ -3553,97 +3553,97 @@
         <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.1883562720413256</v>
+        <v>0.1582799338574765</v>
       </c>
       <c r="AS2">
-        <v>0.2134614359331152</v>
+        <v>0.1880435021263309</v>
       </c>
       <c r="AT2">
-        <v>0.4940755311239409</v>
+        <v>0.4189516727087371</v>
       </c>
       <c r="AU2">
-        <v>0.4940755311239409</v>
+        <v>0.4263876208373285</v>
       </c>
       <c r="AV2">
-        <v>0.4940755311239409</v>
+        <v>0.4361472540549485</v>
       </c>
       <c r="AW2">
-        <v>0.5120718075705244</v>
+        <v>0.4603144843375419</v>
       </c>
       <c r="AX2">
-        <v>0.6039596961801854</v>
+        <v>0.5426514970511633</v>
       </c>
       <c r="AY2">
-        <v>0.6039596961801854</v>
+        <v>0.547693643207342</v>
       </c>
       <c r="AZ2">
-        <v>0.6216893170214501</v>
+        <v>0.5716509538780696</v>
       </c>
       <c r="BA2">
-        <v>0.7082050689098044</v>
+        <v>0.6497588529599777</v>
       </c>
       <c r="BB2">
-        <v>0.71572069730995</v>
+        <v>0.6656753901158334</v>
       </c>
       <c r="BC2">
-        <v>0.71572069730995</v>
+        <v>0.6668760208172696</v>
       </c>
       <c r="BD2">
-        <v>0.71572069730995</v>
+        <v>0.6683869162926217</v>
       </c>
       <c r="BE2">
-        <v>0.7836422601120867</v>
+        <v>0.7318568896078059</v>
       </c>
       <c r="BF2">
-        <v>0.792996967929276</v>
+        <v>0.7492212074579941</v>
       </c>
       <c r="BG2">
-        <v>0.8024060459563362</v>
+        <v>0.766628327233683</v>
       </c>
       <c r="BH2">
-        <v>0.8649030417210005</v>
+        <v>0.8258279121365006</v>
       </c>
       <c r="BI2">
-        <v>0.8649030417210005</v>
+        <v>0.8275206264583589</v>
       </c>
       <c r="BJ2">
-        <v>0.8658160515443823</v>
+        <v>0.8382393762762178</v>
       </c>
       <c r="BK2">
-        <v>0.9512020154970848</v>
+        <v>0.9154578710470516</v>
       </c>
       <c r="BL2">
-        <v>0.9657133554803045</v>
+        <v>0.9368816506195368</v>
       </c>
       <c r="BM2">
-        <v>0.9861660468250008</v>
+        <v>0.9629826473473418</v>
       </c>
       <c r="BN2">
-        <v>0.9861660468250008</v>
+        <v>0.9629920115203411</v>
       </c>
       <c r="BO2">
-        <v>0.9861660468250008</v>
+        <v>0.9632175348944518</v>
       </c>
       <c r="BP2">
-        <v>0.9861660468250008</v>
+        <v>0.9696396549711658</v>
       </c>
       <c r="BQ2">
-        <v>0.9861660468250008</v>
+        <v>0.9708165020994489</v>
       </c>
       <c r="BR2">
-        <v>0.9861660468250008</v>
+        <v>0.9718257763287969</v>
       </c>
       <c r="BS2">
-        <v>0.9861660468250008</v>
+        <v>0.9729617116212412</v>
       </c>
       <c r="BT2">
-        <v>0.9861660468250008</v>
+        <v>0.9732905842694807</v>
       </c>
       <c r="BU2">
-        <v>0.9861660468250008</v>
+        <v>0.9745095630543226</v>
       </c>
       <c r="BV2">
-        <v>0.9861660468250008</v>
+        <v>0.9791094804566622</v>
       </c>
       <c r="BW2">
         <v>1</v>
@@ -3780,97 +3780,97 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.2810718858277978</v>
+        <v>0.2359324336513552</v>
       </c>
       <c r="AS3">
-        <v>0.3767729848928042</v>
+        <v>0.3228593100309918</v>
       </c>
       <c r="AT3">
-        <v>0.6849581931659249</v>
+        <v>0.5805860932182474</v>
       </c>
       <c r="AU3">
-        <v>0.6849581931659249</v>
+        <v>0.5874809660678627</v>
       </c>
       <c r="AV3">
-        <v>0.6849581931659249</v>
+        <v>0.5889114921401726</v>
       </c>
       <c r="AW3">
-        <v>0.6892927023306435</v>
+        <v>0.6023956762711639</v>
       </c>
       <c r="AX3">
-        <v>0.8040076679140001</v>
+        <v>0.7046063620683128</v>
       </c>
       <c r="AY3">
-        <v>0.811943846677722</v>
+        <v>0.7209856560225948</v>
       </c>
       <c r="AZ3">
-        <v>0.83850035566433</v>
+        <v>0.7523324253266738</v>
       </c>
       <c r="BA3">
-        <v>0.8503451259269302</v>
+        <v>0.7718535404093471</v>
       </c>
       <c r="BB3">
-        <v>0.8503451259269302</v>
+        <v>0.7726349793216989</v>
       </c>
       <c r="BC3">
-        <v>0.8503451259269302</v>
+        <v>0.7738724442421642</v>
       </c>
       <c r="BD3">
-        <v>0.8524707944528582</v>
+        <v>0.7855811084217372</v>
       </c>
       <c r="BE3">
-        <v>0.8603999959865412</v>
+        <v>0.8019547939084266</v>
       </c>
       <c r="BF3">
-        <v>0.8858791532281153</v>
+        <v>0.8324355616167318</v>
       </c>
       <c r="BG3">
-        <v>0.8858791532281153</v>
+        <v>0.8335222326116345</v>
       </c>
       <c r="BH3">
-        <v>0.9006076888876728</v>
+        <v>0.855361388619302</v>
       </c>
       <c r="BI3">
-        <v>0.9006076888876728</v>
+        <v>0.8583731793117582</v>
       </c>
       <c r="BJ3">
-        <v>0.9006076888876728</v>
+        <v>0.8586307178578062</v>
       </c>
       <c r="BK3">
-        <v>0.9641103781698777</v>
+        <v>0.9196757275380857</v>
       </c>
       <c r="BL3">
-        <v>0.9641103781698777</v>
+        <v>0.9266725170837539</v>
       </c>
       <c r="BM3">
-        <v>0.9694775291068046</v>
+        <v>0.9409867638444455</v>
       </c>
       <c r="BN3">
-        <v>0.9694775291068046</v>
+        <v>0.9409892666723595</v>
       </c>
       <c r="BO3">
-        <v>0.9694775291068046</v>
+        <v>0.9410135033752115</v>
       </c>
       <c r="BP3">
-        <v>0.9694775291068046</v>
+        <v>0.9437397219733978</v>
       </c>
       <c r="BQ3">
-        <v>0.9694775291068046</v>
+        <v>0.946157701313544</v>
       </c>
       <c r="BR3">
-        <v>0.9694775291068046</v>
+        <v>0.9463226398556441</v>
       </c>
       <c r="BS3">
-        <v>0.9694775291068046</v>
+        <v>0.9468936062934651</v>
       </c>
       <c r="BT3">
-        <v>0.9694775291068046</v>
+        <v>0.9492567774731874</v>
       </c>
       <c r="BU3">
-        <v>0.9694775291068046</v>
+        <v>0.9554652938352673</v>
       </c>
       <c r="BV3">
-        <v>0.97839331683122</v>
+        <v>0.972632021352548</v>
       </c>
       <c r="BW3">
         <v>1</v>
@@ -4007,100 +4007,100 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.2847639121176406</v>
+        <v>0.2412224171542024</v>
       </c>
       <c r="AS4">
-        <v>0.4255236696840377</v>
+        <v>0.3655164340487879</v>
       </c>
       <c r="AT4">
-        <v>0.6964415132398433</v>
+        <v>0.5954961294088478</v>
       </c>
       <c r="AU4">
-        <v>0.6964415132398433</v>
+        <v>0.5965752760274327</v>
       </c>
       <c r="AV4">
-        <v>0.6964415132398433</v>
+        <v>0.5986029487014615</v>
       </c>
       <c r="AW4">
-        <v>0.6964415132398433</v>
+        <v>0.5999855423510049</v>
       </c>
       <c r="AX4">
-        <v>0.8202418225548799</v>
+        <v>0.7105088374251191</v>
       </c>
       <c r="AY4">
-        <v>0.8392008418937358</v>
+        <v>0.7359031696837394</v>
       </c>
       <c r="AZ4">
-        <v>0.8709771755134711</v>
+        <v>0.771704896500929</v>
       </c>
       <c r="BA4">
-        <v>0.8750840000031576</v>
+        <v>0.7850395531934564</v>
       </c>
       <c r="BB4">
-        <v>0.8750840000031576</v>
+        <v>0.7850806844456436</v>
       </c>
       <c r="BC4">
-        <v>0.8750840000031576</v>
+        <v>0.7857467834285954</v>
       </c>
       <c r="BD4">
-        <v>0.8781238267714191</v>
+        <v>0.798215060001496</v>
       </c>
       <c r="BE4">
-        <v>0.8781238267714191</v>
+        <v>0.8038585972335438</v>
       </c>
       <c r="BF4">
-        <v>0.8941082534080622</v>
+        <v>0.8268376216340155</v>
       </c>
       <c r="BG4">
-        <v>0.8941082534080622</v>
+        <v>0.8319026120927445</v>
       </c>
       <c r="BH4">
-        <v>0.8989578481453649</v>
+        <v>0.8458403828904507</v>
       </c>
       <c r="BI4">
-        <v>0.8989578481453649</v>
+        <v>0.8473598883346174</v>
       </c>
       <c r="BJ4">
-        <v>0.8989578481453649</v>
+        <v>0.8518501188988894</v>
       </c>
       <c r="BK4">
-        <v>0.9673247233641075</v>
+        <v>0.9173626100140798</v>
       </c>
       <c r="BL4">
-        <v>0.9673247233641075</v>
+        <v>0.9241710052669215</v>
       </c>
       <c r="BM4">
-        <v>0.9673247233641075</v>
+        <v>0.9320706250501288</v>
       </c>
       <c r="BN4">
-        <v>0.9673247233641075</v>
+        <v>0.9329340483489615</v>
       </c>
       <c r="BO4">
-        <v>0.9673247233641075</v>
+        <v>0.9347383635320866</v>
       </c>
       <c r="BP4">
-        <v>0.9673247233641075</v>
+        <v>0.9351781811192305</v>
       </c>
       <c r="BQ4">
-        <v>0.9673247233641075</v>
+        <v>0.9373357033034668</v>
       </c>
       <c r="BR4">
-        <v>0.9673247233641075</v>
+        <v>0.9384524380066318</v>
       </c>
       <c r="BS4">
-        <v>0.9673247233641075</v>
+        <v>0.9397656226898902</v>
       </c>
       <c r="BT4">
-        <v>0.9673247233641075</v>
+        <v>0.9434683500140563</v>
       </c>
       <c r="BU4">
-        <v>0.9681741271317466</v>
+        <v>0.9541580483358445</v>
       </c>
       <c r="BV4">
-        <v>0.983144177339568</v>
+        <v>0.9763134200198179</v>
       </c>
       <c r="BW4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:75">
@@ -4234,100 +4234,100 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.2016516135182773</v>
+        <v>0.1696070221949173</v>
       </c>
       <c r="AS5">
-        <v>0.2419981015036753</v>
+        <v>0.2115412214359698</v>
       </c>
       <c r="AT5">
-        <v>0.5653763890616422</v>
+        <v>0.477494767351637</v>
       </c>
       <c r="AU5">
-        <v>0.5727846968029785</v>
+        <v>0.4933584344826272</v>
       </c>
       <c r="AV5">
-        <v>0.5727846968029785</v>
+        <v>0.496527453960981</v>
       </c>
       <c r="AW5">
-        <v>0.6045108543950505</v>
+        <v>0.5316386715238313</v>
       </c>
       <c r="AX5">
-        <v>0.7120541829639587</v>
+        <v>0.6267590934750161</v>
       </c>
       <c r="AY5">
-        <v>0.7225087441031007</v>
+        <v>0.6450338666973088</v>
       </c>
       <c r="AZ5">
-        <v>0.7557419011831535</v>
+        <v>0.6813378726367525</v>
       </c>
       <c r="BA5">
-        <v>0.7812147983968069</v>
+        <v>0.7114996417394822</v>
       </c>
       <c r="BB5">
-        <v>0.7812147983968069</v>
+        <v>0.7130729478795759</v>
       </c>
       <c r="BC5">
-        <v>0.7812147983968069</v>
+        <v>0.7148611609161984</v>
       </c>
       <c r="BD5">
-        <v>0.7812147983968069</v>
+        <v>0.7187512993792402</v>
       </c>
       <c r="BE5">
-        <v>0.8058925341342225</v>
+        <v>0.7482836990800985</v>
       </c>
       <c r="BF5">
-        <v>0.8173939251947918</v>
+        <v>0.7673870369917009</v>
       </c>
       <c r="BG5">
-        <v>0.8173939251947918</v>
+        <v>0.7718261133335999</v>
       </c>
       <c r="BH5">
-        <v>0.8525674579445498</v>
+        <v>0.8096659244033756</v>
       </c>
       <c r="BI5">
-        <v>0.8525674579445498</v>
+        <v>0.8099757788861701</v>
       </c>
       <c r="BJ5">
-        <v>0.8525674579445498</v>
+        <v>0.8110590299518452</v>
       </c>
       <c r="BK5">
-        <v>0.9447972003991242</v>
+        <v>0.8940587659526906</v>
       </c>
       <c r="BL5">
-        <v>0.9561015682384308</v>
+        <v>0.9130061602092915</v>
       </c>
       <c r="BM5">
-        <v>0.9779703980941741</v>
+        <v>0.9403153141072648</v>
       </c>
       <c r="BN5">
-        <v>0.9779703980941741</v>
+        <v>0.9404279923292063</v>
       </c>
       <c r="BO5">
-        <v>0.9779703980941741</v>
+        <v>0.9412251164497351</v>
       </c>
       <c r="BP5">
-        <v>0.9779703980941741</v>
+        <v>0.9480161241431674</v>
       </c>
       <c r="BQ5">
-        <v>0.9779703980941741</v>
+        <v>0.9532722571533383</v>
       </c>
       <c r="BR5">
-        <v>0.9779703980941741</v>
+        <v>0.9534404884060891</v>
       </c>
       <c r="BS5">
-        <v>0.9779703980941741</v>
+        <v>0.9538701182392346</v>
       </c>
       <c r="BT5">
-        <v>0.9779703980941741</v>
+        <v>0.9571514960375498</v>
       </c>
       <c r="BU5">
-        <v>0.9779703980941741</v>
+        <v>0.9625635952076838</v>
       </c>
       <c r="BV5">
-        <v>0.9812755681179308</v>
+        <v>0.9751796335132334</v>
       </c>
       <c r="BW5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:75">
@@ -4458,97 +4458,97 @@
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.005630125271338065</v>
+        <v>0.01453263636904105</v>
       </c>
       <c r="AR6">
-        <v>0.2268442450969968</v>
+        <v>0.2026251505750147</v>
       </c>
       <c r="AS6">
-        <v>0.4533727227472666</v>
+        <v>0.394996086733082</v>
       </c>
       <c r="AT6">
-        <v>0.6341180055275609</v>
+        <v>0.5505084159938954</v>
       </c>
       <c r="AU6">
-        <v>0.6341180055275609</v>
+        <v>0.5517532887261876</v>
       </c>
       <c r="AV6">
-        <v>0.6341180055275609</v>
+        <v>0.5544346403594977</v>
       </c>
       <c r="AW6">
-        <v>0.6392244382899546</v>
+        <v>0.5685456683987349</v>
       </c>
       <c r="AX6">
-        <v>0.8365332920813429</v>
+        <v>0.7373928065222001</v>
       </c>
       <c r="AY6">
-        <v>0.8520881531606741</v>
+        <v>0.7599155348178712</v>
       </c>
       <c r="AZ6">
-        <v>0.8551850669519371</v>
+        <v>0.7724087624825422</v>
       </c>
       <c r="BA6">
-        <v>0.8551850669519371</v>
+        <v>0.7809450280965397</v>
       </c>
       <c r="BB6">
-        <v>0.8551850669519371</v>
+        <v>0.7811857013929623</v>
       </c>
       <c r="BC6">
-        <v>0.8551850669519371</v>
+        <v>0.7842662670313089</v>
       </c>
       <c r="BD6">
-        <v>0.8651024746499404</v>
+        <v>0.8022504593276011</v>
       </c>
       <c r="BE6">
-        <v>0.8651024746499404</v>
+        <v>0.8023683709817937</v>
       </c>
       <c r="BF6">
-        <v>0.8651024746499404</v>
+        <v>0.8112667961413697</v>
       </c>
       <c r="BG6">
-        <v>0.8786506040107827</v>
+        <v>0.8321739679917096</v>
       </c>
       <c r="BH6">
-        <v>0.8786506040107827</v>
+        <v>0.8375811477110514</v>
       </c>
       <c r="BI6">
-        <v>0.8786506040107827</v>
+        <v>0.839300128894762</v>
       </c>
       <c r="BJ6">
-        <v>0.8973610941437127</v>
+        <v>0.8643633546618411</v>
       </c>
       <c r="BK6">
-        <v>0.9798226879535833</v>
+        <v>0.9407505842772275</v>
       </c>
       <c r="BL6">
-        <v>0.9798226879535833</v>
+        <v>0.9407526980353805</v>
       </c>
       <c r="BM6">
-        <v>0.9798226879535833</v>
+        <v>0.9467734983667366</v>
       </c>
       <c r="BN6">
-        <v>0.9798226879535833</v>
+        <v>0.9479725603035423</v>
       </c>
       <c r="BO6">
-        <v>0.9798226879535833</v>
+        <v>0.9481465834681007</v>
       </c>
       <c r="BP6">
-        <v>0.9798226879535833</v>
+        <v>0.9502732260046871</v>
       </c>
       <c r="BQ6">
-        <v>0.9798226879535833</v>
+        <v>0.9538209919495072</v>
       </c>
       <c r="BR6">
-        <v>0.9798226879535833</v>
+        <v>0.9553890318524557</v>
       </c>
       <c r="BS6">
-        <v>0.9798226879535833</v>
+        <v>0.9554175661798253</v>
       </c>
       <c r="BT6">
-        <v>0.9798226879535833</v>
+        <v>0.9637558821512078</v>
       </c>
       <c r="BU6">
-        <v>0.981876572591043</v>
+        <v>0.9754093999251298</v>
       </c>
       <c r="BV6">
         <v>0.9999999999999999</v>
@@ -4568,220 +4568,220 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.002056664043484111</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1313908317085751</v>
+        <v>0.1405024519496363</v>
       </c>
       <c r="F7">
-        <v>0.1521164865947558</v>
+        <v>0.1533200956914033</v>
       </c>
       <c r="G7">
-        <v>0.4276195501204607</v>
+        <v>0.46566494706613</v>
       </c>
       <c r="H7">
-        <v>0.4937478051014808</v>
+        <v>0.5318598274251528</v>
       </c>
       <c r="I7">
-        <v>0.5141632497742766</v>
+        <v>0.5443127747855155</v>
       </c>
       <c r="J7">
-        <v>0.5141632497742766</v>
+        <v>0.5443127747855155</v>
       </c>
       <c r="K7">
-        <v>0.5141632497742766</v>
+        <v>0.5443127747855155</v>
       </c>
       <c r="L7">
-        <v>0.5141632497742766</v>
+        <v>0.5443127747855155</v>
       </c>
       <c r="M7">
-        <v>0.7547315322035367</v>
+        <v>0.8155868048226571</v>
       </c>
       <c r="N7">
-        <v>0.8021363251285796</v>
+        <v>0.8597695831794049</v>
       </c>
       <c r="O7">
-        <v>0.8021363251285796</v>
+        <v>0.8597695831794049</v>
       </c>
       <c r="P7">
-        <v>0.8608872393010963</v>
+        <v>0.9172913464676199</v>
       </c>
       <c r="Q7">
-        <v>0.8707102250000635</v>
+        <v>0.9172913464676199</v>
       </c>
       <c r="R7">
-        <v>0.8905487418086843</v>
+        <v>0.9290660327800948</v>
       </c>
       <c r="S7">
-        <v>0.9039457816448612</v>
+        <v>0.9332678435346823</v>
       </c>
       <c r="T7">
-        <v>0.9039457816448612</v>
+        <v>0.9332678435346823</v>
       </c>
       <c r="U7">
-        <v>0.9039457816448612</v>
+        <v>0.9332678435346823</v>
       </c>
       <c r="V7">
-        <v>0.9039457816448612</v>
+        <v>0.9332678435346823</v>
       </c>
       <c r="W7">
-        <v>0.9297602136609067</v>
+        <v>0.9520680711017343</v>
       </c>
       <c r="X7">
-        <v>0.9555036705530647</v>
+        <v>0.9707848572805451</v>
       </c>
       <c r="Y7">
-        <v>0.9658785843539063</v>
+        <v>0.9714337275396916</v>
       </c>
       <c r="Z7">
-        <v>0.9658785843539063</v>
+        <v>0.9714337275396916</v>
       </c>
       <c r="AA7">
-        <v>0.9658785843539063</v>
+        <v>0.9714337275396916</v>
       </c>
       <c r="AB7">
-        <v>0.9658785843539063</v>
+        <v>0.9714337275396916</v>
       </c>
       <c r="AC7">
-        <v>0.9658785843539063</v>
+        <v>0.9714337275396916</v>
       </c>
       <c r="AD7">
-        <v>0.9658785843539063</v>
+        <v>0.9714337275396916</v>
       </c>
       <c r="AE7">
-        <v>0.9658785843539063</v>
+        <v>0.9714337275396916</v>
       </c>
       <c r="AF7">
-        <v>0.9658785843539063</v>
+        <v>0.9714337275396916</v>
       </c>
       <c r="AG7">
-        <v>0.9658785843539063</v>
+        <v>0.9714337275396916</v>
       </c>
       <c r="AH7">
-        <v>0.9658785843539063</v>
+        <v>0.9714337275396916</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:75">
@@ -4798,97 +4798,97 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1714552967088327</v>
+        <v>0.1564184647388446</v>
       </c>
       <c r="F8">
-        <v>0.1714552967088327</v>
+        <v>0.1570442367810624</v>
       </c>
       <c r="G8">
-        <v>0.2983263879009753</v>
+        <v>0.2746211557233864</v>
       </c>
       <c r="H8">
-        <v>0.4361606168251749</v>
+        <v>0.4017491076236454</v>
       </c>
       <c r="I8">
-        <v>0.5043991094398227</v>
+        <v>0.4682455881814779</v>
       </c>
       <c r="J8">
-        <v>0.5043991094398227</v>
+        <v>0.4688781531501079</v>
       </c>
       <c r="K8">
-        <v>0.5043991094398227</v>
+        <v>0.4715363382407158</v>
       </c>
       <c r="L8">
-        <v>0.5043991094398227</v>
+        <v>0.4724774727653378</v>
       </c>
       <c r="M8">
-        <v>0.6582496554550267</v>
+        <v>0.6135587632206365</v>
       </c>
       <c r="N8">
-        <v>0.6902915281852854</v>
+        <v>0.6485209223158507</v>
       </c>
       <c r="O8">
-        <v>0.6902915281852854</v>
+        <v>0.6485209223158507</v>
       </c>
       <c r="P8">
-        <v>0.7709127467378929</v>
+        <v>0.7258051742611309</v>
       </c>
       <c r="Q8">
-        <v>0.7709127467378929</v>
+        <v>0.7258051742611309</v>
       </c>
       <c r="R8">
-        <v>0.8375216342451512</v>
+        <v>0.790881950673171</v>
       </c>
       <c r="S8">
-        <v>0.8375216342451512</v>
+        <v>0.790881950673171</v>
       </c>
       <c r="T8">
-        <v>0.8375216342451512</v>
+        <v>0.790881950673171</v>
       </c>
       <c r="U8">
-        <v>0.8459927518782109</v>
+        <v>0.8053093810913493</v>
       </c>
       <c r="V8">
-        <v>0.8459927518782109</v>
+        <v>0.8053093810913493</v>
       </c>
       <c r="W8">
-        <v>0.8536512569649255</v>
+        <v>0.8190288673605202</v>
       </c>
       <c r="X8">
-        <v>0.8784345126456055</v>
+        <v>0.8476673541309</v>
       </c>
       <c r="Y8">
-        <v>0.8986173641455554</v>
+        <v>0.8722979908656558</v>
       </c>
       <c r="Z8">
-        <v>0.8986173641455554</v>
+        <v>0.8790392195302131</v>
       </c>
       <c r="AA8">
-        <v>0.8986173641455554</v>
+        <v>0.8790392195302131</v>
       </c>
       <c r="AB8">
-        <v>0.8986173641455554</v>
+        <v>0.8790392195302131</v>
       </c>
       <c r="AC8">
-        <v>0.8986173641455554</v>
+        <v>0.8790392195302131</v>
       </c>
       <c r="AD8">
-        <v>0.8986173641455554</v>
+        <v>0.8834862007585578</v>
       </c>
       <c r="AE8">
-        <v>0.9102205797229895</v>
+        <v>0.9006422998686134</v>
       </c>
       <c r="AF8">
-        <v>0.9102205797229895</v>
+        <v>0.9006422998686134</v>
       </c>
       <c r="AG8">
-        <v>0.9102205797229895</v>
+        <v>0.9006422998686134</v>
       </c>
       <c r="AH8">
-        <v>0.9192629599022621</v>
+        <v>0.9155674114744101</v>
       </c>
       <c r="AI8">
-        <v>0.9437099267320207</v>
+        <v>0.9439129250123964</v>
       </c>
       <c r="AJ8">
         <v>1</v>
@@ -5025,217 +5025,217 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1179134946918223</v>
+        <v>0.1135212304626478</v>
       </c>
       <c r="F9">
-        <v>0.1362689649547491</v>
+        <v>0.135543401598499</v>
       </c>
       <c r="G9">
-        <v>0.2319650001372906</v>
+        <v>0.2286456185522732</v>
       </c>
       <c r="H9">
-        <v>0.2440559032494481</v>
+        <v>0.2449103230783452</v>
       </c>
       <c r="I9">
-        <v>0.3170431858190172</v>
+        <v>0.3171420023281908</v>
       </c>
       <c r="J9">
-        <v>0.3216067109885122</v>
+        <v>0.3264886507266746</v>
       </c>
       <c r="K9">
-        <v>0.3216067109885122</v>
+        <v>0.3264886507266746</v>
       </c>
       <c r="L9">
-        <v>0.3216067109885122</v>
+        <v>0.3282591755627048</v>
       </c>
       <c r="M9">
-        <v>0.5836418896174091</v>
+        <v>0.5742358116491796</v>
       </c>
       <c r="N9">
-        <v>0.7086330019615463</v>
+        <v>0.6942617448836672</v>
       </c>
       <c r="O9">
-        <v>0.7086330019615463</v>
+        <v>0.6947685212490274</v>
       </c>
       <c r="P9">
-        <v>0.7702901283938778</v>
+        <v>0.7565871912559727</v>
       </c>
       <c r="Q9">
-        <v>0.7702901283938778</v>
+        <v>0.7565871912559727</v>
       </c>
       <c r="R9">
-        <v>0.7828130175548305</v>
+        <v>0.7732489136752161</v>
       </c>
       <c r="S9">
-        <v>0.7828130175548305</v>
+        <v>0.7732489136752161</v>
       </c>
       <c r="T9">
-        <v>0.7828130175548305</v>
+        <v>0.7732489136752161</v>
       </c>
       <c r="U9">
-        <v>0.8127691948539225</v>
+        <v>0.8059327445559628</v>
       </c>
       <c r="V9">
-        <v>0.8127691948539225</v>
+        <v>0.8059327445559628</v>
       </c>
       <c r="W9">
-        <v>0.8127691948539225</v>
+        <v>0.8059327445559628</v>
       </c>
       <c r="X9">
-        <v>0.8968085656088491</v>
+        <v>0.8883218739797947</v>
       </c>
       <c r="Y9">
-        <v>0.9302874451332112</v>
+        <v>0.9242432534333419</v>
       </c>
       <c r="Z9">
-        <v>0.9302874451332112</v>
+        <v>0.9242432534333419</v>
       </c>
       <c r="AA9">
-        <v>0.9302874451332112</v>
+        <v>0.9256254388857378</v>
       </c>
       <c r="AB9">
-        <v>0.9302874451332112</v>
+        <v>0.9256254388857378</v>
       </c>
       <c r="AC9">
-        <v>0.9302874451332112</v>
+        <v>0.9256254388857378</v>
       </c>
       <c r="AD9">
-        <v>0.9302874451332112</v>
+        <v>0.9256254388857378</v>
       </c>
       <c r="AE9">
-        <v>0.9302874451332112</v>
+        <v>0.9256254388857378</v>
       </c>
       <c r="AF9">
-        <v>0.9302874451332112</v>
+        <v>0.9256254388857378</v>
       </c>
       <c r="AG9">
-        <v>0.9302874451332112</v>
+        <v>0.9256254388857378</v>
       </c>
       <c r="AH9">
-        <v>0.9302874451332112</v>
+        <v>0.9256254388857378</v>
       </c>
       <c r="AI9">
-        <v>0.9606793389282042</v>
+        <v>0.9587097161366972</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:75">
@@ -5252,217 +5252,217 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1834483479035048</v>
+        <v>0.1765212686794697</v>
       </c>
       <c r="F10">
-        <v>0.282137599970842</v>
+        <v>0.2728340541203333</v>
       </c>
       <c r="G10">
-        <v>0.4233961292515022</v>
+        <v>0.4094306241410157</v>
       </c>
       <c r="H10">
-        <v>0.4766206021754579</v>
+        <v>0.4627195790431778</v>
       </c>
       <c r="I10">
-        <v>0.5298777644967478</v>
+        <v>0.5160394682887551</v>
       </c>
       <c r="J10">
-        <v>0.5298777644967478</v>
+        <v>0.5160394682887551</v>
       </c>
       <c r="K10">
-        <v>0.5538679694883532</v>
+        <v>0.5416637074891685</v>
       </c>
       <c r="L10">
-        <v>0.5706892812041789</v>
+        <v>0.560503942560265</v>
       </c>
       <c r="M10">
-        <v>0.7561121106479907</v>
+        <v>0.7388936852715574</v>
       </c>
       <c r="N10">
-        <v>0.7600201783261193</v>
+        <v>0.745513972645764</v>
       </c>
       <c r="O10">
-        <v>0.7600201783261193</v>
+        <v>0.745767668206773</v>
       </c>
       <c r="P10">
-        <v>0.8321441117190954</v>
+        <v>0.8169413945696667</v>
       </c>
       <c r="Q10">
-        <v>0.8523809900293872</v>
+        <v>0.8390138186257909</v>
       </c>
       <c r="R10">
-        <v>0.8640788525188045</v>
+        <v>0.853005676217796</v>
       </c>
       <c r="S10">
-        <v>0.8640788525188045</v>
+        <v>0.853005676217796</v>
       </c>
       <c r="T10">
-        <v>0.8640788525188045</v>
+        <v>0.853005676217796</v>
       </c>
       <c r="U10">
-        <v>0.8640788525188045</v>
+        <v>0.853005676217796</v>
       </c>
       <c r="V10">
-        <v>0.8640788525188045</v>
+        <v>0.853005676217796</v>
       </c>
       <c r="W10">
-        <v>0.8640788525188045</v>
+        <v>0.8533900710117056</v>
       </c>
       <c r="X10">
-        <v>0.9074864458438633</v>
+        <v>0.8973892026212088</v>
       </c>
       <c r="Y10">
-        <v>0.9353288955724109</v>
+        <v>0.9266588642316403</v>
       </c>
       <c r="Z10">
-        <v>0.9353288955724109</v>
+        <v>0.9266588642316403</v>
       </c>
       <c r="AA10">
-        <v>0.9353288955724109</v>
+        <v>0.9266588642316403</v>
       </c>
       <c r="AB10">
-        <v>0.9353288955724109</v>
+        <v>0.9271128520286369</v>
       </c>
       <c r="AC10">
-        <v>0.9353288955724109</v>
+        <v>0.9271128520286369</v>
       </c>
       <c r="AD10">
-        <v>0.9460172784576446</v>
+        <v>0.9401494277466071</v>
       </c>
       <c r="AE10">
-        <v>0.9460172784576446</v>
+        <v>0.9401494277466071</v>
       </c>
       <c r="AF10">
-        <v>0.9460172784576446</v>
+        <v>0.9401494277466071</v>
       </c>
       <c r="AG10">
-        <v>0.9497382619031056</v>
+        <v>0.9465926752126823</v>
       </c>
       <c r="AH10">
-        <v>0.9497382619031056</v>
+        <v>0.9465926752126823</v>
       </c>
       <c r="AI10">
-        <v>0.9636967947496365</v>
+        <v>0.9627238305243923</v>
       </c>
       <c r="AJ10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AR10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AS10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AT10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AU10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AV10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AW10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AX10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AY10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AZ10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BA10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BB10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BC10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BD10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BE10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BF10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BG10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BH10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BI10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BJ10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BK10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BL10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BM10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BN10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BO10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BP10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BQ10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BR10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BS10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BT10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BU10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BV10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BW10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:75">
@@ -5479,97 +5479,97 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1698418394585446</v>
+        <v>0.2024147165386041</v>
       </c>
       <c r="F11">
-        <v>0.1698418394585446</v>
+        <v>0.2024147165386041</v>
       </c>
       <c r="G11">
-        <v>0.4148224593621821</v>
+        <v>0.50536880139106</v>
       </c>
       <c r="H11">
-        <v>0.5037808837495826</v>
+        <v>0.5995575471307066</v>
       </c>
       <c r="I11">
-        <v>0.5037808837495826</v>
+        <v>0.5995575471307066</v>
       </c>
       <c r="J11">
-        <v>0.5048467809314818</v>
+        <v>0.5995575471307066</v>
       </c>
       <c r="K11">
-        <v>0.5459226118113215</v>
+        <v>0.6296770376074605</v>
       </c>
       <c r="L11">
-        <v>0.564488436710359</v>
+        <v>0.6296770376074605</v>
       </c>
       <c r="M11">
-        <v>0.6023090098242775</v>
+        <v>0.6554408337603808</v>
       </c>
       <c r="N11">
-        <v>0.6857251663886369</v>
+        <v>0.7422137537086848</v>
       </c>
       <c r="O11">
-        <v>0.6857251663886369</v>
+        <v>0.7422137537086848</v>
       </c>
       <c r="P11">
-        <v>0.6954153620951207</v>
+        <v>0.7422137537086848</v>
       </c>
       <c r="Q11">
-        <v>0.6954153620951207</v>
+        <v>0.7422137537086848</v>
       </c>
       <c r="R11">
-        <v>0.7655374883431998</v>
+        <v>0.8111986099909742</v>
       </c>
       <c r="S11">
-        <v>0.7655374883431998</v>
+        <v>0.8111986099909742</v>
       </c>
       <c r="T11">
-        <v>0.7771307343035565</v>
+        <v>0.8111986099909742</v>
       </c>
       <c r="U11">
-        <v>0.7964265107532233</v>
+        <v>0.8121753209166143</v>
       </c>
       <c r="V11">
-        <v>0.7964265107532233</v>
+        <v>0.8121753209166143</v>
       </c>
       <c r="W11">
-        <v>0.7964265107532233</v>
+        <v>0.8121753209166143</v>
       </c>
       <c r="X11">
-        <v>0.8418152155039731</v>
+        <v>0.8480656478646291</v>
       </c>
       <c r="Y11">
-        <v>0.9461142672866718</v>
+        <v>0.9627809043983722</v>
       </c>
       <c r="Z11">
-        <v>0.9461142672866718</v>
+        <v>0.9627809043983722</v>
       </c>
       <c r="AA11">
-        <v>0.9461142672866718</v>
+        <v>0.9627809043983722</v>
       </c>
       <c r="AB11">
-        <v>0.9461142672866718</v>
+        <v>0.9627809043983722</v>
       </c>
       <c r="AC11">
-        <v>0.9461142672866718</v>
+        <v>0.9627809043983722</v>
       </c>
       <c r="AD11">
-        <v>0.9461142672866718</v>
+        <v>0.9627809043983722</v>
       </c>
       <c r="AE11">
-        <v>0.9461142672866718</v>
+        <v>0.9627809043983722</v>
       </c>
       <c r="AF11">
-        <v>0.9461142672866718</v>
+        <v>0.9627809043983722</v>
       </c>
       <c r="AG11">
-        <v>0.9461142672866718</v>
+        <v>0.9627809043983722</v>
       </c>
       <c r="AH11">
-        <v>0.9461142672866718</v>
+        <v>0.9627809043983722</v>
       </c>
       <c r="AI11">
-        <v>0.9536182309620901</v>
+        <v>0.9627809043983722</v>
       </c>
       <c r="AJ11">
         <v>1</v>
@@ -5757,16 +5757,16 @@
         <v>41</v>
       </c>
       <c r="D2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5120718075705244</v>
+        <v>0.5426514970511633</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -5804,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6849581931659249</v>
+        <v>0.5805860932182474</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6964415132398433</v>
+        <v>0.5954961294088478</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -5880,16 +5880,16 @@
         <v>41</v>
       </c>
       <c r="D5">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5653763890616422</v>
+        <v>0.5316386715238313</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -5927,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6341180055275609</v>
+        <v>0.5505084159938954</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -5962,16 +5962,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5141632497742766</v>
+        <v>0.5318598274251528</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -6003,16 +6003,16 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5043991094398227</v>
+        <v>0.6135587632206365</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H8">
         <v>10</v>
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5836418896174091</v>
+        <v>0.5742358116491796</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -6091,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5298777644967478</v>
+        <v>0.5160394682887551</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -6126,16 +6126,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5037808837495826</v>
+        <v>0.50536880139106</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -6221,16 +6221,16 @@
         <v>41</v>
       </c>
       <c r="D2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7082050689098044</v>
+        <v>0.7318568896078059</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8040076679140001</v>
+        <v>0.7046063620683128</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8202418225548799</v>
+        <v>0.7105088374251191</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -6344,16 +6344,16 @@
         <v>41</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7120541829639587</v>
+        <v>0.7114996417394822</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -6391,7 +6391,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8365332920813429</v>
+        <v>0.7373928065222001</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -6432,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7547315322035367</v>
+        <v>0.8155868048226571</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -6473,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7709127467378929</v>
+        <v>0.7258051742611309</v>
       </c>
       <c r="G8">
         <v>13</v>
@@ -6508,16 +6508,16 @@
         <v>2</v>
       </c>
       <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.7565871912559727</v>
+      </c>
+      <c r="G9">
         <v>13</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.7086330019615463</v>
-      </c>
-      <c r="G9">
-        <v>11</v>
       </c>
       <c r="H9">
         <v>10</v>
@@ -6555,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7561121106479907</v>
+        <v>0.7388936852715574</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -6590,16 +6590,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7655374883431998</v>
+        <v>0.7422137537086848</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -6685,16 +6685,16 @@
         <v>41</v>
       </c>
       <c r="D2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8024060459563362</v>
+        <v>0.8258279121365006</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -6726,16 +6726,16 @@
         <v>41</v>
       </c>
       <c r="D3">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8040076679140001</v>
+        <v>0.8019547939084266</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -6767,16 +6767,16 @@
         <v>41</v>
       </c>
       <c r="D4">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8202418225548799</v>
+        <v>0.8038585972335438</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -6808,16 +6808,16 @@
         <v>41</v>
       </c>
       <c r="D5">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8058925341342225</v>
+        <v>0.8096659244033756</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -6849,16 +6849,16 @@
         <v>41</v>
       </c>
       <c r="D6">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8365332920813429</v>
+        <v>0.8022504593276011</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -6890,16 +6890,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8021363251285796</v>
+        <v>0.8155868048226571</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -6931,16 +6931,16 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8375216342451512</v>
+        <v>0.8053093810913493</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H8">
         <v>10</v>
@@ -6978,7 +6978,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8127691948539225</v>
+        <v>0.8059327445559628</v>
       </c>
       <c r="G9">
         <v>18</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8321441117190954</v>
+        <v>0.8169413945696667</v>
       </c>
       <c r="G10">
         <v>13</v>
@@ -7054,16 +7054,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8418152155039731</v>
+        <v>0.8111986099909742</v>
       </c>
       <c r="G11">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -7155,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9512020154970848</v>
+        <v>0.9154578710470516</v>
       </c>
       <c r="G2">
         <v>21</v>
@@ -7190,16 +7190,16 @@
         <v>41</v>
       </c>
       <c r="D3">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9006076888876728</v>
+        <v>0.9196757275380857</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9673247233641075</v>
+        <v>0.9173626100140798</v>
       </c>
       <c r="G4">
         <v>21</v>
@@ -7272,16 +7272,16 @@
         <v>41</v>
       </c>
       <c r="D5">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9447972003991242</v>
+        <v>0.9130061602092915</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -7319,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9798226879535833</v>
+        <v>0.9407505842772275</v>
       </c>
       <c r="G6">
         <v>21</v>
@@ -7354,16 +7354,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9039457816448612</v>
+        <v>0.9172913464676199</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -7401,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9102205797229895</v>
+        <v>0.9006422998686134</v>
       </c>
       <c r="G8">
         <v>28</v>
@@ -7442,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9302874451332112</v>
+        <v>0.9242432534333419</v>
       </c>
       <c r="G9">
         <v>22</v>
@@ -7477,16 +7477,16 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9074864458438633</v>
+        <v>0.9266588642316403</v>
       </c>
       <c r="G10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -7524,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9461142672866718</v>
+        <v>0.9627809043983722</v>
       </c>
       <c r="G11">
         <v>22</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/10_245-70R19.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/10_245-70R19.xlsx
@@ -19,7 +19,133 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="143">
+  <si>
+    <t>Signal_Value_7</t>
+  </si>
+  <si>
+    <t>Signal_Value_8</t>
+  </si>
+  <si>
+    <t>Signal_Value_9</t>
+  </si>
+  <si>
+    <t>Signal_Value_10</t>
+  </si>
+  <si>
+    <t>Signal_Value_11</t>
+  </si>
+  <si>
+    <t>Signal_Value_12</t>
+  </si>
+  <si>
+    <t>Signal_Value_13</t>
+  </si>
+  <si>
+    <t>Signal_Value_14</t>
+  </si>
+  <si>
+    <t>Signal_Value_15</t>
+  </si>
+  <si>
+    <t>Signal_Value_16</t>
+  </si>
+  <si>
+    <t>Signal_Value_17</t>
+  </si>
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
+  <si>
+    <t>Signal_Value_25</t>
+  </si>
+  <si>
+    <t>Signal_Value_26</t>
+  </si>
+  <si>
+    <t>Signal_Value_27</t>
+  </si>
+  <si>
+    <t>Signal_Value_28</t>
+  </si>
+  <si>
+    <t>Signal_Value_29</t>
+  </si>
+  <si>
+    <t>Signal_Value_30</t>
+  </si>
+  <si>
+    <t>Signal_Value_31</t>
+  </si>
+  <si>
+    <t>Signal_Value_32</t>
+  </si>
+  <si>
+    <t>Signal_Value_33</t>
+  </si>
+  <si>
+    <t>Signal_Value_34</t>
+  </si>
+  <si>
+    <t>Signal_Value_35</t>
+  </si>
+  <si>
+    <t>Signal_Value_36</t>
+  </si>
+  <si>
+    <t>Signal_Value_37</t>
+  </si>
+  <si>
+    <t>Signal_Value_38</t>
+  </si>
+  <si>
+    <t>Signal_Value_39</t>
+  </si>
+  <si>
+    <t>Signal_Value_40</t>
+  </si>
+  <si>
+    <t>Signal_Value_41</t>
+  </si>
+  <si>
+    <t>Signal_Value_42</t>
+  </si>
+  <si>
+    <t>Signal_Value_43</t>
+  </si>
+  <si>
+    <t>Signal_Value_44</t>
+  </si>
+  <si>
+    <t>Signal_Value_45</t>
+  </si>
+  <si>
+    <t>Signal_Value_46</t>
+  </si>
+  <si>
+    <t>Signal_Value_47</t>
+  </si>
+  <si>
+    <t>Signal_Value_48</t>
+  </si>
   <si>
     <t>Signal_Value_49</t>
   </si>
@@ -679,15 +805,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BW11"/>
+  <dimension ref="A1:DM11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:75">
+    <row r="1" spans="1:117">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -911,10 +1037,136 @@
       <c r="BW1" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="2" spans="1:75">
+    <row r="2" spans="1:117">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1043,105 +1295,231 @@
         <v>0</v>
       </c>
       <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
         <v>0.1582799338574765</v>
       </c>
-      <c r="AS2">
+      <c r="CI2">
         <v>0.02976356826885447</v>
       </c>
-      <c r="AT2">
+      <c r="CJ2">
         <v>0.2309081705824061</v>
       </c>
-      <c r="AU2">
+      <c r="CK2">
         <v>0.007435948128591326</v>
       </c>
-      <c r="AV2">
+      <c r="CL2">
         <v>0.009759633217620085</v>
       </c>
-      <c r="AW2">
+      <c r="CM2">
         <v>0.02416723028259336</v>
       </c>
-      <c r="AX2">
+      <c r="CN2">
         <v>0.08233701271362144</v>
       </c>
-      <c r="AY2">
+      <c r="CO2">
         <v>0.005042146156178672</v>
       </c>
-      <c r="AZ2">
+      <c r="CP2">
         <v>0.02395731067072763</v>
       </c>
-      <c r="BA2">
+      <c r="CQ2">
         <v>0.07810789908190803</v>
       </c>
-      <c r="BB2">
+      <c r="CR2">
         <v>0.01591653715585574</v>
       </c>
-      <c r="BC2">
+      <c r="CS2">
         <v>0.001200630701436203</v>
       </c>
-      <c r="BD2">
+      <c r="CT2">
         <v>0.001510895475352135</v>
       </c>
-      <c r="BE2">
+      <c r="CU2">
         <v>0.06346997331518424</v>
       </c>
-      <c r="BF2">
+      <c r="CV2">
         <v>0.01736431785018822</v>
       </c>
-      <c r="BG2">
+      <c r="CW2">
         <v>0.01740711977568889</v>
       </c>
-      <c r="BH2">
+      <c r="CX2">
         <v>0.05919958490281763</v>
       </c>
-      <c r="BI2">
+      <c r="CY2">
         <v>0.001692714321858239</v>
       </c>
-      <c r="BJ2">
+      <c r="CZ2">
         <v>0.01071874981785892</v>
       </c>
-      <c r="BK2">
+      <c r="DA2">
         <v>0.07721849477083376</v>
       </c>
-      <c r="BL2">
+      <c r="DB2">
         <v>0.02142377957248523</v>
       </c>
-      <c r="BM2">
+      <c r="DC2">
         <v>0.02610099672780508</v>
       </c>
-      <c r="BN2">
+      <c r="DD2">
         <v>9.364172999275077E-06</v>
       </c>
-      <c r="BO2">
+      <c r="DE2">
         <v>0.0002255233741107637</v>
       </c>
-      <c r="BP2">
+      <c r="DF2">
         <v>0.00642212007671395</v>
       </c>
-      <c r="BQ2">
+      <c r="DG2">
         <v>0.001176847128283185</v>
       </c>
-      <c r="BR2">
+      <c r="DH2">
         <v>0.001009274229347933</v>
       </c>
-      <c r="BS2">
+      <c r="DI2">
         <v>0.001135935292444357</v>
       </c>
-      <c r="BT2">
+      <c r="DJ2">
         <v>0.0003288726482394361</v>
       </c>
-      <c r="BU2">
+      <c r="DK2">
         <v>0.001218978784841863</v>
       </c>
-      <c r="BV2">
+      <c r="DL2">
         <v>0.004599917402339626</v>
       </c>
-      <c r="BW2">
+      <c r="DM2">
         <v>0.02089051954333781</v>
       </c>
     </row>
-    <row r="3" spans="1:75">
+    <row r="3" spans="1:117">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1270,105 +1648,231 @@
         <v>0</v>
       </c>
       <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
         <v>0.2359324336513552</v>
       </c>
-      <c r="AS3">
+      <c r="CI3">
         <v>0.08692687637963657</v>
       </c>
-      <c r="AT3">
+      <c r="CJ3">
         <v>0.2577267831872556</v>
       </c>
-      <c r="AU3">
+      <c r="CK3">
         <v>0.006894872849615351</v>
       </c>
-      <c r="AV3">
+      <c r="CL3">
         <v>0.001430526072309883</v>
       </c>
-      <c r="AW3">
+      <c r="CM3">
         <v>0.01348418413099125</v>
       </c>
-      <c r="AX3">
+      <c r="CN3">
         <v>0.102210685797149</v>
       </c>
-      <c r="AY3">
+      <c r="CO3">
         <v>0.01637929395428196</v>
       </c>
-      <c r="AZ3">
+      <c r="CP3">
         <v>0.03134676930407895</v>
       </c>
-      <c r="BA3">
+      <c r="CQ3">
         <v>0.01952111508267325</v>
       </c>
-      <c r="BB3">
+      <c r="CR3">
         <v>0.000781438912351826</v>
       </c>
-      <c r="BC3">
+      <c r="CS3">
         <v>0.001237464920465276</v>
       </c>
-      <c r="BD3">
+      <c r="CT3">
         <v>0.01170866417957302</v>
       </c>
-      <c r="BE3">
+      <c r="CU3">
         <v>0.01637368548668936</v>
       </c>
-      <c r="BF3">
+      <c r="CV3">
         <v>0.03048076770830517</v>
       </c>
-      <c r="BG3">
+      <c r="CW3">
         <v>0.001086670994902704</v>
       </c>
-      <c r="BH3">
+      <c r="CX3">
         <v>0.02183915600766747</v>
       </c>
-      <c r="BI3">
+      <c r="CY3">
         <v>0.003011790692456108</v>
       </c>
-      <c r="BJ3">
+      <c r="CZ3">
         <v>0.0002575385460480553</v>
       </c>
-      <c r="BK3">
+      <c r="DA3">
         <v>0.06104500968027951</v>
       </c>
-      <c r="BL3">
+      <c r="DB3">
         <v>0.006996789545668194</v>
       </c>
-      <c r="BM3">
+      <c r="DC3">
         <v>0.01431424676069163</v>
       </c>
-      <c r="BN3">
+      <c r="DD3">
         <v>2.502827914025464E-06</v>
       </c>
-      <c r="BO3">
+      <c r="DE3">
         <v>2.423670285203422E-05</v>
       </c>
-      <c r="BP3">
+      <c r="DF3">
         <v>0.002726218598186293</v>
       </c>
-      <c r="BQ3">
+      <c r="DG3">
         <v>0.002417979340146228</v>
       </c>
-      <c r="BR3">
+      <c r="DH3">
         <v>0.0001649385421000762</v>
       </c>
-      <c r="BS3">
+      <c r="DI3">
         <v>0.0005709664378209294</v>
       </c>
-      <c r="BT3">
+      <c r="DJ3">
         <v>0.002363171179722317</v>
       </c>
-      <c r="BU3">
+      <c r="DK3">
         <v>0.006208516362079939</v>
       </c>
-      <c r="BV3">
+      <c r="DL3">
         <v>0.01716672751728061</v>
       </c>
-      <c r="BW3">
+      <c r="DM3">
         <v>0.02736797864745204</v>
       </c>
     </row>
-    <row r="4" spans="1:75">
+    <row r="4" spans="1:117">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1497,105 +2001,231 @@
         <v>0</v>
       </c>
       <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
         <v>0.2412224171542024</v>
       </c>
-      <c r="AS4">
+      <c r="CI4">
         <v>0.1242940168945855</v>
       </c>
-      <c r="AT4">
+      <c r="CJ4">
         <v>0.2299796953600599</v>
       </c>
-      <c r="AU4">
+      <c r="CK4">
         <v>0.001079146618584842</v>
       </c>
-      <c r="AV4">
+      <c r="CL4">
         <v>0.00202767267402883</v>
       </c>
-      <c r="AW4">
+      <c r="CM4">
         <v>0.001382593649543406</v>
       </c>
-      <c r="AX4">
+      <c r="CN4">
         <v>0.1105232950741142</v>
       </c>
-      <c r="AY4">
+      <c r="CO4">
         <v>0.02539433225862033</v>
       </c>
-      <c r="AZ4">
+      <c r="CP4">
         <v>0.03580172681718962</v>
       </c>
-      <c r="BA4">
+      <c r="CQ4">
         <v>0.01333465669252745</v>
       </c>
-      <c r="BB4">
+      <c r="CR4">
         <v>4.113125218718544E-05</v>
       </c>
-      <c r="BC4">
+      <c r="CS4">
         <v>0.0006660989829517935</v>
       </c>
-      <c r="BD4">
+      <c r="CT4">
         <v>0.01246827657290057</v>
       </c>
-      <c r="BE4">
+      <c r="CU4">
         <v>0.005643537232047784</v>
       </c>
-      <c r="BF4">
+      <c r="CV4">
         <v>0.02297902440047168</v>
       </c>
-      <c r="BG4">
+      <c r="CW4">
         <v>0.005064990458729038</v>
       </c>
-      <c r="BH4">
+      <c r="CX4">
         <v>0.01393777079770625</v>
       </c>
-      <c r="BI4">
+      <c r="CY4">
         <v>0.001519505444166734</v>
       </c>
-      <c r="BJ4">
+      <c r="CZ4">
         <v>0.004490230564271972</v>
       </c>
-      <c r="BK4">
+      <c r="DA4">
         <v>0.06551249111519039</v>
       </c>
-      <c r="BL4">
+      <c r="DB4">
         <v>0.006808395252841702</v>
       </c>
-      <c r="BM4">
+      <c r="DC4">
         <v>0.007899619783207261</v>
       </c>
-      <c r="BN4">
+      <c r="DD4">
         <v>0.0008634232988327312</v>
       </c>
-      <c r="BO4">
+      <c r="DE4">
         <v>0.001804315183125061</v>
       </c>
-      <c r="BP4">
+      <c r="DF4">
         <v>0.0004398175871438931</v>
       </c>
-      <c r="BQ4">
+      <c r="DG4">
         <v>0.002157522184236378</v>
       </c>
-      <c r="BR4">
+      <c r="DH4">
         <v>0.001116734703165016</v>
       </c>
-      <c r="BS4">
+      <c r="DI4">
         <v>0.00131318468325835</v>
       </c>
-      <c r="BT4">
+      <c r="DJ4">
         <v>0.003702727324166083</v>
       </c>
-      <c r="BU4">
+      <c r="DK4">
         <v>0.01068969832178824</v>
       </c>
-      <c r="BV4">
+      <c r="DL4">
         <v>0.02215537168397342</v>
       </c>
-      <c r="BW4">
+      <c r="DM4">
         <v>0.02368657998018211</v>
       </c>
     </row>
-    <row r="5" spans="1:75">
+    <row r="5" spans="1:117">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1724,105 +2354,231 @@
         <v>0</v>
       </c>
       <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
         <v>0.1696070221949173</v>
       </c>
-      <c r="AS5">
+      <c r="CI5">
         <v>0.04193419924105256</v>
       </c>
-      <c r="AT5">
+      <c r="CJ5">
         <v>0.2659535459156672</v>
       </c>
-      <c r="AU5">
+      <c r="CK5">
         <v>0.01586366713099011</v>
       </c>
-      <c r="AV5">
+      <c r="CL5">
         <v>0.003169019478353818</v>
       </c>
-      <c r="AW5">
+      <c r="CM5">
         <v>0.03511121756285034</v>
       </c>
-      <c r="AX5">
+      <c r="CN5">
         <v>0.09512042195118491</v>
       </c>
-      <c r="AY5">
+      <c r="CO5">
         <v>0.01827477322229271</v>
       </c>
-      <c r="AZ5">
+      <c r="CP5">
         <v>0.03630400593944369</v>
       </c>
-      <c r="BA5">
+      <c r="CQ5">
         <v>0.03016176910272976</v>
       </c>
-      <c r="BB5">
+      <c r="CR5">
         <v>0.001573306140093603</v>
       </c>
-      <c r="BC5">
+      <c r="CS5">
         <v>0.001788213036622541</v>
       </c>
-      <c r="BD5">
+      <c r="CT5">
         <v>0.003890138463041729</v>
       </c>
-      <c r="BE5">
+      <c r="CU5">
         <v>0.02953239970085833</v>
       </c>
-      <c r="BF5">
+      <c r="CV5">
         <v>0.01910333791160237</v>
       </c>
-      <c r="BG5">
+      <c r="CW5">
         <v>0.004439076341898951</v>
       </c>
-      <c r="BH5">
+      <c r="CX5">
         <v>0.03783981106977575</v>
       </c>
-      <c r="BI5">
+      <c r="CY5">
         <v>0.000309854482794494</v>
       </c>
-      <c r="BJ5">
+      <c r="CZ5">
         <v>0.001083251065675064</v>
       </c>
-      <c r="BK5">
+      <c r="DA5">
         <v>0.08299973600084541</v>
       </c>
-      <c r="BL5">
+      <c r="DB5">
         <v>0.01894739425660086</v>
       </c>
-      <c r="BM5">
+      <c r="DC5">
         <v>0.02730915389797324</v>
       </c>
-      <c r="BN5">
+      <c r="DD5">
         <v>0.0001126782219415111</v>
       </c>
-      <c r="BO5">
+      <c r="DE5">
         <v>0.0007971241205287643</v>
       </c>
-      <c r="BP5">
+      <c r="DF5">
         <v>0.006791007693432307</v>
       </c>
-      <c r="BQ5">
+      <c r="DG5">
         <v>0.00525613301017086</v>
       </c>
-      <c r="BR5">
+      <c r="DH5">
         <v>0.0001682312527507867</v>
       </c>
-      <c r="BS5">
+      <c r="DI5">
         <v>0.0004296298331455021</v>
       </c>
-      <c r="BT5">
+      <c r="DJ5">
         <v>0.003281377798315111</v>
       </c>
-      <c r="BU5">
+      <c r="DK5">
         <v>0.005412099170134015</v>
       </c>
-      <c r="BV5">
+      <c r="DL5">
         <v>0.01261603830554971</v>
       </c>
-      <c r="BW5">
+      <c r="DM5">
         <v>0.02482036648676633</v>
       </c>
     </row>
-    <row r="6" spans="1:75">
+    <row r="6" spans="1:117">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1948,108 +2704,234 @@
         <v>0</v>
       </c>
       <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
         <v>0.01453263636904105</v>
       </c>
-      <c r="AR6">
+      <c r="CH6">
         <v>0.1880925142059736</v>
       </c>
-      <c r="AS6">
+      <c r="CI6">
         <v>0.1923709361580673</v>
       </c>
-      <c r="AT6">
+      <c r="CJ6">
         <v>0.1555123292608135</v>
       </c>
-      <c r="AU6">
+      <c r="CK6">
         <v>0.001244872732292092</v>
       </c>
-      <c r="AV6">
+      <c r="CL6">
         <v>0.002681351633310149</v>
       </c>
-      <c r="AW6">
+      <c r="CM6">
         <v>0.01411102803923712</v>
       </c>
-      <c r="AX6">
+      <c r="CN6">
         <v>0.1688471381234652</v>
       </c>
-      <c r="AY6">
+      <c r="CO6">
         <v>0.0225227282956711</v>
       </c>
-      <c r="AZ6">
+      <c r="CP6">
         <v>0.01249322766467096</v>
       </c>
-      <c r="BA6">
+      <c r="CQ6">
         <v>0.008536265613997495</v>
       </c>
-      <c r="BB6">
+      <c r="CR6">
         <v>0.0002406732964225959</v>
       </c>
-      <c r="BC6">
+      <c r="CS6">
         <v>0.003080565638346547</v>
       </c>
-      <c r="BD6">
+      <c r="CT6">
         <v>0.01798419229629224</v>
       </c>
-      <c r="BE6">
+      <c r="CU6">
         <v>0.0001179116541926458</v>
       </c>
-      <c r="BF6">
+      <c r="CV6">
         <v>0.008898425159575995</v>
       </c>
-      <c r="BG6">
+      <c r="CW6">
         <v>0.02090717185034</v>
       </c>
-      <c r="BH6">
+      <c r="CX6">
         <v>0.005407179719341838</v>
       </c>
-      <c r="BI6">
+      <c r="CY6">
         <v>0.00171898118371056</v>
       </c>
-      <c r="BJ6">
+      <c r="CZ6">
         <v>0.02506322576707905</v>
       </c>
-      <c r="BK6">
+      <c r="DA6">
         <v>0.07638722961538641</v>
       </c>
-      <c r="BL6">
+      <c r="DB6">
         <v>2.113758153013928E-06</v>
       </c>
-      <c r="BM6">
+      <c r="DC6">
         <v>0.006020800331356083</v>
       </c>
-      <c r="BN6">
+      <c r="DD6">
         <v>0.001199061936805612</v>
       </c>
-      <c r="BO6">
+      <c r="DE6">
         <v>0.0001740231645584444</v>
       </c>
-      <c r="BP6">
+      <c r="DF6">
         <v>0.002126642536586437</v>
       </c>
-      <c r="BQ6">
+      <c r="DG6">
         <v>0.003547765944820098</v>
       </c>
-      <c r="BR6">
+      <c r="DH6">
         <v>0.00156803990294849</v>
       </c>
-      <c r="BS6">
+      <c r="DI6">
         <v>2.853432736955325E-05</v>
       </c>
-      <c r="BT6">
+      <c r="DJ6">
         <v>0.008338315971382425</v>
       </c>
-      <c r="BU6">
+      <c r="DK6">
         <v>0.01165351777392194</v>
       </c>
-      <c r="BV6">
+      <c r="DL6">
         <v>0.02459060007487017</v>
       </c>
-      <c r="BW6">
+      <c r="DM6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:75">
+    <row r="7" spans="1:117">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2061,19 +2943,19 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1405024519496363</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.01281764374176696</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3123448513747267</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.06619488035902286</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0124529473603627</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2085,25 +2967,25 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2712740300371416</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.04418277835674781</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.057521763288215</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0.0117746863124749</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0.004201810754587505</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -2115,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.01880022756705204</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0.01871678617881078</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.0006488702591465145</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -2151,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.02856627246030824</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -2184,99 +3066,225 @@
         <v>0</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>0.01161568558454755</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>0.1116030551747026</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>0.02628177530306898</v>
       </c>
       <c r="AW7">
-        <v>0</v>
+        <v>0.2264312298099491</v>
       </c>
       <c r="AX7">
-        <v>0</v>
+        <v>0.061949402549539</v>
       </c>
       <c r="AY7">
-        <v>0</v>
+        <v>0.02603807863732854</v>
       </c>
       <c r="AZ7">
-        <v>0</v>
+        <v>0.00701925688713421</v>
       </c>
       <c r="BA7">
-        <v>0</v>
+        <v>0.006494953942363262</v>
       </c>
       <c r="BB7">
-        <v>0</v>
+        <v>0.001059698754540488</v>
       </c>
       <c r="BC7">
-        <v>0</v>
+        <v>0.198986970065304</v>
       </c>
       <c r="BD7">
-        <v>0</v>
+        <v>0.04724052103215809</v>
       </c>
       <c r="BE7">
-        <v>0</v>
+        <v>0.00193155657993282</v>
       </c>
       <c r="BF7">
-        <v>0</v>
+        <v>0.05615387010253773</v>
       </c>
       <c r="BG7">
-        <v>0</v>
+        <v>0.01771679576998471</v>
       </c>
       <c r="BH7">
-        <v>0</v>
+        <v>0.0255848524352055</v>
       </c>
       <c r="BI7">
-        <v>0</v>
+        <v>0.02052452110858694</v>
       </c>
       <c r="BJ7">
-        <v>0</v>
+        <v>0.004958396133942993</v>
       </c>
       <c r="BK7">
-        <v>0</v>
+        <v>0.0029145296515313</v>
       </c>
       <c r="BL7">
-        <v>0</v>
+        <v>0.002665374445717199</v>
       </c>
       <c r="BM7">
-        <v>0</v>
+        <v>0.03027944515962438</v>
       </c>
       <c r="BN7">
-        <v>0</v>
+        <v>0.03022368812682671</v>
       </c>
       <c r="BO7">
-        <v>0</v>
+        <v>0.01815038251971683</v>
       </c>
       <c r="BP7">
-        <v>0</v>
+        <v>0.007617477562069395</v>
       </c>
       <c r="BQ7">
-        <v>0</v>
+        <v>0.0001994534606159071</v>
       </c>
       <c r="BR7">
-        <v>0</v>
+        <v>0.000342686761420562</v>
       </c>
       <c r="BS7">
-        <v>0</v>
+        <v>0.0008177763545766393</v>
       </c>
       <c r="BT7">
-        <v>0</v>
+        <v>0.002537843937603777</v>
       </c>
       <c r="BU7">
-        <v>0</v>
+        <v>0.005207086050469711</v>
       </c>
       <c r="BV7">
-        <v>0</v>
+        <v>0.001878639053093516</v>
       </c>
       <c r="BW7">
+        <v>0.0003668355957725817</v>
+      </c>
+      <c r="BX7">
+        <v>0.008402869862328416</v>
+      </c>
+      <c r="BY7">
+        <v>0.03680529158780656</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <v>0</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
+      </c>
+      <c r="CN7">
+        <v>0</v>
+      </c>
+      <c r="CO7">
+        <v>0</v>
+      </c>
+      <c r="CP7">
+        <v>0</v>
+      </c>
+      <c r="CQ7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="CS7">
+        <v>0</v>
+      </c>
+      <c r="CT7">
+        <v>0</v>
+      </c>
+      <c r="CU7">
+        <v>0</v>
+      </c>
+      <c r="CV7">
+        <v>0</v>
+      </c>
+      <c r="CW7">
+        <v>0</v>
+      </c>
+      <c r="CX7">
+        <v>0</v>
+      </c>
+      <c r="CY7">
+        <v>0</v>
+      </c>
+      <c r="CZ7">
+        <v>0</v>
+      </c>
+      <c r="DA7">
+        <v>0</v>
+      </c>
+      <c r="DB7">
+        <v>0</v>
+      </c>
+      <c r="DC7">
+        <v>0</v>
+      </c>
+      <c r="DD7">
+        <v>0</v>
+      </c>
+      <c r="DE7">
+        <v>0</v>
+      </c>
+      <c r="DF7">
+        <v>0</v>
+      </c>
+      <c r="DG7">
+        <v>0</v>
+      </c>
+      <c r="DH7">
+        <v>0</v>
+      </c>
+      <c r="DI7">
+        <v>0</v>
+      </c>
+      <c r="DJ7">
+        <v>0</v>
+      </c>
+      <c r="DK7">
+        <v>0</v>
+      </c>
+      <c r="DL7">
+        <v>0</v>
+      </c>
+      <c r="DM7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:75">
+    <row r="8" spans="1:117">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2288,46 +3296,46 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1564184647388446</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0006257720422178086</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.1175769189423239</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.1271279519002589</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.06649648055783257</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.000632564968630007</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.002658185090607857</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.0009411345246219961</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1410812904552987</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.03496215909521413</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.07728425194528016</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0.06507677641204014</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -2336,22 +3344,22 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.01442743041817834</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0.01371948626917085</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0.02863848677037984</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.02463063673475584</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.006741228664557306</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -2363,10 +3371,10 @@
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.004446981228344656</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.01715609911005561</v>
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -2375,13 +3383,13 @@
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>0.0149251116057967</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.02834551353798629</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0.05608707498760387</v>
+        <v>0</v>
       </c>
       <c r="AK8">
         <v>0</v>
@@ -2414,96 +3422,222 @@
         <v>0</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>0.145659640002811</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>0.004167809774805947</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>0.1103835220507552</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>0.1190578257706207</v>
       </c>
       <c r="AY8">
-        <v>0</v>
+        <v>0.06399197061936374</v>
       </c>
       <c r="AZ8">
-        <v>0</v>
+        <v>0.004173979150108662</v>
       </c>
       <c r="BA8">
-        <v>0</v>
+        <v>0.006013659134095011</v>
       </c>
       <c r="BB8">
-        <v>0</v>
+        <v>0.004454223816750172</v>
       </c>
       <c r="BC8">
-        <v>0</v>
+        <v>0.131730329055406</v>
       </c>
       <c r="BD8">
-        <v>0</v>
+        <v>0.03535231633575337</v>
       </c>
       <c r="BE8">
-        <v>0</v>
+        <v>4.316327921267135E-05</v>
       </c>
       <c r="BF8">
-        <v>0</v>
+        <v>0.07378948737878946</v>
       </c>
       <c r="BG8">
-        <v>0</v>
+        <v>0.003170864953667258</v>
       </c>
       <c r="BH8">
-        <v>0</v>
+        <v>0.06270258705140898</v>
       </c>
       <c r="BI8">
-        <v>0</v>
+        <v>0.0006532069585760794</v>
       </c>
       <c r="BJ8">
-        <v>0</v>
+        <v>0.003599479964040494</v>
       </c>
       <c r="BK8">
-        <v>0</v>
+        <v>0.01670255623816566</v>
       </c>
       <c r="BL8">
-        <v>0</v>
+        <v>0.0008359403301625096</v>
       </c>
       <c r="BM8">
-        <v>0</v>
+        <v>0.01605959724176823</v>
       </c>
       <c r="BN8">
-        <v>0</v>
+        <v>0.02960912032626325</v>
       </c>
       <c r="BO8">
-        <v>0</v>
+        <v>0.02596916759803049</v>
       </c>
       <c r="BP8">
-        <v>0</v>
+        <v>0.009721903071464937</v>
       </c>
       <c r="BQ8">
-        <v>0</v>
+        <v>3.159229926145029E-06</v>
       </c>
       <c r="BR8">
-        <v>0</v>
+        <v>0.000778664746942412</v>
       </c>
       <c r="BS8">
-        <v>0</v>
+        <v>0.0002843801151778443</v>
       </c>
       <c r="BT8">
-        <v>0</v>
+        <v>0.007638254197266714</v>
       </c>
       <c r="BU8">
-        <v>0</v>
+        <v>0.019180749025111</v>
       </c>
       <c r="BV8">
-        <v>0</v>
+        <v>0.0010114187970469</v>
       </c>
       <c r="BW8">
+        <v>0.002225342368491685</v>
+      </c>
+      <c r="BX8">
+        <v>0.01715455318928899</v>
+      </c>
+      <c r="BY8">
+        <v>0.02934304033148519</v>
+      </c>
+      <c r="BZ8">
+        <v>0.05453808789724336</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8">
+        <v>0</v>
+      </c>
+      <c r="CE8">
+        <v>0</v>
+      </c>
+      <c r="CF8">
+        <v>0</v>
+      </c>
+      <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <v>0</v>
+      </c>
+      <c r="CI8">
+        <v>0</v>
+      </c>
+      <c r="CJ8">
+        <v>0</v>
+      </c>
+      <c r="CK8">
+        <v>0</v>
+      </c>
+      <c r="CL8">
+        <v>0</v>
+      </c>
+      <c r="CM8">
+        <v>0</v>
+      </c>
+      <c r="CN8">
+        <v>0</v>
+      </c>
+      <c r="CO8">
+        <v>0</v>
+      </c>
+      <c r="CP8">
+        <v>0</v>
+      </c>
+      <c r="CQ8">
+        <v>0</v>
+      </c>
+      <c r="CR8">
+        <v>0</v>
+      </c>
+      <c r="CS8">
+        <v>0</v>
+      </c>
+      <c r="CT8">
+        <v>0</v>
+      </c>
+      <c r="CU8">
+        <v>0</v>
+      </c>
+      <c r="CV8">
+        <v>0</v>
+      </c>
+      <c r="CW8">
+        <v>0</v>
+      </c>
+      <c r="CX8">
+        <v>0</v>
+      </c>
+      <c r="CY8">
+        <v>0</v>
+      </c>
+      <c r="CZ8">
+        <v>0</v>
+      </c>
+      <c r="DA8">
+        <v>0</v>
+      </c>
+      <c r="DB8">
+        <v>0</v>
+      </c>
+      <c r="DC8">
+        <v>0</v>
+      </c>
+      <c r="DD8">
+        <v>0</v>
+      </c>
+      <c r="DE8">
+        <v>0</v>
+      </c>
+      <c r="DF8">
+        <v>0</v>
+      </c>
+      <c r="DG8">
+        <v>0</v>
+      </c>
+      <c r="DH8">
+        <v>0</v>
+      </c>
+      <c r="DI8">
+        <v>0</v>
+      </c>
+      <c r="DJ8">
+        <v>0</v>
+      </c>
+      <c r="DK8">
+        <v>0</v>
+      </c>
+      <c r="DL8">
+        <v>0</v>
+      </c>
+      <c r="DM8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:75">
+    <row r="9" spans="1:117">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2512,103 +3646,103 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.1447891890863836</v>
       </c>
       <c r="E9">
-        <v>0.1135212304626478</v>
+        <v>0.1348364696825887</v>
       </c>
       <c r="F9">
-        <v>0.02202217113585119</v>
+        <v>0.09408886641063227</v>
       </c>
       <c r="G9">
-        <v>0.09310221695377416</v>
+        <v>0.04526272421082472</v>
       </c>
       <c r="H9">
-        <v>0.01626470452607202</v>
+        <v>0.02341558647408927</v>
       </c>
       <c r="I9">
-        <v>0.07223167924984564</v>
+        <v>0.01787264676192333</v>
       </c>
       <c r="J9">
-        <v>0.009346648398483818</v>
+        <v>0.02739653931576363</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.004564686124352577</v>
       </c>
       <c r="L9">
-        <v>0.001770524836030253</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2459766360864747</v>
+        <v>0.002025169024900264</v>
       </c>
       <c r="N9">
-        <v>0.1200259332344877</v>
+        <v>0.002408864443127946</v>
       </c>
       <c r="O9">
-        <v>0.0005067763653602818</v>
+        <v>0.0060931295407872</v>
       </c>
       <c r="P9">
-        <v>0.06181867000694534</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0.01666172241924335</v>
+        <v>0.0001697847680793273</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.004233350022046628</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.03268383088074666</v>
+        <v>0.01314905591480553</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>0.0009285392960607685</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0.08238912942383192</v>
+        <v>0.018648748360781</v>
       </c>
       <c r="Y9">
-        <v>0.03592137945354722</v>
+        <v>0.06709049549368662</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.08258131981657557</v>
       </c>
       <c r="AA9">
-        <v>0.001382185452395864</v>
+        <v>0.09527063527305628</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>0.0971705943676464</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>0.05199928192226717</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>0.02449264389708795</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>0.01244405087316372</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>0.0084604549418327</v>
       </c>
       <c r="AG9">
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>0.002317910115475696</v>
       </c>
       <c r="AI9">
-        <v>0.03308427725095944</v>
+        <v>0.01828926386206109</v>
       </c>
       <c r="AJ9">
-        <v>0.04129028386330268</v>
+        <v>0</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -2727,10 +3861,136 @@
       <c r="BW9">
         <v>0</v>
       </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9">
+        <v>0</v>
+      </c>
+      <c r="BZ9">
+        <v>0</v>
+      </c>
+      <c r="CA9">
+        <v>0</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+      <c r="CD9">
+        <v>0</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9">
+        <v>0</v>
+      </c>
+      <c r="CG9">
+        <v>0</v>
+      </c>
+      <c r="CH9">
+        <v>0</v>
+      </c>
+      <c r="CI9">
+        <v>0</v>
+      </c>
+      <c r="CJ9">
+        <v>0</v>
+      </c>
+      <c r="CK9">
+        <v>0</v>
+      </c>
+      <c r="CL9">
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <v>0</v>
+      </c>
+      <c r="CN9">
+        <v>0</v>
+      </c>
+      <c r="CO9">
+        <v>0</v>
+      </c>
+      <c r="CP9">
+        <v>0</v>
+      </c>
+      <c r="CQ9">
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9">
+        <v>0</v>
+      </c>
+      <c r="CT9">
+        <v>0</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CV9">
+        <v>0</v>
+      </c>
+      <c r="CW9">
+        <v>0</v>
+      </c>
+      <c r="CX9">
+        <v>0</v>
+      </c>
+      <c r="CY9">
+        <v>0</v>
+      </c>
+      <c r="CZ9">
+        <v>0</v>
+      </c>
+      <c r="DA9">
+        <v>0</v>
+      </c>
+      <c r="DB9">
+        <v>0</v>
+      </c>
+      <c r="DC9">
+        <v>0</v>
+      </c>
+      <c r="DD9">
+        <v>0</v>
+      </c>
+      <c r="DE9">
+        <v>0</v>
+      </c>
+      <c r="DF9">
+        <v>0</v>
+      </c>
+      <c r="DG9">
+        <v>0</v>
+      </c>
+      <c r="DH9">
+        <v>0</v>
+      </c>
+      <c r="DI9">
+        <v>0</v>
+      </c>
+      <c r="DJ9">
+        <v>0</v>
+      </c>
+      <c r="DK9">
+        <v>0</v>
+      </c>
+      <c r="DL9">
+        <v>0</v>
+      </c>
+      <c r="DM9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:75">
+    <row r="10" spans="1:117">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2742,46 +4002,46 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1765212686794697</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.09631278544086362</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.1365965700206824</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.05328895490216207</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.05331988924557731</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.02562423920041337</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.01884023507109657</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.1783897427112924</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.006620287374206564</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0002536955610089835</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.07117372636289376</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.02207242405612424</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>0.01399185759200505</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -2796,13 +4056,13 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0.0003843947939096492</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>0.04399913160950318</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.02926966161043157</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2811,13 +4071,13 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.000453987796996606</v>
+        <v>0</v>
       </c>
       <c r="AC10">
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.01303657571797018</v>
+        <v>0</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -2826,16 +4086,16 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>0.006443247466075156</v>
+        <v>0</v>
       </c>
       <c r="AH10">
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.01613115531170992</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0.03727616947560757</v>
+        <v>0</v>
       </c>
       <c r="AK10">
         <v>0</v>
@@ -2865,99 +4125,225 @@
         <v>0</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>0.009843625537791735</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>0.1543975815815214</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>0.08781503146547363</v>
       </c>
       <c r="AW10">
-        <v>0</v>
+        <v>0.1212553484662427</v>
       </c>
       <c r="AX10">
-        <v>0</v>
+        <v>0.05210015147571422</v>
       </c>
       <c r="AY10">
-        <v>0</v>
+        <v>0.05212583064813572</v>
       </c>
       <c r="AZ10">
-        <v>0</v>
+        <v>3.142548365701176E-06</v>
       </c>
       <c r="BA10">
-        <v>0</v>
+        <v>0.02913515768349511</v>
       </c>
       <c r="BB10">
-        <v>0</v>
+        <v>0.02350362998605699</v>
       </c>
       <c r="BC10">
-        <v>0</v>
+        <v>0.1559486365428063</v>
       </c>
       <c r="BD10">
-        <v>0</v>
+        <v>0.01335962467525663</v>
       </c>
       <c r="BE10">
-        <v>0</v>
+        <v>0.008074598686052861</v>
       </c>
       <c r="BF10">
-        <v>0</v>
+        <v>0.06694663209741815</v>
       </c>
       <c r="BG10">
-        <v>0</v>
+        <v>0.02618673003221968</v>
       </c>
       <c r="BH10">
-        <v>0</v>
+        <v>0.01947890188438221</v>
       </c>
       <c r="BI10">
-        <v>0</v>
+        <v>0.006894603973015541</v>
       </c>
       <c r="BJ10">
-        <v>0</v>
+        <v>0.001870374939292094</v>
       </c>
       <c r="BK10">
-        <v>0</v>
+        <v>0.007864001293818805</v>
       </c>
       <c r="BL10">
-        <v>0</v>
+        <v>0.001103227448091347</v>
       </c>
       <c r="BM10">
-        <v>0</v>
+        <v>0.008183094544263391</v>
       </c>
       <c r="BN10">
-        <v>0</v>
+        <v>0.04438849679808315</v>
       </c>
       <c r="BO10">
-        <v>0</v>
+        <v>0.03216129046283152</v>
       </c>
       <c r="BP10">
-        <v>0</v>
+        <v>0.002856493439520044</v>
       </c>
       <c r="BQ10">
-        <v>0</v>
+        <v>0.0005151891824495329</v>
       </c>
       <c r="BR10">
-        <v>0</v>
+        <v>0.008240864987347064</v>
       </c>
       <c r="BS10">
-        <v>0</v>
+        <v>0.00681078803859932</v>
       </c>
       <c r="BT10">
-        <v>0</v>
+        <v>0.01868590467654741</v>
       </c>
       <c r="BU10">
-        <v>0</v>
+        <v>0.002020869889249319</v>
       </c>
       <c r="BV10">
-        <v>0</v>
+        <v>0.003237367436421639</v>
       </c>
       <c r="BW10">
+        <v>0.01321266056273709</v>
+      </c>
+      <c r="BX10">
+        <v>0.0005253764029875134</v>
+      </c>
+      <c r="BY10">
+        <v>0.02125477261381195</v>
+      </c>
+      <c r="BZ10">
+        <v>0</v>
+      </c>
+      <c r="CA10">
+        <v>0</v>
+      </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CD10">
+        <v>0</v>
+      </c>
+      <c r="CE10">
+        <v>0</v>
+      </c>
+      <c r="CF10">
+        <v>0</v>
+      </c>
+      <c r="CG10">
+        <v>0</v>
+      </c>
+      <c r="CH10">
+        <v>0</v>
+      </c>
+      <c r="CI10">
+        <v>0</v>
+      </c>
+      <c r="CJ10">
+        <v>0</v>
+      </c>
+      <c r="CK10">
+        <v>0</v>
+      </c>
+      <c r="CL10">
+        <v>0</v>
+      </c>
+      <c r="CM10">
+        <v>0</v>
+      </c>
+      <c r="CN10">
+        <v>0</v>
+      </c>
+      <c r="CO10">
+        <v>0</v>
+      </c>
+      <c r="CP10">
+        <v>0</v>
+      </c>
+      <c r="CQ10">
+        <v>0</v>
+      </c>
+      <c r="CR10">
+        <v>0</v>
+      </c>
+      <c r="CS10">
+        <v>0</v>
+      </c>
+      <c r="CT10">
+        <v>0</v>
+      </c>
+      <c r="CU10">
+        <v>0</v>
+      </c>
+      <c r="CV10">
+        <v>0</v>
+      </c>
+      <c r="CW10">
+        <v>0</v>
+      </c>
+      <c r="CX10">
+        <v>0</v>
+      </c>
+      <c r="CY10">
+        <v>0</v>
+      </c>
+      <c r="CZ10">
+        <v>0</v>
+      </c>
+      <c r="DA10">
+        <v>0</v>
+      </c>
+      <c r="DB10">
+        <v>0</v>
+      </c>
+      <c r="DC10">
+        <v>0</v>
+      </c>
+      <c r="DD10">
+        <v>0</v>
+      </c>
+      <c r="DE10">
+        <v>0</v>
+      </c>
+      <c r="DF10">
+        <v>0</v>
+      </c>
+      <c r="DG10">
+        <v>0</v>
+      </c>
+      <c r="DH10">
+        <v>0</v>
+      </c>
+      <c r="DI10">
+        <v>0</v>
+      </c>
+      <c r="DJ10">
+        <v>0</v>
+      </c>
+      <c r="DK10">
+        <v>0</v>
+      </c>
+      <c r="DL10">
+        <v>0</v>
+      </c>
+      <c r="DM10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:75">
+    <row r="11" spans="1:117">
       <c r="A11" s="1" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2969,16 +4355,16 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2024147165386041</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.3029540848524558</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.09418874573964663</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2987,16 +4373,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.03011949047675391</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.02576379615292029</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.08677291994830406</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -3008,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0.06898485628228934</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -3017,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0.0009767109256400837</v>
+        <v>0</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -3026,10 +4412,10 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.03589032694801483</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.1147152565337431</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -3062,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0.03721909560162783</v>
+        <v>0</v>
       </c>
       <c r="AK11">
         <v>0</v>
@@ -3095,90 +4481,216 @@
         <v>0</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>0.1443156266471</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>0.005438773914065035</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>0.2037374535253049</v>
       </c>
       <c r="AX11">
-        <v>0</v>
+        <v>0.08035078373635246</v>
       </c>
       <c r="AY11">
-        <v>0</v>
+        <v>0.003444374414370149</v>
       </c>
       <c r="AZ11">
-        <v>0</v>
+        <v>0.01084294098783072</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>0.04248390374400413</v>
       </c>
       <c r="BB11">
-        <v>0</v>
+        <v>0.0246823680989584</v>
       </c>
       <c r="BC11">
-        <v>0</v>
+        <v>0.03990955582053939</v>
       </c>
       <c r="BD11">
-        <v>0</v>
+        <v>0.07596780497169105</v>
       </c>
       <c r="BE11">
-        <v>0</v>
+        <v>6.040326233603822E-06</v>
       </c>
       <c r="BF11">
-        <v>0</v>
+        <v>0.01766327491976493</v>
       </c>
       <c r="BG11">
-        <v>0</v>
+        <v>4.673563418341027E-05</v>
       </c>
       <c r="BH11">
-        <v>0</v>
+        <v>0.06545451791421918</v>
       </c>
       <c r="BI11">
-        <v>0</v>
+        <v>0.001909471284099206</v>
       </c>
       <c r="BJ11">
-        <v>0</v>
+        <v>0.01916825972330186</v>
       </c>
       <c r="BK11">
-        <v>0</v>
+        <v>0.02525963398501669</v>
       </c>
       <c r="BL11">
-        <v>0</v>
+        <v>0.004936712253110326</v>
       </c>
       <c r="BM11">
-        <v>0</v>
+        <v>0.000656212773885156</v>
       </c>
       <c r="BN11">
-        <v>0</v>
+        <v>0.04589464375051811</v>
       </c>
       <c r="BO11">
-        <v>0</v>
+        <v>0.09248257639903182</v>
       </c>
       <c r="BP11">
-        <v>0</v>
+        <v>0.001431474487625665</v>
       </c>
       <c r="BQ11">
-        <v>0</v>
+        <v>0.0006051972047142108</v>
       </c>
       <c r="BR11">
-        <v>0</v>
+        <v>0.008202180136137112</v>
       </c>
       <c r="BS11">
-        <v>0</v>
+        <v>0.0003268798263780852</v>
       </c>
       <c r="BT11">
-        <v>0</v>
+        <v>0.005821919977291643</v>
       </c>
       <c r="BU11">
-        <v>0</v>
+        <v>0.003041104476180986</v>
       </c>
       <c r="BV11">
-        <v>0</v>
+        <v>0.003471822589049834</v>
       </c>
       <c r="BW11">
+        <v>0.004414883698745866</v>
+      </c>
+      <c r="BX11">
+        <v>0.005418544180213577</v>
+      </c>
+      <c r="BY11">
+        <v>0.01593434213038471</v>
+      </c>
+      <c r="BZ11">
+        <v>0.04667998646969749</v>
+      </c>
+      <c r="CA11">
+        <v>0</v>
+      </c>
+      <c r="CB11">
+        <v>0</v>
+      </c>
+      <c r="CC11">
+        <v>0</v>
+      </c>
+      <c r="CD11">
+        <v>0</v>
+      </c>
+      <c r="CE11">
+        <v>0</v>
+      </c>
+      <c r="CF11">
+        <v>0</v>
+      </c>
+      <c r="CG11">
+        <v>0</v>
+      </c>
+      <c r="CH11">
+        <v>0</v>
+      </c>
+      <c r="CI11">
+        <v>0</v>
+      </c>
+      <c r="CJ11">
+        <v>0</v>
+      </c>
+      <c r="CK11">
+        <v>0</v>
+      </c>
+      <c r="CL11">
+        <v>0</v>
+      </c>
+      <c r="CM11">
+        <v>0</v>
+      </c>
+      <c r="CN11">
+        <v>0</v>
+      </c>
+      <c r="CO11">
+        <v>0</v>
+      </c>
+      <c r="CP11">
+        <v>0</v>
+      </c>
+      <c r="CQ11">
+        <v>0</v>
+      </c>
+      <c r="CR11">
+        <v>0</v>
+      </c>
+      <c r="CS11">
+        <v>0</v>
+      </c>
+      <c r="CT11">
+        <v>0</v>
+      </c>
+      <c r="CU11">
+        <v>0</v>
+      </c>
+      <c r="CV11">
+        <v>0</v>
+      </c>
+      <c r="CW11">
+        <v>0</v>
+      </c>
+      <c r="CX11">
+        <v>0</v>
+      </c>
+      <c r="CY11">
+        <v>0</v>
+      </c>
+      <c r="CZ11">
+        <v>0</v>
+      </c>
+      <c r="DA11">
+        <v>0</v>
+      </c>
+      <c r="DB11">
+        <v>0</v>
+      </c>
+      <c r="DC11">
+        <v>0</v>
+      </c>
+      <c r="DD11">
+        <v>0</v>
+      </c>
+      <c r="DE11">
+        <v>0</v>
+      </c>
+      <c r="DF11">
+        <v>0</v>
+      </c>
+      <c r="DG11">
+        <v>0</v>
+      </c>
+      <c r="DH11">
+        <v>0</v>
+      </c>
+      <c r="DI11">
+        <v>0</v>
+      </c>
+      <c r="DJ11">
+        <v>0</v>
+      </c>
+      <c r="DK11">
+        <v>0</v>
+      </c>
+      <c r="DL11">
+        <v>0</v>
+      </c>
+      <c r="DM11">
         <v>0</v>
       </c>
     </row>
@@ -3189,15 +4701,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BW11"/>
+  <dimension ref="A1:DM11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:75">
+    <row r="1" spans="1:117">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3421,10 +4933,136 @@
       <c r="BW1" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="2" spans="1:75">
+    <row r="2" spans="1:117">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3553,105 +5191,231 @@
         <v>0</v>
       </c>
       <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
         <v>0.1582799338574765</v>
       </c>
-      <c r="AS2">
+      <c r="CI2">
         <v>0.1880435021263309</v>
       </c>
-      <c r="AT2">
+      <c r="CJ2">
         <v>0.4189516727087371</v>
       </c>
-      <c r="AU2">
+      <c r="CK2">
         <v>0.4263876208373285</v>
       </c>
-      <c r="AV2">
+      <c r="CL2">
         <v>0.4361472540549485</v>
       </c>
-      <c r="AW2">
+      <c r="CM2">
         <v>0.4603144843375419</v>
       </c>
-      <c r="AX2">
+      <c r="CN2">
         <v>0.5426514970511633</v>
       </c>
-      <c r="AY2">
+      <c r="CO2">
         <v>0.547693643207342</v>
       </c>
-      <c r="AZ2">
+      <c r="CP2">
         <v>0.5716509538780696</v>
       </c>
-      <c r="BA2">
+      <c r="CQ2">
         <v>0.6497588529599777</v>
       </c>
-      <c r="BB2">
+      <c r="CR2">
         <v>0.6656753901158334</v>
       </c>
-      <c r="BC2">
+      <c r="CS2">
         <v>0.6668760208172696</v>
       </c>
-      <c r="BD2">
+      <c r="CT2">
         <v>0.6683869162926217</v>
       </c>
-      <c r="BE2">
+      <c r="CU2">
         <v>0.7318568896078059</v>
       </c>
-      <c r="BF2">
+      <c r="CV2">
         <v>0.7492212074579941</v>
       </c>
-      <c r="BG2">
+      <c r="CW2">
         <v>0.766628327233683</v>
       </c>
-      <c r="BH2">
+      <c r="CX2">
         <v>0.8258279121365006</v>
       </c>
-      <c r="BI2">
+      <c r="CY2">
         <v>0.8275206264583589</v>
       </c>
-      <c r="BJ2">
+      <c r="CZ2">
         <v>0.8382393762762178</v>
       </c>
-      <c r="BK2">
+      <c r="DA2">
         <v>0.9154578710470516</v>
       </c>
-      <c r="BL2">
+      <c r="DB2">
         <v>0.9368816506195368</v>
       </c>
-      <c r="BM2">
+      <c r="DC2">
         <v>0.9629826473473418</v>
       </c>
-      <c r="BN2">
+      <c r="DD2">
         <v>0.9629920115203411</v>
       </c>
-      <c r="BO2">
+      <c r="DE2">
         <v>0.9632175348944518</v>
       </c>
-      <c r="BP2">
+      <c r="DF2">
         <v>0.9696396549711658</v>
       </c>
-      <c r="BQ2">
+      <c r="DG2">
         <v>0.9708165020994489</v>
       </c>
-      <c r="BR2">
+      <c r="DH2">
         <v>0.9718257763287969</v>
       </c>
-      <c r="BS2">
+      <c r="DI2">
         <v>0.9729617116212412</v>
       </c>
-      <c r="BT2">
+      <c r="DJ2">
         <v>0.9732905842694807</v>
       </c>
-      <c r="BU2">
+      <c r="DK2">
         <v>0.9745095630543226</v>
       </c>
-      <c r="BV2">
+      <c r="DL2">
         <v>0.9791094804566622</v>
       </c>
-      <c r="BW2">
+      <c r="DM2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:75">
+    <row r="3" spans="1:117">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3780,105 +5544,231 @@
         <v>0</v>
       </c>
       <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
         <v>0.2359324336513552</v>
       </c>
-      <c r="AS3">
+      <c r="CI3">
         <v>0.3228593100309918</v>
       </c>
-      <c r="AT3">
+      <c r="CJ3">
         <v>0.5805860932182474</v>
       </c>
-      <c r="AU3">
+      <c r="CK3">
         <v>0.5874809660678627</v>
       </c>
-      <c r="AV3">
+      <c r="CL3">
         <v>0.5889114921401726</v>
       </c>
-      <c r="AW3">
+      <c r="CM3">
         <v>0.6023956762711639</v>
       </c>
-      <c r="AX3">
+      <c r="CN3">
         <v>0.7046063620683128</v>
       </c>
-      <c r="AY3">
+      <c r="CO3">
         <v>0.7209856560225948</v>
       </c>
-      <c r="AZ3">
+      <c r="CP3">
         <v>0.7523324253266738</v>
       </c>
-      <c r="BA3">
+      <c r="CQ3">
         <v>0.7718535404093471</v>
       </c>
-      <c r="BB3">
+      <c r="CR3">
         <v>0.7726349793216989</v>
       </c>
-      <c r="BC3">
+      <c r="CS3">
         <v>0.7738724442421642</v>
       </c>
-      <c r="BD3">
+      <c r="CT3">
         <v>0.7855811084217372</v>
       </c>
-      <c r="BE3">
+      <c r="CU3">
         <v>0.8019547939084266</v>
       </c>
-      <c r="BF3">
+      <c r="CV3">
         <v>0.8324355616167318</v>
       </c>
-      <c r="BG3">
+      <c r="CW3">
         <v>0.8335222326116345</v>
       </c>
-      <c r="BH3">
+      <c r="CX3">
         <v>0.855361388619302</v>
       </c>
-      <c r="BI3">
+      <c r="CY3">
         <v>0.8583731793117582</v>
       </c>
-      <c r="BJ3">
+      <c r="CZ3">
         <v>0.8586307178578062</v>
       </c>
-      <c r="BK3">
+      <c r="DA3">
         <v>0.9196757275380857</v>
       </c>
-      <c r="BL3">
+      <c r="DB3">
         <v>0.9266725170837539</v>
       </c>
-      <c r="BM3">
+      <c r="DC3">
         <v>0.9409867638444455</v>
       </c>
-      <c r="BN3">
+      <c r="DD3">
         <v>0.9409892666723595</v>
       </c>
-      <c r="BO3">
+      <c r="DE3">
         <v>0.9410135033752115</v>
       </c>
-      <c r="BP3">
+      <c r="DF3">
         <v>0.9437397219733978</v>
       </c>
-      <c r="BQ3">
+      <c r="DG3">
         <v>0.946157701313544</v>
       </c>
-      <c r="BR3">
+      <c r="DH3">
         <v>0.9463226398556441</v>
       </c>
-      <c r="BS3">
+      <c r="DI3">
         <v>0.9468936062934651</v>
       </c>
-      <c r="BT3">
+      <c r="DJ3">
         <v>0.9492567774731874</v>
       </c>
-      <c r="BU3">
+      <c r="DK3">
         <v>0.9554652938352673</v>
       </c>
-      <c r="BV3">
+      <c r="DL3">
         <v>0.972632021352548</v>
       </c>
-      <c r="BW3">
+      <c r="DM3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:75">
+    <row r="4" spans="1:117">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4007,105 +5897,231 @@
         <v>0</v>
       </c>
       <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
         <v>0.2412224171542024</v>
       </c>
-      <c r="AS4">
+      <c r="CI4">
         <v>0.3655164340487879</v>
       </c>
-      <c r="AT4">
+      <c r="CJ4">
         <v>0.5954961294088478</v>
       </c>
-      <c r="AU4">
+      <c r="CK4">
         <v>0.5965752760274327</v>
       </c>
-      <c r="AV4">
+      <c r="CL4">
         <v>0.5986029487014615</v>
       </c>
-      <c r="AW4">
+      <c r="CM4">
         <v>0.5999855423510049</v>
       </c>
-      <c r="AX4">
+      <c r="CN4">
         <v>0.7105088374251191</v>
       </c>
-      <c r="AY4">
+      <c r="CO4">
         <v>0.7359031696837394</v>
       </c>
-      <c r="AZ4">
+      <c r="CP4">
         <v>0.771704896500929</v>
       </c>
-      <c r="BA4">
+      <c r="CQ4">
         <v>0.7850395531934564</v>
       </c>
-      <c r="BB4">
+      <c r="CR4">
         <v>0.7850806844456436</v>
       </c>
-      <c r="BC4">
+      <c r="CS4">
         <v>0.7857467834285954</v>
       </c>
-      <c r="BD4">
+      <c r="CT4">
         <v>0.798215060001496</v>
       </c>
-      <c r="BE4">
+      <c r="CU4">
         <v>0.8038585972335438</v>
       </c>
-      <c r="BF4">
+      <c r="CV4">
         <v>0.8268376216340155</v>
       </c>
-      <c r="BG4">
+      <c r="CW4">
         <v>0.8319026120927445</v>
       </c>
-      <c r="BH4">
+      <c r="CX4">
         <v>0.8458403828904507</v>
       </c>
-      <c r="BI4">
+      <c r="CY4">
         <v>0.8473598883346174</v>
       </c>
-      <c r="BJ4">
+      <c r="CZ4">
         <v>0.8518501188988894</v>
       </c>
-      <c r="BK4">
+      <c r="DA4">
         <v>0.9173626100140798</v>
       </c>
-      <c r="BL4">
+      <c r="DB4">
         <v>0.9241710052669215</v>
       </c>
-      <c r="BM4">
+      <c r="DC4">
         <v>0.9320706250501288</v>
       </c>
-      <c r="BN4">
+      <c r="DD4">
         <v>0.9329340483489615</v>
       </c>
-      <c r="BO4">
+      <c r="DE4">
         <v>0.9347383635320866</v>
       </c>
-      <c r="BP4">
+      <c r="DF4">
         <v>0.9351781811192305</v>
       </c>
-      <c r="BQ4">
+      <c r="DG4">
         <v>0.9373357033034668</v>
       </c>
-      <c r="BR4">
+      <c r="DH4">
         <v>0.9384524380066318</v>
       </c>
-      <c r="BS4">
+      <c r="DI4">
         <v>0.9397656226898902</v>
       </c>
-      <c r="BT4">
+      <c r="DJ4">
         <v>0.9434683500140563</v>
       </c>
-      <c r="BU4">
+      <c r="DK4">
         <v>0.9541580483358445</v>
       </c>
-      <c r="BV4">
+      <c r="DL4">
         <v>0.9763134200198179</v>
       </c>
-      <c r="BW4">
+      <c r="DM4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:75">
+    <row r="5" spans="1:117">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4234,105 +6250,231 @@
         <v>0</v>
       </c>
       <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
         <v>0.1696070221949173</v>
       </c>
-      <c r="AS5">
+      <c r="CI5">
         <v>0.2115412214359698</v>
       </c>
-      <c r="AT5">
+      <c r="CJ5">
         <v>0.477494767351637</v>
       </c>
-      <c r="AU5">
+      <c r="CK5">
         <v>0.4933584344826272</v>
       </c>
-      <c r="AV5">
+      <c r="CL5">
         <v>0.496527453960981</v>
       </c>
-      <c r="AW5">
+      <c r="CM5">
         <v>0.5316386715238313</v>
       </c>
-      <c r="AX5">
+      <c r="CN5">
         <v>0.6267590934750161</v>
       </c>
-      <c r="AY5">
+      <c r="CO5">
         <v>0.6450338666973088</v>
       </c>
-      <c r="AZ5">
+      <c r="CP5">
         <v>0.6813378726367525</v>
       </c>
-      <c r="BA5">
+      <c r="CQ5">
         <v>0.7114996417394822</v>
       </c>
-      <c r="BB5">
+      <c r="CR5">
         <v>0.7130729478795759</v>
       </c>
-      <c r="BC5">
+      <c r="CS5">
         <v>0.7148611609161984</v>
       </c>
-      <c r="BD5">
+      <c r="CT5">
         <v>0.7187512993792402</v>
       </c>
-      <c r="BE5">
+      <c r="CU5">
         <v>0.7482836990800985</v>
       </c>
-      <c r="BF5">
+      <c r="CV5">
         <v>0.7673870369917009</v>
       </c>
-      <c r="BG5">
+      <c r="CW5">
         <v>0.7718261133335999</v>
       </c>
-      <c r="BH5">
+      <c r="CX5">
         <v>0.8096659244033756</v>
       </c>
-      <c r="BI5">
+      <c r="CY5">
         <v>0.8099757788861701</v>
       </c>
-      <c r="BJ5">
+      <c r="CZ5">
         <v>0.8110590299518452</v>
       </c>
-      <c r="BK5">
+      <c r="DA5">
         <v>0.8940587659526906</v>
       </c>
-      <c r="BL5">
+      <c r="DB5">
         <v>0.9130061602092915</v>
       </c>
-      <c r="BM5">
+      <c r="DC5">
         <v>0.9403153141072648</v>
       </c>
-      <c r="BN5">
+      <c r="DD5">
         <v>0.9404279923292063</v>
       </c>
-      <c r="BO5">
+      <c r="DE5">
         <v>0.9412251164497351</v>
       </c>
-      <c r="BP5">
+      <c r="DF5">
         <v>0.9480161241431674</v>
       </c>
-      <c r="BQ5">
+      <c r="DG5">
         <v>0.9532722571533383</v>
       </c>
-      <c r="BR5">
+      <c r="DH5">
         <v>0.9534404884060891</v>
       </c>
-      <c r="BS5">
+      <c r="DI5">
         <v>0.9538701182392346</v>
       </c>
-      <c r="BT5">
+      <c r="DJ5">
         <v>0.9571514960375498</v>
       </c>
-      <c r="BU5">
+      <c r="DK5">
         <v>0.9625635952076838</v>
       </c>
-      <c r="BV5">
+      <c r="DL5">
         <v>0.9751796335132334</v>
       </c>
-      <c r="BW5">
+      <c r="DM5">
         <v>0.9999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:75">
+    <row r="6" spans="1:117">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4458,108 +6600,234 @@
         <v>0</v>
       </c>
       <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
         <v>0.01453263636904105</v>
       </c>
-      <c r="AR6">
+      <c r="CH6">
         <v>0.2026251505750147</v>
       </c>
-      <c r="AS6">
+      <c r="CI6">
         <v>0.394996086733082</v>
       </c>
-      <c r="AT6">
+      <c r="CJ6">
         <v>0.5505084159938954</v>
       </c>
-      <c r="AU6">
+      <c r="CK6">
         <v>0.5517532887261876</v>
       </c>
-      <c r="AV6">
+      <c r="CL6">
         <v>0.5544346403594977</v>
       </c>
-      <c r="AW6">
+      <c r="CM6">
         <v>0.5685456683987349</v>
       </c>
-      <c r="AX6">
+      <c r="CN6">
         <v>0.7373928065222001</v>
       </c>
-      <c r="AY6">
+      <c r="CO6">
         <v>0.7599155348178712</v>
       </c>
-      <c r="AZ6">
+      <c r="CP6">
         <v>0.7724087624825422</v>
       </c>
-      <c r="BA6">
+      <c r="CQ6">
         <v>0.7809450280965397</v>
       </c>
-      <c r="BB6">
+      <c r="CR6">
         <v>0.7811857013929623</v>
       </c>
-      <c r="BC6">
+      <c r="CS6">
         <v>0.7842662670313089</v>
       </c>
-      <c r="BD6">
+      <c r="CT6">
         <v>0.8022504593276011</v>
       </c>
-      <c r="BE6">
+      <c r="CU6">
         <v>0.8023683709817937</v>
       </c>
-      <c r="BF6">
+      <c r="CV6">
         <v>0.8112667961413697</v>
       </c>
-      <c r="BG6">
+      <c r="CW6">
         <v>0.8321739679917096</v>
       </c>
-      <c r="BH6">
+      <c r="CX6">
         <v>0.8375811477110514</v>
       </c>
-      <c r="BI6">
+      <c r="CY6">
         <v>0.839300128894762</v>
       </c>
-      <c r="BJ6">
+      <c r="CZ6">
         <v>0.8643633546618411</v>
       </c>
-      <c r="BK6">
+      <c r="DA6">
         <v>0.9407505842772275</v>
       </c>
-      <c r="BL6">
+      <c r="DB6">
         <v>0.9407526980353805</v>
       </c>
-      <c r="BM6">
+      <c r="DC6">
         <v>0.9467734983667366</v>
       </c>
-      <c r="BN6">
+      <c r="DD6">
         <v>0.9479725603035423</v>
       </c>
-      <c r="BO6">
+      <c r="DE6">
         <v>0.9481465834681007</v>
       </c>
-      <c r="BP6">
+      <c r="DF6">
         <v>0.9502732260046871</v>
       </c>
-      <c r="BQ6">
+      <c r="DG6">
         <v>0.9538209919495072</v>
       </c>
-      <c r="BR6">
+      <c r="DH6">
         <v>0.9553890318524557</v>
       </c>
-      <c r="BS6">
+      <c r="DI6">
         <v>0.9554175661798253</v>
       </c>
-      <c r="BT6">
+      <c r="DJ6">
         <v>0.9637558821512078</v>
       </c>
-      <c r="BU6">
+      <c r="DK6">
         <v>0.9754093999251298</v>
       </c>
-      <c r="BV6">
+      <c r="DL6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="BW6">
+      <c r="DM6">
         <v>0.9999999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:75">
+    <row r="7" spans="1:117">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4571,1124 +6839,1754 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1405024519496363</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1533200956914033</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.46566494706613</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.5318598274251528</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5443127747855155</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5443127747855155</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5443127747855155</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5443127747855155</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8155868048226571</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8597695831794049</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8597695831794049</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9172913464676199</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.9172913464676199</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0.9290660327800948</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0.9332678435346823</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.9332678435346823</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0.9332678435346823</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0.9332678435346823</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.9520680711017343</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0.9707848572805451</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.9714337275396916</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.9714337275396916</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.9714337275396916</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.9714337275396916</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.9714337275396916</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.9714337275396916</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>0.9714337275396916</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.9714337275396916</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.9714337275396916</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>0.9714337275396916</v>
+        <v>0</v>
       </c>
       <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0.01161568558454755</v>
+      </c>
+      <c r="AU7">
+        <v>0.1232187407592501</v>
+      </c>
+      <c r="AV7">
+        <v>0.1495005160623191</v>
+      </c>
+      <c r="AW7">
+        <v>0.3759317458722682</v>
+      </c>
+      <c r="AX7">
+        <v>0.4378811484218073</v>
+      </c>
+      <c r="AY7">
+        <v>0.4639192270591358</v>
+      </c>
+      <c r="AZ7">
+        <v>0.47093848394627</v>
+      </c>
+      <c r="BA7">
+        <v>0.4774334378886333</v>
+      </c>
+      <c r="BB7">
+        <v>0.4784931366431738</v>
+      </c>
+      <c r="BC7">
+        <v>0.6774801067084778</v>
+      </c>
+      <c r="BD7">
+        <v>0.7247206277406359</v>
+      </c>
+      <c r="BE7">
+        <v>0.7266521843205688</v>
+      </c>
+      <c r="BF7">
+        <v>0.7828060544231065</v>
+      </c>
+      <c r="BG7">
+        <v>0.8005228501930912</v>
+      </c>
+      <c r="BH7">
+        <v>0.8261077026282967</v>
+      </c>
+      <c r="BI7">
+        <v>0.8466322237368836</v>
+      </c>
+      <c r="BJ7">
+        <v>0.8515906198708266</v>
+      </c>
+      <c r="BK7">
+        <v>0.8545051495223579</v>
+      </c>
+      <c r="BL7">
+        <v>0.8571705239680751</v>
+      </c>
+      <c r="BM7">
+        <v>0.8874499691276995</v>
+      </c>
+      <c r="BN7">
+        <v>0.9176736572545262</v>
+      </c>
+      <c r="BO7">
+        <v>0.935824039774243</v>
+      </c>
+      <c r="BP7">
+        <v>0.9434415173363124</v>
+      </c>
+      <c r="BQ7">
+        <v>0.9436409707969283</v>
+      </c>
+      <c r="BR7">
+        <v>0.9439836575583489</v>
+      </c>
+      <c r="BS7">
+        <v>0.9448014339129256</v>
+      </c>
+      <c r="BT7">
+        <v>0.9473392778505294</v>
+      </c>
+      <c r="BU7">
+        <v>0.9525463639009991</v>
+      </c>
+      <c r="BV7">
+        <v>0.9544250029540926</v>
+      </c>
+      <c r="BW7">
+        <v>0.9547918385498652</v>
+      </c>
+      <c r="BX7">
+        <v>0.9631947084121936</v>
+      </c>
+      <c r="BY7">
+        <v>1</v>
+      </c>
+      <c r="BZ7">
+        <v>1</v>
+      </c>
+      <c r="CA7">
+        <v>1</v>
+      </c>
+      <c r="CB7">
+        <v>1</v>
+      </c>
+      <c r="CC7">
+        <v>1</v>
+      </c>
+      <c r="CD7">
+        <v>1</v>
+      </c>
+      <c r="CE7">
+        <v>1</v>
+      </c>
+      <c r="CF7">
+        <v>1</v>
+      </c>
+      <c r="CG7">
+        <v>1</v>
+      </c>
+      <c r="CH7">
+        <v>1</v>
+      </c>
+      <c r="CI7">
+        <v>1</v>
+      </c>
+      <c r="CJ7">
+        <v>1</v>
+      </c>
+      <c r="CK7">
+        <v>1</v>
+      </c>
+      <c r="CL7">
+        <v>1</v>
+      </c>
+      <c r="CM7">
+        <v>1</v>
+      </c>
+      <c r="CN7">
+        <v>1</v>
+      </c>
+      <c r="CO7">
+        <v>1</v>
+      </c>
+      <c r="CP7">
+        <v>1</v>
+      </c>
+      <c r="CQ7">
+        <v>1</v>
+      </c>
+      <c r="CR7">
+        <v>1</v>
+      </c>
+      <c r="CS7">
+        <v>1</v>
+      </c>
+      <c r="CT7">
+        <v>1</v>
+      </c>
+      <c r="CU7">
+        <v>1</v>
+      </c>
+      <c r="CV7">
+        <v>1</v>
+      </c>
+      <c r="CW7">
+        <v>1</v>
+      </c>
+      <c r="CX7">
+        <v>1</v>
+      </c>
+      <c r="CY7">
+        <v>1</v>
+      </c>
+      <c r="CZ7">
+        <v>1</v>
+      </c>
+      <c r="DA7">
+        <v>1</v>
+      </c>
+      <c r="DB7">
+        <v>1</v>
+      </c>
+      <c r="DC7">
+        <v>1</v>
+      </c>
+      <c r="DD7">
+        <v>1</v>
+      </c>
+      <c r="DE7">
+        <v>1</v>
+      </c>
+      <c r="DF7">
+        <v>1</v>
+      </c>
+      <c r="DG7">
+        <v>1</v>
+      </c>
+      <c r="DH7">
+        <v>1</v>
+      </c>
+      <c r="DI7">
+        <v>1</v>
+      </c>
+      <c r="DJ7">
+        <v>1</v>
+      </c>
+      <c r="DK7">
+        <v>1</v>
+      </c>
+      <c r="DL7">
+        <v>1</v>
+      </c>
+      <c r="DM7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:117">
+      <c r="A8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0.145659640002811</v>
+      </c>
+      <c r="AV8">
+        <v>0.1498274497776169</v>
+      </c>
+      <c r="AW8">
+        <v>0.2602109718283721</v>
+      </c>
+      <c r="AX8">
+        <v>0.3792687975989927</v>
+      </c>
+      <c r="AY8">
+        <v>0.4432607682183565</v>
+      </c>
+      <c r="AZ8">
+        <v>0.4474347473684651</v>
+      </c>
+      <c r="BA8">
+        <v>0.4534484065025601</v>
+      </c>
+      <c r="BB8">
+        <v>0.4579026303193103</v>
+      </c>
+      <c r="BC8">
+        <v>0.5896329593747163</v>
+      </c>
+      <c r="BD8">
+        <v>0.6249852757104697</v>
+      </c>
+      <c r="BE8">
+        <v>0.6250284389896824</v>
+      </c>
+      <c r="BF8">
+        <v>0.6988179263684718</v>
+      </c>
+      <c r="BG8">
+        <v>0.7019887913221391</v>
+      </c>
+      <c r="BH8">
+        <v>0.7646913783735481</v>
+      </c>
+      <c r="BI8">
+        <v>0.7653445853321241</v>
+      </c>
+      <c r="BJ8">
+        <v>0.7689440652961647</v>
+      </c>
+      <c r="BK8">
+        <v>0.7856466215343303</v>
+      </c>
+      <c r="BL8">
+        <v>0.7864825618644928</v>
+      </c>
+      <c r="BM8">
+        <v>0.802542159106261</v>
+      </c>
+      <c r="BN8">
+        <v>0.8321512794325243</v>
+      </c>
+      <c r="BO8">
+        <v>0.8581204470305548</v>
+      </c>
+      <c r="BP8">
+        <v>0.8678423501020197</v>
+      </c>
+      <c r="BQ8">
+        <v>0.8678455093319458</v>
+      </c>
+      <c r="BR8">
+        <v>0.8686241740788883</v>
+      </c>
+      <c r="BS8">
+        <v>0.8689085541940661</v>
+      </c>
+      <c r="BT8">
+        <v>0.8765468083913328</v>
+      </c>
+      <c r="BU8">
+        <v>0.8957275574164438</v>
+      </c>
+      <c r="BV8">
+        <v>0.8967389762134907</v>
+      </c>
+      <c r="BW8">
+        <v>0.8989643185819824</v>
+      </c>
+      <c r="BX8">
+        <v>0.9161188717712714</v>
+      </c>
+      <c r="BY8">
+        <v>0.9454619121027565</v>
+      </c>
+      <c r="BZ8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AJ7">
+      <c r="CA8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AK7">
+      <c r="CB8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AL7">
+      <c r="CC8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AM7">
+      <c r="CD8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AN7">
+      <c r="CE8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AO7">
+      <c r="CF8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AP7">
+      <c r="CG8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AQ7">
+      <c r="CH8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AR7">
+      <c r="CI8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AS7">
+      <c r="CJ8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AT7">
+      <c r="CK8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AU7">
+      <c r="CL8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AV7">
+      <c r="CM8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AW7">
+      <c r="CN8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AX7">
+      <c r="CO8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AY7">
+      <c r="CP8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AZ7">
+      <c r="CQ8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="BA7">
+      <c r="CR8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="BB7">
+      <c r="CS8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="BC7">
+      <c r="CT8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="BD7">
+      <c r="CU8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="BE7">
+      <c r="CV8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="BF7">
+      <c r="CW8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="BG7">
+      <c r="CX8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="BH7">
+      <c r="CY8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="BI7">
+      <c r="CZ8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="BJ7">
+      <c r="DA8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="BK7">
+      <c r="DB8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="BL7">
+      <c r="DC8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="BM7">
+      <c r="DD8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="BN7">
+      <c r="DE8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="BO7">
+      <c r="DF8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="BP7">
+      <c r="DG8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="BQ7">
+      <c r="DH8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="BR7">
+      <c r="DI8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="BS7">
+      <c r="DJ8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="BT7">
+      <c r="DK8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="BU7">
+      <c r="DL8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="BV7">
+      <c r="DM8">
         <v>0.9999999999999999</v>
       </c>
-      <c r="BW7">
-        <v>0.9999999999999999</v>
-      </c>
     </row>
-    <row r="8" spans="1:75">
-      <c r="A8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0.1564184647388446</v>
-      </c>
-      <c r="F8">
-        <v>0.1570442367810624</v>
-      </c>
-      <c r="G8">
-        <v>0.2746211557233864</v>
-      </c>
-      <c r="H8">
-        <v>0.4017491076236454</v>
-      </c>
-      <c r="I8">
-        <v>0.4682455881814779</v>
-      </c>
-      <c r="J8">
-        <v>0.4688781531501079</v>
-      </c>
-      <c r="K8">
-        <v>0.4715363382407158</v>
-      </c>
-      <c r="L8">
-        <v>0.4724774727653378</v>
-      </c>
-      <c r="M8">
-        <v>0.6135587632206365</v>
-      </c>
-      <c r="N8">
-        <v>0.6485209223158507</v>
-      </c>
-      <c r="O8">
-        <v>0.6485209223158507</v>
-      </c>
-      <c r="P8">
-        <v>0.7258051742611309</v>
-      </c>
-      <c r="Q8">
-        <v>0.7258051742611309</v>
-      </c>
-      <c r="R8">
-        <v>0.790881950673171</v>
-      </c>
-      <c r="S8">
-        <v>0.790881950673171</v>
-      </c>
-      <c r="T8">
-        <v>0.790881950673171</v>
-      </c>
-      <c r="U8">
-        <v>0.8053093810913493</v>
-      </c>
-      <c r="V8">
-        <v>0.8053093810913493</v>
-      </c>
-      <c r="W8">
-        <v>0.8190288673605202</v>
-      </c>
-      <c r="X8">
-        <v>0.8476673541309</v>
-      </c>
-      <c r="Y8">
-        <v>0.8722979908656558</v>
-      </c>
-      <c r="Z8">
-        <v>0.8790392195302131</v>
-      </c>
-      <c r="AA8">
-        <v>0.8790392195302131</v>
-      </c>
-      <c r="AB8">
-        <v>0.8790392195302131</v>
-      </c>
-      <c r="AC8">
-        <v>0.8790392195302131</v>
-      </c>
-      <c r="AD8">
-        <v>0.8834862007585578</v>
-      </c>
-      <c r="AE8">
-        <v>0.9006422998686134</v>
-      </c>
-      <c r="AF8">
-        <v>0.9006422998686134</v>
-      </c>
-      <c r="AG8">
-        <v>0.9006422998686134</v>
-      </c>
-      <c r="AH8">
-        <v>0.9155674114744101</v>
-      </c>
-      <c r="AI8">
-        <v>0.9439129250123964</v>
-      </c>
-      <c r="AJ8">
+    <row r="9" spans="1:117">
+      <c r="A9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.1447891890863836</v>
+      </c>
+      <c r="E9">
+        <v>0.2796256587689723</v>
+      </c>
+      <c r="F9">
+        <v>0.3737145251796046</v>
+      </c>
+      <c r="G9">
+        <v>0.4189772493904293</v>
+      </c>
+      <c r="H9">
+        <v>0.4423928358645186</v>
+      </c>
+      <c r="I9">
+        <v>0.4602654826264419</v>
+      </c>
+      <c r="J9">
+        <v>0.4876620219422055</v>
+      </c>
+      <c r="K9">
+        <v>0.4922267080665581</v>
+      </c>
+      <c r="L9">
+        <v>0.4922267080665581</v>
+      </c>
+      <c r="M9">
+        <v>0.4942518770914583</v>
+      </c>
+      <c r="N9">
+        <v>0.4966607415345863</v>
+      </c>
+      <c r="O9">
+        <v>0.5027538710753735</v>
+      </c>
+      <c r="P9">
+        <v>0.5027538710753735</v>
+      </c>
+      <c r="Q9">
+        <v>0.5027538710753735</v>
+      </c>
+      <c r="R9">
+        <v>0.5029236558434528</v>
+      </c>
+      <c r="S9">
+        <v>0.5071570058654994</v>
+      </c>
+      <c r="T9">
+        <v>0.5071570058654994</v>
+      </c>
+      <c r="U9">
+        <v>0.5203060617803049</v>
+      </c>
+      <c r="V9">
+        <v>0.5212346010763657</v>
+      </c>
+      <c r="W9">
+        <v>0.5212346010763657</v>
+      </c>
+      <c r="X9">
+        <v>0.5398833494371467</v>
+      </c>
+      <c r="Y9">
+        <v>0.6069738449308333</v>
+      </c>
+      <c r="Z9">
+        <v>0.6895551647474089</v>
+      </c>
+      <c r="AA9">
+        <v>0.7848258000204651</v>
+      </c>
+      <c r="AB9">
+        <v>0.8819963943881115</v>
+      </c>
+      <c r="AC9">
+        <v>0.9339956763103787</v>
+      </c>
+      <c r="AD9">
+        <v>0.9584883202074667</v>
+      </c>
+      <c r="AE9">
+        <v>0.9709323710806304</v>
+      </c>
+      <c r="AF9">
+        <v>0.979392826022463</v>
+      </c>
+      <c r="AG9">
+        <v>0.979392826022463</v>
+      </c>
+      <c r="AH9">
+        <v>0.9817107361379387</v>
+      </c>
+      <c r="AI9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AJ9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AK9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AL9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AM9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AN9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AO9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AP9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AQ9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AR9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AS9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AT9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AU9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AV9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AW9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AX9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AY9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AZ9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BA9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BB9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BC9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BD9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BE9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BF9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BG9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BH9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BI9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BJ9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BK9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BL9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BM9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BN9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BO9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BP9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BQ9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BR9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BS9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BT9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BU9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BV9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BW9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BX9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BY9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BZ9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CA9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CB9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CC9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CD9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CE9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CF9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CG9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CH9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CI9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CJ9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CK9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CL9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CM9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CN9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CO9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CP9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CQ9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CR9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CS9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CT9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CU9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CV9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CW9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CX9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CY9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CZ9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DA9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DB9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DC9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DD9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DE9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DF9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DG9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DH9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DI9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DJ9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DK9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DL9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DM9">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:117">
+      <c r="A10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0.009843625537791735</v>
+      </c>
+      <c r="AU10">
+        <v>0.1642412071193132</v>
+      </c>
+      <c r="AV10">
+        <v>0.2520562385847868</v>
+      </c>
+      <c r="AW10">
+        <v>0.3733115870510295</v>
+      </c>
+      <c r="AX10">
+        <v>0.4254117385267437</v>
+      </c>
+      <c r="AY10">
+        <v>0.4775375691748794</v>
+      </c>
+      <c r="AZ10">
+        <v>0.4775407117232451</v>
+      </c>
+      <c r="BA10">
+        <v>0.5066758694067403</v>
+      </c>
+      <c r="BB10">
+        <v>0.5301794993927973</v>
+      </c>
+      <c r="BC10">
+        <v>0.6861281359356035</v>
+      </c>
+      <c r="BD10">
+        <v>0.6994877606108602</v>
+      </c>
+      <c r="BE10">
+        <v>0.707562359296913</v>
+      </c>
+      <c r="BF10">
+        <v>0.7745089913943312</v>
+      </c>
+      <c r="BG10">
+        <v>0.8006957214265509</v>
+      </c>
+      <c r="BH10">
+        <v>0.820174623310933</v>
+      </c>
+      <c r="BI10">
+        <v>0.8270692272839486</v>
+      </c>
+      <c r="BJ10">
+        <v>0.8289396022232407</v>
+      </c>
+      <c r="BK10">
+        <v>0.8368036035170595</v>
+      </c>
+      <c r="BL10">
+        <v>0.8379068309651508</v>
+      </c>
+      <c r="BM10">
+        <v>0.8460899255094142</v>
+      </c>
+      <c r="BN10">
+        <v>0.8904784223074973</v>
+      </c>
+      <c r="BO10">
+        <v>0.9226397127703289</v>
+      </c>
+      <c r="BP10">
+        <v>0.9254962062098488</v>
+      </c>
+      <c r="BQ10">
+        <v>0.9260113953922984</v>
+      </c>
+      <c r="BR10">
+        <v>0.9342522603796455</v>
+      </c>
+      <c r="BS10">
+        <v>0.9410630484182448</v>
+      </c>
+      <c r="BT10">
+        <v>0.9597489530947922</v>
+      </c>
+      <c r="BU10">
+        <v>0.9617698229840416</v>
+      </c>
+      <c r="BV10">
+        <v>0.9650071904204632</v>
+      </c>
+      <c r="BW10">
+        <v>0.9782198509832003</v>
+      </c>
+      <c r="BX10">
+        <v>0.9787452273861879</v>
+      </c>
+      <c r="BY10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BZ10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CA10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CB10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CC10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CD10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CE10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CF10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CG10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CH10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CI10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CJ10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CK10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CL10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CM10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CN10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CO10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CP10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CQ10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CR10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CS10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CT10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CU10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CV10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CW10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CX10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CY10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CZ10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DA10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DB10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DC10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DD10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DE10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DF10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DG10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DH10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DI10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DJ10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DK10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DL10">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DM10">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:117">
+      <c r="A11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0.1443156266471</v>
+      </c>
+      <c r="AV11">
+        <v>0.149754400561165</v>
+      </c>
+      <c r="AW11">
+        <v>0.3534918540864699</v>
+      </c>
+      <c r="AX11">
+        <v>0.4338426378228224</v>
+      </c>
+      <c r="AY11">
+        <v>0.4372870122371925</v>
+      </c>
+      <c r="AZ11">
+        <v>0.4481299532250232</v>
+      </c>
+      <c r="BA11">
+        <v>0.4906138569690274</v>
+      </c>
+      <c r="BB11">
+        <v>0.5152962250679858</v>
+      </c>
+      <c r="BC11">
+        <v>0.5552057808885251</v>
+      </c>
+      <c r="BD11">
+        <v>0.6311735858602162</v>
+      </c>
+      <c r="BE11">
+        <v>0.6311796261864498</v>
+      </c>
+      <c r="BF11">
+        <v>0.6488429011062148</v>
+      </c>
+      <c r="BG11">
+        <v>0.6488896367403982</v>
+      </c>
+      <c r="BH11">
+        <v>0.7143441546546174</v>
+      </c>
+      <c r="BI11">
+        <v>0.7162536259387167</v>
+      </c>
+      <c r="BJ11">
+        <v>0.7354218856620185</v>
+      </c>
+      <c r="BK11">
+        <v>0.7606815196470352</v>
+      </c>
+      <c r="BL11">
+        <v>0.7656182319001456</v>
+      </c>
+      <c r="BM11">
+        <v>0.7662744446740307</v>
+      </c>
+      <c r="BN11">
+        <v>0.8121690884245488</v>
+      </c>
+      <c r="BO11">
+        <v>0.9046516648235806</v>
+      </c>
+      <c r="BP11">
+        <v>0.9060831393112063</v>
+      </c>
+      <c r="BQ11">
+        <v>0.9066883365159205</v>
+      </c>
+      <c r="BR11">
+        <v>0.9148905166520577</v>
+      </c>
+      <c r="BS11">
+        <v>0.9152173964784358</v>
+      </c>
+      <c r="BT11">
+        <v>0.9210393164557275</v>
+      </c>
+      <c r="BU11">
+        <v>0.9240804209319085</v>
+      </c>
+      <c r="BV11">
+        <v>0.9275522435209583</v>
+      </c>
+      <c r="BW11">
+        <v>0.9319671272197042</v>
+      </c>
+      <c r="BX11">
+        <v>0.9373856713999178</v>
+      </c>
+      <c r="BY11">
+        <v>0.9533200135303025</v>
+      </c>
+      <c r="BZ11">
         <v>1</v>
       </c>
-      <c r="AK8">
+      <c r="CA11">
         <v>1</v>
       </c>
-      <c r="AL8">
+      <c r="CB11">
         <v>1</v>
       </c>
-      <c r="AM8">
+      <c r="CC11">
         <v>1</v>
       </c>
-      <c r="AN8">
+      <c r="CD11">
         <v>1</v>
       </c>
-      <c r="AO8">
+      <c r="CE11">
         <v>1</v>
       </c>
-      <c r="AP8">
+      <c r="CF11">
         <v>1</v>
       </c>
-      <c r="AQ8">
+      <c r="CG11">
         <v>1</v>
       </c>
-      <c r="AR8">
+      <c r="CH11">
         <v>1</v>
       </c>
-      <c r="AS8">
+      <c r="CI11">
         <v>1</v>
       </c>
-      <c r="AT8">
+      <c r="CJ11">
         <v>1</v>
       </c>
-      <c r="AU8">
+      <c r="CK11">
         <v>1</v>
       </c>
-      <c r="AV8">
+      <c r="CL11">
         <v>1</v>
       </c>
-      <c r="AW8">
+      <c r="CM11">
         <v>1</v>
       </c>
-      <c r="AX8">
+      <c r="CN11">
         <v>1</v>
       </c>
-      <c r="AY8">
+      <c r="CO11">
         <v>1</v>
       </c>
-      <c r="AZ8">
+      <c r="CP11">
         <v>1</v>
       </c>
-      <c r="BA8">
+      <c r="CQ11">
         <v>1</v>
       </c>
-      <c r="BB8">
+      <c r="CR11">
         <v>1</v>
       </c>
-      <c r="BC8">
+      <c r="CS11">
         <v>1</v>
       </c>
-      <c r="BD8">
+      <c r="CT11">
         <v>1</v>
       </c>
-      <c r="BE8">
+      <c r="CU11">
         <v>1</v>
       </c>
-      <c r="BF8">
+      <c r="CV11">
         <v>1</v>
       </c>
-      <c r="BG8">
+      <c r="CW11">
         <v>1</v>
       </c>
-      <c r="BH8">
+      <c r="CX11">
         <v>1</v>
       </c>
-      <c r="BI8">
+      <c r="CY11">
         <v>1</v>
       </c>
-      <c r="BJ8">
+      <c r="CZ11">
         <v>1</v>
       </c>
-      <c r="BK8">
+      <c r="DA11">
         <v>1</v>
       </c>
-      <c r="BL8">
+      <c r="DB11">
         <v>1</v>
       </c>
-      <c r="BM8">
+      <c r="DC11">
         <v>1</v>
       </c>
-      <c r="BN8">
+      <c r="DD11">
         <v>1</v>
       </c>
-      <c r="BO8">
+      <c r="DE11">
         <v>1</v>
       </c>
-      <c r="BP8">
+      <c r="DF11">
         <v>1</v>
       </c>
-      <c r="BQ8">
+      <c r="DG11">
         <v>1</v>
       </c>
-      <c r="BR8">
+      <c r="DH11">
         <v>1</v>
       </c>
-      <c r="BS8">
+      <c r="DI11">
         <v>1</v>
       </c>
-      <c r="BT8">
+      <c r="DJ11">
         <v>1</v>
       </c>
-      <c r="BU8">
+      <c r="DK11">
         <v>1</v>
       </c>
-      <c r="BV8">
+      <c r="DL11">
         <v>1</v>
       </c>
-      <c r="BW8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:75">
-      <c r="A9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.1135212304626478</v>
-      </c>
-      <c r="F9">
-        <v>0.135543401598499</v>
-      </c>
-      <c r="G9">
-        <v>0.2286456185522732</v>
-      </c>
-      <c r="H9">
-        <v>0.2449103230783452</v>
-      </c>
-      <c r="I9">
-        <v>0.3171420023281908</v>
-      </c>
-      <c r="J9">
-        <v>0.3264886507266746</v>
-      </c>
-      <c r="K9">
-        <v>0.3264886507266746</v>
-      </c>
-      <c r="L9">
-        <v>0.3282591755627048</v>
-      </c>
-      <c r="M9">
-        <v>0.5742358116491796</v>
-      </c>
-      <c r="N9">
-        <v>0.6942617448836672</v>
-      </c>
-      <c r="O9">
-        <v>0.6947685212490274</v>
-      </c>
-      <c r="P9">
-        <v>0.7565871912559727</v>
-      </c>
-      <c r="Q9">
-        <v>0.7565871912559727</v>
-      </c>
-      <c r="R9">
-        <v>0.7732489136752161</v>
-      </c>
-      <c r="S9">
-        <v>0.7732489136752161</v>
-      </c>
-      <c r="T9">
-        <v>0.7732489136752161</v>
-      </c>
-      <c r="U9">
-        <v>0.8059327445559628</v>
-      </c>
-      <c r="V9">
-        <v>0.8059327445559628</v>
-      </c>
-      <c r="W9">
-        <v>0.8059327445559628</v>
-      </c>
-      <c r="X9">
-        <v>0.8883218739797947</v>
-      </c>
-      <c r="Y9">
-        <v>0.9242432534333419</v>
-      </c>
-      <c r="Z9">
-        <v>0.9242432534333419</v>
-      </c>
-      <c r="AA9">
-        <v>0.9256254388857378</v>
-      </c>
-      <c r="AB9">
-        <v>0.9256254388857378</v>
-      </c>
-      <c r="AC9">
-        <v>0.9256254388857378</v>
-      </c>
-      <c r="AD9">
-        <v>0.9256254388857378</v>
-      </c>
-      <c r="AE9">
-        <v>0.9256254388857378</v>
-      </c>
-      <c r="AF9">
-        <v>0.9256254388857378</v>
-      </c>
-      <c r="AG9">
-        <v>0.9256254388857378</v>
-      </c>
-      <c r="AH9">
-        <v>0.9256254388857378</v>
-      </c>
-      <c r="AI9">
-        <v>0.9587097161366972</v>
-      </c>
-      <c r="AJ9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AK9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AL9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AM9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AN9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AO9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AP9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AQ9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AR9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AS9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AT9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AU9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AV9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AW9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AX9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AY9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AZ9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BA9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BB9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BC9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BD9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BE9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BF9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BG9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BH9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BI9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BJ9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BK9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BL9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BM9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BN9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BO9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BP9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BQ9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BR9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BS9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BT9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BU9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BV9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BW9">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:75">
-      <c r="A10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0.1765212686794697</v>
-      </c>
-      <c r="F10">
-        <v>0.2728340541203333</v>
-      </c>
-      <c r="G10">
-        <v>0.4094306241410157</v>
-      </c>
-      <c r="H10">
-        <v>0.4627195790431778</v>
-      </c>
-      <c r="I10">
-        <v>0.5160394682887551</v>
-      </c>
-      <c r="J10">
-        <v>0.5160394682887551</v>
-      </c>
-      <c r="K10">
-        <v>0.5416637074891685</v>
-      </c>
-      <c r="L10">
-        <v>0.560503942560265</v>
-      </c>
-      <c r="M10">
-        <v>0.7388936852715574</v>
-      </c>
-      <c r="N10">
-        <v>0.745513972645764</v>
-      </c>
-      <c r="O10">
-        <v>0.745767668206773</v>
-      </c>
-      <c r="P10">
-        <v>0.8169413945696667</v>
-      </c>
-      <c r="Q10">
-        <v>0.8390138186257909</v>
-      </c>
-      <c r="R10">
-        <v>0.853005676217796</v>
-      </c>
-      <c r="S10">
-        <v>0.853005676217796</v>
-      </c>
-      <c r="T10">
-        <v>0.853005676217796</v>
-      </c>
-      <c r="U10">
-        <v>0.853005676217796</v>
-      </c>
-      <c r="V10">
-        <v>0.853005676217796</v>
-      </c>
-      <c r="W10">
-        <v>0.8533900710117056</v>
-      </c>
-      <c r="X10">
-        <v>0.8973892026212088</v>
-      </c>
-      <c r="Y10">
-        <v>0.9266588642316403</v>
-      </c>
-      <c r="Z10">
-        <v>0.9266588642316403</v>
-      </c>
-      <c r="AA10">
-        <v>0.9266588642316403</v>
-      </c>
-      <c r="AB10">
-        <v>0.9271128520286369</v>
-      </c>
-      <c r="AC10">
-        <v>0.9271128520286369</v>
-      </c>
-      <c r="AD10">
-        <v>0.9401494277466071</v>
-      </c>
-      <c r="AE10">
-        <v>0.9401494277466071</v>
-      </c>
-      <c r="AF10">
-        <v>0.9401494277466071</v>
-      </c>
-      <c r="AG10">
-        <v>0.9465926752126823</v>
-      </c>
-      <c r="AH10">
-        <v>0.9465926752126823</v>
-      </c>
-      <c r="AI10">
-        <v>0.9627238305243923</v>
-      </c>
-      <c r="AJ10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AK10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AL10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AM10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AN10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AO10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AP10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AQ10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AR10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AS10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AT10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AU10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AV10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AW10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AX10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AY10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AZ10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BA10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BB10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BC10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BD10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BE10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BF10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BG10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BH10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BI10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BJ10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BK10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BL10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BM10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BN10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BO10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BP10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BQ10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BR10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BS10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BT10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BU10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BV10">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BW10">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:75">
-      <c r="A11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0.2024147165386041</v>
-      </c>
-      <c r="F11">
-        <v>0.2024147165386041</v>
-      </c>
-      <c r="G11">
-        <v>0.50536880139106</v>
-      </c>
-      <c r="H11">
-        <v>0.5995575471307066</v>
-      </c>
-      <c r="I11">
-        <v>0.5995575471307066</v>
-      </c>
-      <c r="J11">
-        <v>0.5995575471307066</v>
-      </c>
-      <c r="K11">
-        <v>0.6296770376074605</v>
-      </c>
-      <c r="L11">
-        <v>0.6296770376074605</v>
-      </c>
-      <c r="M11">
-        <v>0.6554408337603808</v>
-      </c>
-      <c r="N11">
-        <v>0.7422137537086848</v>
-      </c>
-      <c r="O11">
-        <v>0.7422137537086848</v>
-      </c>
-      <c r="P11">
-        <v>0.7422137537086848</v>
-      </c>
-      <c r="Q11">
-        <v>0.7422137537086848</v>
-      </c>
-      <c r="R11">
-        <v>0.8111986099909742</v>
-      </c>
-      <c r="S11">
-        <v>0.8111986099909742</v>
-      </c>
-      <c r="T11">
-        <v>0.8111986099909742</v>
-      </c>
-      <c r="U11">
-        <v>0.8121753209166143</v>
-      </c>
-      <c r="V11">
-        <v>0.8121753209166143</v>
-      </c>
-      <c r="W11">
-        <v>0.8121753209166143</v>
-      </c>
-      <c r="X11">
-        <v>0.8480656478646291</v>
-      </c>
-      <c r="Y11">
-        <v>0.9627809043983722</v>
-      </c>
-      <c r="Z11">
-        <v>0.9627809043983722</v>
-      </c>
-      <c r="AA11">
-        <v>0.9627809043983722</v>
-      </c>
-      <c r="AB11">
-        <v>0.9627809043983722</v>
-      </c>
-      <c r="AC11">
-        <v>0.9627809043983722</v>
-      </c>
-      <c r="AD11">
-        <v>0.9627809043983722</v>
-      </c>
-      <c r="AE11">
-        <v>0.9627809043983722</v>
-      </c>
-      <c r="AF11">
-        <v>0.9627809043983722</v>
-      </c>
-      <c r="AG11">
-        <v>0.9627809043983722</v>
-      </c>
-      <c r="AH11">
-        <v>0.9627809043983722</v>
-      </c>
-      <c r="AI11">
-        <v>0.9627809043983722</v>
-      </c>
-      <c r="AJ11">
-        <v>1</v>
-      </c>
-      <c r="AK11">
-        <v>1</v>
-      </c>
-      <c r="AL11">
-        <v>1</v>
-      </c>
-      <c r="AM11">
-        <v>1</v>
-      </c>
-      <c r="AN11">
-        <v>1</v>
-      </c>
-      <c r="AO11">
-        <v>1</v>
-      </c>
-      <c r="AP11">
-        <v>1</v>
-      </c>
-      <c r="AQ11">
-        <v>1</v>
-      </c>
-      <c r="AR11">
-        <v>1</v>
-      </c>
-      <c r="AS11">
-        <v>1</v>
-      </c>
-      <c r="AT11">
-        <v>1</v>
-      </c>
-      <c r="AU11">
-        <v>1</v>
-      </c>
-      <c r="AV11">
-        <v>1</v>
-      </c>
-      <c r="AW11">
-        <v>1</v>
-      </c>
-      <c r="AX11">
-        <v>1</v>
-      </c>
-      <c r="AY11">
-        <v>1</v>
-      </c>
-      <c r="AZ11">
-        <v>1</v>
-      </c>
-      <c r="BA11">
-        <v>1</v>
-      </c>
-      <c r="BB11">
-        <v>1</v>
-      </c>
-      <c r="BC11">
-        <v>1</v>
-      </c>
-      <c r="BD11">
-        <v>1</v>
-      </c>
-      <c r="BE11">
-        <v>1</v>
-      </c>
-      <c r="BF11">
-        <v>1</v>
-      </c>
-      <c r="BG11">
-        <v>1</v>
-      </c>
-      <c r="BH11">
-        <v>1</v>
-      </c>
-      <c r="BI11">
-        <v>1</v>
-      </c>
-      <c r="BJ11">
-        <v>1</v>
-      </c>
-      <c r="BK11">
-        <v>1</v>
-      </c>
-      <c r="BL11">
-        <v>1</v>
-      </c>
-      <c r="BM11">
-        <v>1</v>
-      </c>
-      <c r="BN11">
-        <v>1</v>
-      </c>
-      <c r="BO11">
-        <v>1</v>
-      </c>
-      <c r="BP11">
-        <v>1</v>
-      </c>
-      <c r="BQ11">
-        <v>1</v>
-      </c>
-      <c r="BR11">
-        <v>1</v>
-      </c>
-      <c r="BS11">
-        <v>1</v>
-      </c>
-      <c r="BT11">
-        <v>1</v>
-      </c>
-      <c r="BU11">
-        <v>1</v>
-      </c>
-      <c r="BV11">
-        <v>1</v>
-      </c>
-      <c r="BW11">
+      <c r="DM11">
         <v>1</v>
       </c>
     </row>
@@ -5707,57 +8605,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -5775,30 +8673,30 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K2" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L2" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M2" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5816,30 +8714,30 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K3" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L3" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M3" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D4">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -5857,30 +8755,30 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K4" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L4" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M4" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D5">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5898,30 +8796,30 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K5" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L5" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M5" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -5939,39 +8837,39 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K6" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L6" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M6" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5318598274251528</v>
+        <v>0.6774801067084778</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -5980,36 +8878,36 @@
         <v>800</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M7" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="B8">
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6135587632206365</v>
+        <v>0.5896329593747163</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -6021,39 +8919,39 @@
         <v>800</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M8" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5742358116491796</v>
+        <v>0.5027538710753735</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>10</v>
@@ -6062,39 +8960,39 @@
         <v>800</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M9" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="B10">
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D10">
+        <v>52</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.5066758694067403</v>
+      </c>
+      <c r="G10">
         <v>8</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.5160394682887551</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -6103,39 +9001,39 @@
         <v>800</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K10" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.50536880139106</v>
+        <v>0.5152962250679858</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -6144,16 +9042,16 @@
         <v>800</v>
       </c>
       <c r="J11" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M11" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -6171,57 +9069,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D2">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -6239,30 +9137,30 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K2" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L2" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M2" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D3">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6280,30 +9178,30 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K3" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L3" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M3" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D4">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6321,30 +9219,30 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K4" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L4" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M4" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6362,30 +9260,30 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K5" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L5" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M5" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D6">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -6403,39 +9301,39 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K6" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L6" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M6" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="B7">
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8155868048226571</v>
+        <v>0.7247206277406359</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -6444,39 +9342,39 @@
         <v>800</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M7" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="B8">
         <v>0.7</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7258051742611309</v>
+        <v>0.7019887913221391</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8">
         <v>10</v>
@@ -6485,39 +9383,39 @@
         <v>800</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M8" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="B9">
         <v>0.7</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7565871912559727</v>
+        <v>0.7848258000204651</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H9">
         <v>10</v>
@@ -6526,39 +9424,39 @@
         <v>800</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M9" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="B10">
         <v>0.7</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D10">
+        <v>56</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.707562359296913</v>
+      </c>
+      <c r="G10">
         <v>12</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.7388936852715574</v>
-      </c>
-      <c r="G10">
-        <v>10</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -6567,39 +9465,39 @@
         <v>800</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K10" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="B11">
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7422137537086848</v>
+        <v>0.7143441546546174</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -6608,16 +9506,16 @@
         <v>800</v>
       </c>
       <c r="J11" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M11" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -6635,57 +9533,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -6703,30 +9601,30 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K2" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L2" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M2" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D3">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6744,30 +9642,30 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K3" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L3" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M3" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D4">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6785,30 +9683,30 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K4" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L4" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M4" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D5">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6826,30 +9724,30 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K5" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L5" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M5" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D6">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -6867,39 +9765,39 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K6" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L6" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M6" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="B7">
         <v>0.8</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8155868048226571</v>
+        <v>0.8005228501930912</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -6908,39 +9806,39 @@
         <v>800</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M7" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="B8">
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D8">
+        <v>64</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.802542159106261</v>
+      </c>
+      <c r="G8">
         <v>20</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.8053093810913493</v>
-      </c>
-      <c r="G8">
-        <v>18</v>
       </c>
       <c r="H8">
         <v>10</v>
@@ -6949,39 +9847,39 @@
         <v>800</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M8" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="B9">
         <v>0.8</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8059327445559628</v>
+        <v>0.8819963943881115</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H9">
         <v>10</v>
@@ -6990,39 +9888,39 @@
         <v>800</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M9" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="B10">
         <v>0.8</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8169413945696667</v>
+        <v>0.8006957214265509</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -7031,39 +9929,39 @@
         <v>800</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K10" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="B11">
         <v>0.8</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8111986099909742</v>
+        <v>0.8121690884245488</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -7072,16 +9970,16 @@
         <v>800</v>
       </c>
       <c r="J11" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M11" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -7099,57 +9997,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7167,30 +10065,30 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K2" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L2" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M2" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D3">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7208,30 +10106,30 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K3" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L3" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M3" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D4">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -7249,30 +10147,30 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K4" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L4" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M4" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7290,30 +10188,30 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K5" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L5" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M5" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D6">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -7331,39 +10229,39 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K6" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L6" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M6" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="B7">
         <v>0.9</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9172913464676199</v>
+        <v>0.9176736572545262</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -7372,39 +10270,39 @@
         <v>800</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M7" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="B8">
         <v>0.9</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9006422998686134</v>
+        <v>0.9161188717712714</v>
       </c>
       <c r="G8">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>10</v>
@@ -7413,39 +10311,39 @@
         <v>800</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M8" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="B9">
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9242432534333419</v>
+        <v>0.9339956763103787</v>
       </c>
       <c r="G9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H9">
         <v>10</v>
@@ -7454,36 +10352,36 @@
         <v>800</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M9" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="B10">
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9266588642316403</v>
+        <v>0.9226397127703289</v>
       </c>
       <c r="G10">
         <v>22</v>
@@ -7495,36 +10393,36 @@
         <v>800</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K10" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="B11">
         <v>0.9</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9627809043983722</v>
+        <v>0.9046516648235806</v>
       </c>
       <c r="G11">
         <v>22</v>
@@ -7536,16 +10434,16 @@
         <v>800</v>
       </c>
       <c r="J11" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M11" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/10_245-70R19.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/10_245-70R19.xlsx
@@ -19,7 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="101">
+  <si>
+    <t>Signal_Value_49</t>
+  </si>
   <si>
     <t>Signal_Value_50</t>
   </si>
@@ -273,40 +276,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>245-70R19.5</t>
@@ -316,9 +322,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -676,15 +679,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV11"/>
+  <dimension ref="A1:BW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:74">
+    <row r="1" spans="1:75">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -905,10 +908,13 @@
       <c r="BV1" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="2" spans="1:74">
+    <row r="2" spans="1:75">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1034,105 +1040,108 @@
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.1582799338574765</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.02976356826885447</v>
+        <v>0.2377663101126416</v>
       </c>
       <c r="AS2">
-        <v>0.2309081705824061</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.007435948128591326</v>
+        <v>0.3723824370219362</v>
       </c>
       <c r="AU2">
-        <v>0.009759633217620085</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.02416723028259336</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.08233701271362144</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.005042146156178672</v>
+        <v>0.09700642977460434</v>
       </c>
       <c r="AY2">
-        <v>0.02395731067072763</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.07810789908190803</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.01591653715585574</v>
+        <v>0.08916778570127046</v>
       </c>
       <c r="BB2">
-        <v>0.001200630701436203</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.001510895475352135</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.06346997331518424</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.01736431785018822</v>
+        <v>0.06203645274374392</v>
       </c>
       <c r="BF2">
-        <v>0.01740711977568889</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.05919958490281763</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.001692714321858239</v>
+        <v>0.05412130604056362</v>
       </c>
       <c r="BI2">
-        <v>0.01071874981785892</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.07721849477083376</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.02142377957248523</v>
+        <v>0.0875192786052397</v>
       </c>
       <c r="BL2">
-        <v>0.02610099672780508</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>9.364172999275077E-06</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.0002255233741107637</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.00642212007671395</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.001176847128283185</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.001009274229347933</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.001135935292444357</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.0003288726482394361</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.001218978784841863</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.004599917402339626</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.02089051954333781</v>
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:74">
+    <row r="3" spans="1:75">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1258,105 +1267,108 @@
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.2359324336513552</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.08692687637963657</v>
+        <v>0.3457160286146471</v>
       </c>
       <c r="AS3">
-        <v>0.2577267831872556</v>
+        <v>0.09556791649791392</v>
       </c>
       <c r="AT3">
-        <v>0.006894872849615351</v>
+        <v>0.3823040290291285</v>
       </c>
       <c r="AU3">
-        <v>0.001430526072309883</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.01348418413099125</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.102210685797149</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.01637929395428196</v>
+        <v>0.1212261277871134</v>
       </c>
       <c r="AY3">
-        <v>0.03134676930407895</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.01952111508267325</v>
+        <v>0.002260934458020116</v>
       </c>
       <c r="BA3">
-        <v>0.000781438912351826</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.001237464920465276</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.01170866417957302</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.01637368548668936</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.03048076770830517</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.001086670994902704</v>
+        <v>0.0008071050288407967</v>
       </c>
       <c r="BG3">
-        <v>0.02183915600766747</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.003011790692456108</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.0002575385460480553</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.06104500968027951</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.006996789545668194</v>
+        <v>0.05211785858433611</v>
       </c>
       <c r="BL3">
-        <v>0.01431424676069163</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>2.502827914025464E-06</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>2.423670285203422E-05</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.002726218598186293</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.002417979340146228</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.0001649385421000762</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.0005709664378209294</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.002363171179722317</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.006208516362079939</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.01716672751728061</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.02736797864745204</v>
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:74">
+    <row r="4" spans="1:75">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1482,105 +1494,108 @@
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.2412224171542024</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.1242940168945855</v>
+        <v>0.3366986924867602</v>
       </c>
       <c r="AS4">
-        <v>0.2299796953600599</v>
+        <v>0.1503091983582091</v>
       </c>
       <c r="AT4">
-        <v>0.001079146618584842</v>
+        <v>0.3187772531855677</v>
       </c>
       <c r="AU4">
-        <v>0.00202767267402883</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.001382593649543406</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.1105232950741142</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.02539433225862033</v>
+        <v>0.1283580054213029</v>
       </c>
       <c r="AY4">
-        <v>0.03580172681718962</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.01333465669252745</v>
+        <v>0.009248231602647625</v>
       </c>
       <c r="BA4">
-        <v>4.113125218718544E-05</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.0006660989829517935</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.01246827657290057</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.005643537232047784</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.02297902440047168</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.005064990458729038</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.01393777079770625</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.001519505444166734</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.004490230564271972</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.06551249111519039</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.006808395252841702</v>
+        <v>0.05660861894551232</v>
       </c>
       <c r="BL4">
-        <v>0.007899619783207261</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.0008634232988327312</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.001804315183125061</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.0004398175871438931</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.002157522184236378</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.001116734703165016</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.00131318468325835</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.003702727324166083</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.01068969832178824</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.02215537168397342</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.02368657998018211</v>
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:74">
+    <row r="5" spans="1:75">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1706,105 +1721,108 @@
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.1696070221949173</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.04193419924105256</v>
+        <v>0.2659020674170398</v>
       </c>
       <c r="AS5">
-        <v>0.2659535459156672</v>
+        <v>0.0227304343382684</v>
       </c>
       <c r="AT5">
-        <v>0.01586366713099011</v>
+        <v>0.4494081650546196</v>
       </c>
       <c r="AU5">
-        <v>0.003169019478353818</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.03511121756285034</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.09512042195118491</v>
+        <v>0.009735064150875309</v>
       </c>
       <c r="AX5">
-        <v>0.01827477322229271</v>
+        <v>0.1240314029742299</v>
       </c>
       <c r="AY5">
-        <v>0.03630400593944369</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.03016176910272976</v>
+        <v>0.01200690470975754</v>
       </c>
       <c r="BA5">
-        <v>0.001573306140093603</v>
+        <v>0.0003081130030836854</v>
       </c>
       <c r="BB5">
-        <v>0.001788213036622541</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.003890138463041729</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.02953239970085833</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.01910333791160237</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.004439076341898951</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.03783981106977575</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.000309854482794494</v>
+        <v>0.01493207102936305</v>
       </c>
       <c r="BI5">
-        <v>0.001083251065675064</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.08299973600084541</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.01894739425660086</v>
+        <v>0.1009457773227627</v>
       </c>
       <c r="BL5">
-        <v>0.02730915389797324</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.0001126782219415111</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.0007971241205287643</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.006791007693432307</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.00525613301017086</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.0001682312527507867</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.0004296298331455021</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.003281377798315111</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.005412099170134015</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.01261603830554971</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.02482036648676633</v>
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:74">
+    <row r="6" spans="1:75">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1930,105 +1948,108 @@
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.1864396884738335</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.1906805146400171</v>
+        <v>0.2504593990864346</v>
       </c>
       <c r="AS6">
-        <v>0.1541457954540195</v>
+        <v>0.2572375251510468</v>
       </c>
       <c r="AT6">
-        <v>0.001233933659603007</v>
+        <v>0.1988439662844848</v>
       </c>
       <c r="AU6">
-        <v>0.002657789786656338</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.01398703017388527</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.1673634273236666</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.02232481427956984</v>
+        <v>0.2199697496996367</v>
       </c>
       <c r="AY6">
-        <v>0.01238344589983665</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.008461254869828547</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.0002385584274760803</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.003053495777655385</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.01782615976679711</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.0001168755288742538</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.00882023201009656</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.02072345421667236</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.005359665198010873</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.001703875976863305</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.02484298763238697</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.07571599195742755</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>2.095183921702433E-06</v>
+        <v>0.07348935977839705</v>
       </c>
       <c r="BL6">
-        <v>0.005967893740374763</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.001188525417412757</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.00017249397045104</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.002107955086305004</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.003516590653926873</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.001554261062724271</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>2.828358761669917E-05</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.008265044670510108</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.01155111479351625</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.02437451504488325</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.02319223573518044</v>
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:74">
+    <row r="7" spans="1:75">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2037,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1371599141756869</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01251271341645675</v>
+        <v>0.1540629448908861</v>
       </c>
       <c r="F7">
-        <v>0.3049142019466805</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.06462011148508599</v>
+        <v>0.370853440085915</v>
       </c>
       <c r="H7">
-        <v>0.01215669312158302</v>
+        <v>0.06031905341961118</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2061,25 +2082,25 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2648204509009164</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.04313167495202998</v>
+        <v>0.3190398962478998</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.03254933820775559</v>
       </c>
       <c r="O7">
-        <v>0.05615332690901246</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.04937734548865009</v>
       </c>
       <c r="Q7">
-        <v>0.01149456782892017</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0.004101850142005237</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -2091,13 +2112,13 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0.01835297223499389</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.01827151590813937</v>
+        <v>0.0005275800536519805</v>
       </c>
       <c r="X7">
-        <v>0.0006334337075312651</v>
+        <v>0.0004223132514128244</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -2127,10 +2148,10 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>0.02788668400164035</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.0237898892693178</v>
+        <v>0.01284808835421735</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -2249,10 +2270,13 @@
       <c r="BV7">
         <v>0</v>
       </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:74">
+    <row r="8" spans="1:75">
       <c r="A8" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2261,70 +2285,70 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1564184647388446</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0006257720422178086</v>
+        <v>0.2193823501680703</v>
       </c>
       <c r="F8">
-        <v>0.1175769189423239</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.1271279519002589</v>
+        <v>0.1524708704078016</v>
       </c>
       <c r="H8">
-        <v>0.06649648055783257</v>
+        <v>0.1689242255806992</v>
       </c>
       <c r="I8">
-        <v>0.000632564968630007</v>
+        <v>0.06447571859240417</v>
       </c>
       <c r="J8">
-        <v>0.002658185090607857</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.0009411345246219961</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1410812904552987</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.03496215909521413</v>
+        <v>0.1929613361324979</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.01015223405979813</v>
       </c>
       <c r="O8">
-        <v>0.07728425194528016</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.08305957595562641</v>
       </c>
       <c r="Q8">
-        <v>0.06507677641204014</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.06203002537220106</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.01442743041817834</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0.01371948626917085</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.02863848677037984</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0.02463063673475584</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.006741228664557306</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -2336,10 +2360,10 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.004446981228344656</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.01715609911005561</v>
+        <v>0</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -2348,16 +2372,16 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>0.0149251116057967</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <v>0.02834551353798629</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.05608707498760387</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>0.04654366373090128</v>
       </c>
       <c r="AK8">
         <v>0</v>
@@ -2473,10 +2497,13 @@
       <c r="BV8">
         <v>0</v>
       </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:74">
+    <row r="9" spans="1:75">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2485,46 +2512,46 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1135212304626478</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.02202217113585119</v>
+        <v>0.1372050771997149</v>
       </c>
       <c r="F9">
-        <v>0.09310221695377416</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.01626470452607202</v>
+        <v>0.1043699421232371</v>
       </c>
       <c r="H9">
-        <v>0.07223167924984564</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.009346648398483818</v>
+        <v>0.07080872603758208</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.001770524836030253</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2459766360864747</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.1200259332344877</v>
+        <v>0.350202200365237</v>
       </c>
       <c r="N9">
-        <v>0.0005067763653602818</v>
+        <v>0.1476650729312856</v>
       </c>
       <c r="O9">
-        <v>0.06181867000694534</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.05406391293019781</v>
       </c>
       <c r="Q9">
-        <v>0.01666172241924335</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -2533,25 +2560,25 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0.03268383088074666</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>0.007213149169037246</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0.08238912942383192</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0.03592137945354722</v>
+        <v>0.08714258312379694</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>0.01241934312440961</v>
       </c>
       <c r="Z9">
-        <v>0.001382185452395864</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -2575,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0.03308427725095944</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.04129028386330268</v>
+        <v>0.007857093630463257</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>0.02105289936503832</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -2697,10 +2724,13 @@
       <c r="BV9">
         <v>0</v>
       </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:74">
+    <row r="10" spans="1:75">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2709,46 +2739,46 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1732383495253334</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.09503890381714883</v>
+        <v>0.2484199373604326</v>
       </c>
       <c r="F10">
-        <v>0.1343136724946533</v>
+        <v>0.1145203809315791</v>
       </c>
       <c r="G10">
-        <v>0.05309272101300939</v>
+        <v>0.1817698870775448</v>
       </c>
       <c r="H10">
-        <v>0.05312288052246204</v>
+        <v>0.04269665864693341</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.04274830025258995</v>
       </c>
       <c r="J10">
-        <v>0.02612094263994592</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.01950686216897567</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1750600225916849</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.007592995980569088</v>
+        <v>0.25153915659957</v>
       </c>
       <c r="N10">
-        <v>0.001385872609824634</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.07052952019404178</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.02265809227391808</v>
+        <v>0.07255338786969399</v>
       </c>
       <c r="Q10">
-        <v>0.0147799253645341</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2757,34 +2787,34 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.00113853153755286</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0.00151329812835629</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0.04403558636988417</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>0.02967505562557095</v>
+        <v>0.0271882838720475</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>0.002598995810825339</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.001581147987209481</v>
+        <v>0</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.01384857109839774</v>
+        <v>0</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -2793,19 +2823,19 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.007420390513851567</v>
+        <v>0</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0.01686563860995279</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.03748101893312326</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>0.01596501157878322</v>
       </c>
       <c r="AK10">
         <v>0</v>
@@ -2921,10 +2951,13 @@
       <c r="BV10">
         <v>0</v>
       </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:74">
+    <row r="11" spans="1:75">
       <c r="A11" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2933,37 +2966,37 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2024147165386041</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2127685680359718</v>
       </c>
       <c r="F11">
-        <v>0.3029540848524558</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.09418874573964663</v>
+        <v>0.3233667197128828</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.09371478309036926</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03011949047675391</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.02323551382271193</v>
       </c>
       <c r="L11">
-        <v>0.02576379615292029</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.08677291994830406</v>
+        <v>0.01844404009888866</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.0855570172376923</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -2972,16 +3005,16 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.06898485628228934</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>0.06598928972590726</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0.0009767109256400837</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -2990,13 +3023,13 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0.03589032694801483</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0.1147152565337431</v>
+        <v>0.02958371212607477</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>0.1162949344507439</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -3026,10 +3059,10 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.03721909560162783</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>0.03104542169875733</v>
       </c>
       <c r="AK11">
         <v>0</v>
@@ -3143,6 +3176,9 @@
         <v>0</v>
       </c>
       <c r="BV11">
+        <v>0</v>
+      </c>
+      <c r="BW11">
         <v>0</v>
       </c>
     </row>
@@ -3153,15 +3189,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV11"/>
+  <dimension ref="A1:BW11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:74">
+    <row r="1" spans="1:75">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3382,10 +3418,13 @@
       <c r="BV1" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="2" spans="1:74">
+    <row r="2" spans="1:75">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3511,105 +3550,108 @@
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.1582799338574765</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.1880435021263309</v>
+        <v>0.2377663101126416</v>
       </c>
       <c r="AS2">
-        <v>0.4189516727087371</v>
+        <v>0.2377663101126416</v>
       </c>
       <c r="AT2">
-        <v>0.4263876208373285</v>
+        <v>0.6101487471345779</v>
       </c>
       <c r="AU2">
-        <v>0.4361472540549485</v>
+        <v>0.6101487471345779</v>
       </c>
       <c r="AV2">
-        <v>0.4603144843375419</v>
+        <v>0.6101487471345779</v>
       </c>
       <c r="AW2">
-        <v>0.5426514970511633</v>
+        <v>0.6101487471345779</v>
       </c>
       <c r="AX2">
-        <v>0.547693643207342</v>
+        <v>0.7071551769091823</v>
       </c>
       <c r="AY2">
-        <v>0.5716509538780696</v>
+        <v>0.7071551769091823</v>
       </c>
       <c r="AZ2">
-        <v>0.6497588529599777</v>
+        <v>0.7071551769091823</v>
       </c>
       <c r="BA2">
-        <v>0.6656753901158334</v>
+        <v>0.7963229626104528</v>
       </c>
       <c r="BB2">
-        <v>0.6668760208172696</v>
+        <v>0.7963229626104528</v>
       </c>
       <c r="BC2">
-        <v>0.6683869162926217</v>
+        <v>0.7963229626104528</v>
       </c>
       <c r="BD2">
-        <v>0.7318568896078059</v>
+        <v>0.7963229626104528</v>
       </c>
       <c r="BE2">
-        <v>0.7492212074579941</v>
+        <v>0.8583594153541967</v>
       </c>
       <c r="BF2">
-        <v>0.766628327233683</v>
+        <v>0.8583594153541967</v>
       </c>
       <c r="BG2">
-        <v>0.8258279121365006</v>
+        <v>0.8583594153541967</v>
       </c>
       <c r="BH2">
-        <v>0.8275206264583589</v>
+        <v>0.9124807213947603</v>
       </c>
       <c r="BI2">
-        <v>0.8382393762762178</v>
+        <v>0.9124807213947603</v>
       </c>
       <c r="BJ2">
-        <v>0.9154578710470516</v>
+        <v>0.9124807213947603</v>
       </c>
       <c r="BK2">
-        <v>0.9368816506195368</v>
+        <v>1</v>
       </c>
       <c r="BL2">
-        <v>0.9629826473473418</v>
+        <v>1</v>
       </c>
       <c r="BM2">
-        <v>0.9629920115203411</v>
+        <v>1</v>
       </c>
       <c r="BN2">
-        <v>0.9632175348944518</v>
+        <v>1</v>
       </c>
       <c r="BO2">
-        <v>0.9696396549711658</v>
+        <v>1</v>
       </c>
       <c r="BP2">
-        <v>0.9708165020994489</v>
+        <v>1</v>
       </c>
       <c r="BQ2">
-        <v>0.9718257763287969</v>
+        <v>1</v>
       </c>
       <c r="BR2">
-        <v>0.9729617116212412</v>
+        <v>1</v>
       </c>
       <c r="BS2">
-        <v>0.9732905842694807</v>
+        <v>1</v>
       </c>
       <c r="BT2">
-        <v>0.9745095630543226</v>
+        <v>1</v>
       </c>
       <c r="BU2">
-        <v>0.9791094804566622</v>
+        <v>1</v>
       </c>
       <c r="BV2">
         <v>1</v>
       </c>
+      <c r="BW2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:74">
+    <row r="3" spans="1:75">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3735,105 +3777,108 @@
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.2359324336513552</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.3228593100309918</v>
+        <v>0.3457160286146471</v>
       </c>
       <c r="AS3">
-        <v>0.5805860932182474</v>
+        <v>0.441283945112561</v>
       </c>
       <c r="AT3">
-        <v>0.5874809660678627</v>
+        <v>0.8235879741416895</v>
       </c>
       <c r="AU3">
-        <v>0.5889114921401726</v>
+        <v>0.8235879741416895</v>
       </c>
       <c r="AV3">
-        <v>0.6023956762711639</v>
+        <v>0.8235879741416895</v>
       </c>
       <c r="AW3">
-        <v>0.7046063620683128</v>
+        <v>0.8235879741416895</v>
       </c>
       <c r="AX3">
-        <v>0.7209856560225948</v>
+        <v>0.944814101928803</v>
       </c>
       <c r="AY3">
-        <v>0.7523324253266738</v>
+        <v>0.944814101928803</v>
       </c>
       <c r="AZ3">
-        <v>0.7718535404093471</v>
+        <v>0.9470750363868231</v>
       </c>
       <c r="BA3">
-        <v>0.7726349793216989</v>
+        <v>0.9470750363868231</v>
       </c>
       <c r="BB3">
-        <v>0.7738724442421642</v>
+        <v>0.9470750363868231</v>
       </c>
       <c r="BC3">
-        <v>0.7855811084217372</v>
+        <v>0.9470750363868231</v>
       </c>
       <c r="BD3">
-        <v>0.8019547939084266</v>
+        <v>0.9470750363868231</v>
       </c>
       <c r="BE3">
-        <v>0.8324355616167318</v>
+        <v>0.9470750363868231</v>
       </c>
       <c r="BF3">
-        <v>0.8335222326116345</v>
+        <v>0.947882141415664</v>
       </c>
       <c r="BG3">
-        <v>0.855361388619302</v>
+        <v>0.947882141415664</v>
       </c>
       <c r="BH3">
-        <v>0.8583731793117582</v>
+        <v>0.947882141415664</v>
       </c>
       <c r="BI3">
-        <v>0.8586307178578062</v>
+        <v>0.947882141415664</v>
       </c>
       <c r="BJ3">
-        <v>0.9196757275380857</v>
+        <v>0.947882141415664</v>
       </c>
       <c r="BK3">
-        <v>0.9266725170837539</v>
+        <v>1</v>
       </c>
       <c r="BL3">
-        <v>0.9409867638444455</v>
+        <v>1</v>
       </c>
       <c r="BM3">
-        <v>0.9409892666723595</v>
+        <v>1</v>
       </c>
       <c r="BN3">
-        <v>0.9410135033752115</v>
+        <v>1</v>
       </c>
       <c r="BO3">
-        <v>0.9437397219733978</v>
+        <v>1</v>
       </c>
       <c r="BP3">
-        <v>0.946157701313544</v>
+        <v>1</v>
       </c>
       <c r="BQ3">
-        <v>0.9463226398556441</v>
+        <v>1</v>
       </c>
       <c r="BR3">
-        <v>0.9468936062934651</v>
+        <v>1</v>
       </c>
       <c r="BS3">
-        <v>0.9492567774731874</v>
+        <v>1</v>
       </c>
       <c r="BT3">
-        <v>0.9554652938352673</v>
+        <v>1</v>
       </c>
       <c r="BU3">
-        <v>0.972632021352548</v>
+        <v>1</v>
       </c>
       <c r="BV3">
         <v>1</v>
       </c>
+      <c r="BW3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:74">
+    <row r="4" spans="1:75">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3959,105 +4004,108 @@
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.2412224171542024</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.3655164340487879</v>
+        <v>0.3366986924867602</v>
       </c>
       <c r="AS4">
-        <v>0.5954961294088478</v>
+        <v>0.4870078908449693</v>
       </c>
       <c r="AT4">
-        <v>0.5965752760274327</v>
+        <v>0.805785144030537</v>
       </c>
       <c r="AU4">
-        <v>0.5986029487014615</v>
+        <v>0.805785144030537</v>
       </c>
       <c r="AV4">
-        <v>0.5999855423510049</v>
+        <v>0.805785144030537</v>
       </c>
       <c r="AW4">
-        <v>0.7105088374251191</v>
+        <v>0.805785144030537</v>
       </c>
       <c r="AX4">
-        <v>0.7359031696837394</v>
+        <v>0.93414314945184</v>
       </c>
       <c r="AY4">
-        <v>0.771704896500929</v>
+        <v>0.93414314945184</v>
       </c>
       <c r="AZ4">
-        <v>0.7850395531934564</v>
+        <v>0.9433913810544876</v>
       </c>
       <c r="BA4">
-        <v>0.7850806844456436</v>
+        <v>0.9433913810544876</v>
       </c>
       <c r="BB4">
-        <v>0.7857467834285954</v>
+        <v>0.9433913810544876</v>
       </c>
       <c r="BC4">
-        <v>0.798215060001496</v>
+        <v>0.9433913810544876</v>
       </c>
       <c r="BD4">
-        <v>0.8038585972335438</v>
+        <v>0.9433913810544876</v>
       </c>
       <c r="BE4">
-        <v>0.8268376216340155</v>
+        <v>0.9433913810544876</v>
       </c>
       <c r="BF4">
-        <v>0.8319026120927445</v>
+        <v>0.9433913810544876</v>
       </c>
       <c r="BG4">
-        <v>0.8458403828904507</v>
+        <v>0.9433913810544876</v>
       </c>
       <c r="BH4">
-        <v>0.8473598883346174</v>
+        <v>0.9433913810544876</v>
       </c>
       <c r="BI4">
-        <v>0.8518501188988894</v>
+        <v>0.9433913810544876</v>
       </c>
       <c r="BJ4">
-        <v>0.9173626100140798</v>
+        <v>0.9433913810544876</v>
       </c>
       <c r="BK4">
-        <v>0.9241710052669215</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL4">
-        <v>0.9320706250501288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM4">
-        <v>0.9329340483489615</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN4">
-        <v>0.9347383635320866</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO4">
-        <v>0.9351781811192305</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP4">
-        <v>0.9373357033034668</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ4">
-        <v>0.9384524380066318</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR4">
-        <v>0.9397656226898902</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS4">
-        <v>0.9434683500140563</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT4">
-        <v>0.9541580483358445</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU4">
-        <v>0.9763134200198179</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BW4">
+        <v>0.9999999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:74">
+    <row r="5" spans="1:75">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4183,777 +4231,789 @@
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.1696070221949173</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.2115412214359698</v>
+        <v>0.2659020674170398</v>
       </c>
       <c r="AS5">
-        <v>0.477494767351637</v>
+        <v>0.2886325017553081</v>
       </c>
       <c r="AT5">
-        <v>0.4933584344826272</v>
+        <v>0.7380406668099277</v>
       </c>
       <c r="AU5">
-        <v>0.496527453960981</v>
+        <v>0.7380406668099277</v>
       </c>
       <c r="AV5">
-        <v>0.5316386715238313</v>
+        <v>0.7380406668099277</v>
       </c>
       <c r="AW5">
-        <v>0.6267590934750161</v>
+        <v>0.7477757309608031</v>
       </c>
       <c r="AX5">
-        <v>0.6450338666973088</v>
+        <v>0.8718071339350331</v>
       </c>
       <c r="AY5">
-        <v>0.6813378726367525</v>
+        <v>0.8718071339350331</v>
       </c>
       <c r="AZ5">
-        <v>0.7114996417394822</v>
+        <v>0.8838140386447906</v>
       </c>
       <c r="BA5">
-        <v>0.7130729478795759</v>
+        <v>0.8841221516478742</v>
       </c>
       <c r="BB5">
-        <v>0.7148611609161984</v>
+        <v>0.8841221516478742</v>
       </c>
       <c r="BC5">
-        <v>0.7187512993792402</v>
+        <v>0.8841221516478742</v>
       </c>
       <c r="BD5">
-        <v>0.7482836990800985</v>
+        <v>0.8841221516478742</v>
       </c>
       <c r="BE5">
-        <v>0.7673870369917009</v>
+        <v>0.8841221516478742</v>
       </c>
       <c r="BF5">
-        <v>0.7718261133335999</v>
+        <v>0.8841221516478742</v>
       </c>
       <c r="BG5">
-        <v>0.8096659244033756</v>
+        <v>0.8841221516478742</v>
       </c>
       <c r="BH5">
-        <v>0.8099757788861701</v>
+        <v>0.8990542226772372</v>
       </c>
       <c r="BI5">
-        <v>0.8110590299518452</v>
+        <v>0.8990542226772372</v>
       </c>
       <c r="BJ5">
-        <v>0.8940587659526906</v>
+        <v>0.8990542226772372</v>
       </c>
       <c r="BK5">
-        <v>0.9130061602092915</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL5">
-        <v>0.9403153141072648</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM5">
-        <v>0.9404279923292063</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN5">
-        <v>0.9412251164497351</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO5">
-        <v>0.9480161241431674</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP5">
-        <v>0.9532722571533383</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ5">
-        <v>0.9534404884060891</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR5">
-        <v>0.9538701182392346</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS5">
-        <v>0.9571514960375498</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT5">
-        <v>0.9625635952076838</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU5">
-        <v>0.9751796335132334</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BW5">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:75">
+      <c r="A6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0.2504593990864346</v>
+      </c>
+      <c r="AS6">
+        <v>0.5076969242374814</v>
+      </c>
+      <c r="AT6">
+        <v>0.7065408905219661</v>
+      </c>
+      <c r="AU6">
+        <v>0.7065408905219661</v>
+      </c>
+      <c r="AV6">
+        <v>0.7065408905219661</v>
+      </c>
+      <c r="AW6">
+        <v>0.7065408905219661</v>
+      </c>
+      <c r="AX6">
+        <v>0.9265106402216028</v>
+      </c>
+      <c r="AY6">
+        <v>0.9265106402216028</v>
+      </c>
+      <c r="AZ6">
+        <v>0.9265106402216028</v>
+      </c>
+      <c r="BA6">
+        <v>0.9265106402216028</v>
+      </c>
+      <c r="BB6">
+        <v>0.9265106402216028</v>
+      </c>
+      <c r="BC6">
+        <v>0.9265106402216028</v>
+      </c>
+      <c r="BD6">
+        <v>0.9265106402216028</v>
+      </c>
+      <c r="BE6">
+        <v>0.9265106402216028</v>
+      </c>
+      <c r="BF6">
+        <v>0.9265106402216028</v>
+      </c>
+      <c r="BG6">
+        <v>0.9265106402216028</v>
+      </c>
+      <c r="BH6">
+        <v>0.9265106402216028</v>
+      </c>
+      <c r="BI6">
+        <v>0.9265106402216028</v>
+      </c>
+      <c r="BJ6">
+        <v>0.9265106402216028</v>
+      </c>
+      <c r="BK6">
         <v>0.9999999999999998</v>
       </c>
+      <c r="BL6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BM6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BN6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BO6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BP6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BQ6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BR6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BS6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BT6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BU6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BV6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BW6">
+        <v>0.9999999999999998</v>
+      </c>
     </row>
-    <row r="6" spans="1:74">
-      <c r="A6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0.1864396884738335</v>
-      </c>
-      <c r="AR6">
-        <v>0.3771202031138505</v>
-      </c>
-      <c r="AS6">
-        <v>0.53126599856787</v>
-      </c>
-      <c r="AT6">
-        <v>0.532499932227473</v>
-      </c>
-      <c r="AU6">
-        <v>0.5351577220141294</v>
-      </c>
-      <c r="AV6">
-        <v>0.5491447521880146</v>
-      </c>
-      <c r="AW6">
-        <v>0.7165081795116812</v>
-      </c>
-      <c r="AX6">
-        <v>0.7388329937912511</v>
-      </c>
-      <c r="AY6">
-        <v>0.7512164396910878</v>
-      </c>
-      <c r="AZ6">
-        <v>0.7596776945609163</v>
-      </c>
-      <c r="BA6">
-        <v>0.7599162529883924</v>
-      </c>
-      <c r="BB6">
-        <v>0.7629697487660477</v>
-      </c>
-      <c r="BC6">
-        <v>0.7807959085328449</v>
-      </c>
-      <c r="BD6">
-        <v>0.7809127840617192</v>
-      </c>
-      <c r="BE6">
-        <v>0.7897330160718157</v>
-      </c>
-      <c r="BF6">
-        <v>0.810456470288488</v>
-      </c>
-      <c r="BG6">
-        <v>0.8158161354864989</v>
-      </c>
-      <c r="BH6">
-        <v>0.8175200114633622</v>
-      </c>
-      <c r="BI6">
-        <v>0.8423629990957492</v>
-      </c>
-      <c r="BJ6">
-        <v>0.9180789910531767</v>
-      </c>
-      <c r="BK6">
-        <v>0.9180810862370984</v>
-      </c>
-      <c r="BL6">
-        <v>0.9240489799774732</v>
-      </c>
-      <c r="BM6">
-        <v>0.9252375053948859</v>
-      </c>
-      <c r="BN6">
-        <v>0.925409999365337</v>
-      </c>
-      <c r="BO6">
-        <v>0.927517954451642</v>
-      </c>
-      <c r="BP6">
-        <v>0.9310345451055688</v>
-      </c>
-      <c r="BQ6">
-        <v>0.9325888061682931</v>
-      </c>
-      <c r="BR6">
-        <v>0.9326170897559098</v>
-      </c>
-      <c r="BS6">
-        <v>0.94088213442642</v>
-      </c>
-      <c r="BT6">
-        <v>0.9524332492199362</v>
-      </c>
-      <c r="BU6">
-        <v>0.9768077642648194</v>
-      </c>
-      <c r="BV6">
-        <v>0.9999999999999999</v>
+    <row r="7" spans="1:75">
+      <c r="A7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.1540629448908861</v>
+      </c>
+      <c r="F7">
+        <v>0.1540629448908861</v>
+      </c>
+      <c r="G7">
+        <v>0.5249163849768012</v>
+      </c>
+      <c r="H7">
+        <v>0.5852354383964123</v>
+      </c>
+      <c r="I7">
+        <v>0.5852354383964123</v>
+      </c>
+      <c r="J7">
+        <v>0.5852354383964123</v>
+      </c>
+      <c r="K7">
+        <v>0.5852354383964123</v>
+      </c>
+      <c r="L7">
+        <v>0.5852354383964123</v>
+      </c>
+      <c r="M7">
+        <v>0.9042753346443122</v>
+      </c>
+      <c r="N7">
+        <v>0.9368246728520678</v>
+      </c>
+      <c r="O7">
+        <v>0.9368246728520678</v>
+      </c>
+      <c r="P7">
+        <v>0.986202018340718</v>
+      </c>
+      <c r="Q7">
+        <v>0.986202018340718</v>
+      </c>
+      <c r="R7">
+        <v>0.986202018340718</v>
+      </c>
+      <c r="S7">
+        <v>0.986202018340718</v>
+      </c>
+      <c r="T7">
+        <v>0.986202018340718</v>
+      </c>
+      <c r="U7">
+        <v>0.986202018340718</v>
+      </c>
+      <c r="V7">
+        <v>0.986202018340718</v>
+      </c>
+      <c r="W7">
+        <v>0.9867295983943699</v>
+      </c>
+      <c r="X7">
+        <v>0.9871519116457828</v>
+      </c>
+      <c r="Y7">
+        <v>0.9871519116457828</v>
+      </c>
+      <c r="Z7">
+        <v>0.9871519116457828</v>
+      </c>
+      <c r="AA7">
+        <v>0.9871519116457828</v>
+      </c>
+      <c r="AB7">
+        <v>0.9871519116457828</v>
+      </c>
+      <c r="AC7">
+        <v>0.9871519116457828</v>
+      </c>
+      <c r="AD7">
+        <v>0.9871519116457828</v>
+      </c>
+      <c r="AE7">
+        <v>0.9871519116457828</v>
+      </c>
+      <c r="AF7">
+        <v>0.9871519116457828</v>
+      </c>
+      <c r="AG7">
+        <v>0.9871519116457828</v>
+      </c>
+      <c r="AH7">
+        <v>0.9871519116457828</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
+      <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <v>1</v>
+      </c>
+      <c r="AV7">
+        <v>1</v>
+      </c>
+      <c r="AW7">
+        <v>1</v>
+      </c>
+      <c r="AX7">
+        <v>1</v>
+      </c>
+      <c r="AY7">
+        <v>1</v>
+      </c>
+      <c r="AZ7">
+        <v>1</v>
+      </c>
+      <c r="BA7">
+        <v>1</v>
+      </c>
+      <c r="BB7">
+        <v>1</v>
+      </c>
+      <c r="BC7">
+        <v>1</v>
+      </c>
+      <c r="BD7">
+        <v>1</v>
+      </c>
+      <c r="BE7">
+        <v>1</v>
+      </c>
+      <c r="BF7">
+        <v>1</v>
+      </c>
+      <c r="BG7">
+        <v>1</v>
+      </c>
+      <c r="BH7">
+        <v>1</v>
+      </c>
+      <c r="BI7">
+        <v>1</v>
+      </c>
+      <c r="BJ7">
+        <v>1</v>
+      </c>
+      <c r="BK7">
+        <v>1</v>
+      </c>
+      <c r="BL7">
+        <v>1</v>
+      </c>
+      <c r="BM7">
+        <v>1</v>
+      </c>
+      <c r="BN7">
+        <v>1</v>
+      </c>
+      <c r="BO7">
+        <v>1</v>
+      </c>
+      <c r="BP7">
+        <v>1</v>
+      </c>
+      <c r="BQ7">
+        <v>1</v>
+      </c>
+      <c r="BR7">
+        <v>1</v>
+      </c>
+      <c r="BS7">
+        <v>1</v>
+      </c>
+      <c r="BT7">
+        <v>1</v>
+      </c>
+      <c r="BU7">
+        <v>1</v>
+      </c>
+      <c r="BV7">
+        <v>1</v>
+      </c>
+      <c r="BW7">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:74">
-      <c r="A7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0.1371599141756869</v>
-      </c>
-      <c r="E7">
-        <v>0.1496726275921436</v>
-      </c>
-      <c r="F7">
-        <v>0.4545868295388241</v>
-      </c>
-      <c r="G7">
-        <v>0.5192069410239101</v>
-      </c>
-      <c r="H7">
-        <v>0.5313636341454931</v>
-      </c>
-      <c r="I7">
-        <v>0.5313636341454931</v>
-      </c>
-      <c r="J7">
-        <v>0.5313636341454931</v>
-      </c>
-      <c r="K7">
-        <v>0.5313636341454931</v>
-      </c>
-      <c r="L7">
-        <v>0.7961840850464095</v>
-      </c>
-      <c r="M7">
-        <v>0.8393157599984394</v>
-      </c>
-      <c r="N7">
-        <v>0.8393157599984394</v>
-      </c>
-      <c r="O7">
-        <v>0.8954690869074519</v>
-      </c>
-      <c r="P7">
-        <v>0.8954690869074519</v>
-      </c>
-      <c r="Q7">
-        <v>0.9069636547363721</v>
-      </c>
-      <c r="R7">
-        <v>0.9110655048783773</v>
-      </c>
-      <c r="S7">
-        <v>0.9110655048783773</v>
-      </c>
-      <c r="T7">
-        <v>0.9110655048783773</v>
-      </c>
-      <c r="U7">
-        <v>0.9110655048783773</v>
-      </c>
-      <c r="V7">
-        <v>0.9294184771133712</v>
-      </c>
-      <c r="W7">
-        <v>0.9476899930215106</v>
-      </c>
-      <c r="X7">
-        <v>0.9483234267290418</v>
-      </c>
-      <c r="Y7">
-        <v>0.9483234267290418</v>
-      </c>
-      <c r="Z7">
-        <v>0.9483234267290418</v>
-      </c>
-      <c r="AA7">
-        <v>0.9483234267290418</v>
-      </c>
-      <c r="AB7">
-        <v>0.9483234267290418</v>
-      </c>
-      <c r="AC7">
-        <v>0.9483234267290418</v>
-      </c>
-      <c r="AD7">
-        <v>0.9483234267290418</v>
-      </c>
-      <c r="AE7">
-        <v>0.9483234267290418</v>
-      </c>
-      <c r="AF7">
-        <v>0.9483234267290418</v>
-      </c>
-      <c r="AG7">
-        <v>0.9483234267290418</v>
-      </c>
-      <c r="AH7">
-        <v>0.9762101107306821</v>
-      </c>
-      <c r="AI7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AJ7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AK7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AL7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AM7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AN7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AO7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AP7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AQ7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AR7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AS7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AT7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AU7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AV7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AW7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AX7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AY7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AZ7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BA7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BB7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BC7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BD7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BE7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BF7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BG7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BH7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BI7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BJ7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BK7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BL7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BM7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BN7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BO7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BP7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BQ7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BR7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BS7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BT7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BU7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BV7">
-        <v>0.9999999999999999</v>
+    <row r="8" spans="1:75">
+      <c r="A8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.2193823501680703</v>
+      </c>
+      <c r="F8">
+        <v>0.2193823501680703</v>
+      </c>
+      <c r="G8">
+        <v>0.3718532205758718</v>
+      </c>
+      <c r="H8">
+        <v>0.5407774461565711</v>
+      </c>
+      <c r="I8">
+        <v>0.6052531647489753</v>
+      </c>
+      <c r="J8">
+        <v>0.6052531647489753</v>
+      </c>
+      <c r="K8">
+        <v>0.6052531647489753</v>
+      </c>
+      <c r="L8">
+        <v>0.6052531647489753</v>
+      </c>
+      <c r="M8">
+        <v>0.7982145008814732</v>
+      </c>
+      <c r="N8">
+        <v>0.8083667349412713</v>
+      </c>
+      <c r="O8">
+        <v>0.8083667349412713</v>
+      </c>
+      <c r="P8">
+        <v>0.8914263108968977</v>
+      </c>
+      <c r="Q8">
+        <v>0.8914263108968977</v>
+      </c>
+      <c r="R8">
+        <v>0.9534563362690988</v>
+      </c>
+      <c r="S8">
+        <v>0.9534563362690988</v>
+      </c>
+      <c r="T8">
+        <v>0.9534563362690988</v>
+      </c>
+      <c r="U8">
+        <v>0.9534563362690988</v>
+      </c>
+      <c r="V8">
+        <v>0.9534563362690988</v>
+      </c>
+      <c r="W8">
+        <v>0.9534563362690988</v>
+      </c>
+      <c r="X8">
+        <v>0.9534563362690988</v>
+      </c>
+      <c r="Y8">
+        <v>0.9534563362690988</v>
+      </c>
+      <c r="Z8">
+        <v>0.9534563362690988</v>
+      </c>
+      <c r="AA8">
+        <v>0.9534563362690988</v>
+      </c>
+      <c r="AB8">
+        <v>0.9534563362690988</v>
+      </c>
+      <c r="AC8">
+        <v>0.9534563362690988</v>
+      </c>
+      <c r="AD8">
+        <v>0.9534563362690988</v>
+      </c>
+      <c r="AE8">
+        <v>0.9534563362690988</v>
+      </c>
+      <c r="AF8">
+        <v>0.9534563362690988</v>
+      </c>
+      <c r="AG8">
+        <v>0.9534563362690988</v>
+      </c>
+      <c r="AH8">
+        <v>0.9534563362690988</v>
+      </c>
+      <c r="AI8">
+        <v>0.9534563362690988</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <v>1</v>
+      </c>
+      <c r="AT8">
+        <v>1</v>
+      </c>
+      <c r="AU8">
+        <v>1</v>
+      </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
+      <c r="AW8">
+        <v>1</v>
+      </c>
+      <c r="AX8">
+        <v>1</v>
+      </c>
+      <c r="AY8">
+        <v>1</v>
+      </c>
+      <c r="AZ8">
+        <v>1</v>
+      </c>
+      <c r="BA8">
+        <v>1</v>
+      </c>
+      <c r="BB8">
+        <v>1</v>
+      </c>
+      <c r="BC8">
+        <v>1</v>
+      </c>
+      <c r="BD8">
+        <v>1</v>
+      </c>
+      <c r="BE8">
+        <v>1</v>
+      </c>
+      <c r="BF8">
+        <v>1</v>
+      </c>
+      <c r="BG8">
+        <v>1</v>
+      </c>
+      <c r="BH8">
+        <v>1</v>
+      </c>
+      <c r="BI8">
+        <v>1</v>
+      </c>
+      <c r="BJ8">
+        <v>1</v>
+      </c>
+      <c r="BK8">
+        <v>1</v>
+      </c>
+      <c r="BL8">
+        <v>1</v>
+      </c>
+      <c r="BM8">
+        <v>1</v>
+      </c>
+      <c r="BN8">
+        <v>1</v>
+      </c>
+      <c r="BO8">
+        <v>1</v>
+      </c>
+      <c r="BP8">
+        <v>1</v>
+      </c>
+      <c r="BQ8">
+        <v>1</v>
+      </c>
+      <c r="BR8">
+        <v>1</v>
+      </c>
+      <c r="BS8">
+        <v>1</v>
+      </c>
+      <c r="BT8">
+        <v>1</v>
+      </c>
+      <c r="BU8">
+        <v>1</v>
+      </c>
+      <c r="BV8">
+        <v>1</v>
+      </c>
+      <c r="BW8">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:74">
-      <c r="A8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0.1564184647388446</v>
-      </c>
-      <c r="E8">
-        <v>0.1570442367810624</v>
-      </c>
-      <c r="F8">
-        <v>0.2746211557233864</v>
-      </c>
-      <c r="G8">
-        <v>0.4017491076236454</v>
-      </c>
-      <c r="H8">
-        <v>0.4682455881814779</v>
-      </c>
-      <c r="I8">
-        <v>0.4688781531501079</v>
-      </c>
-      <c r="J8">
-        <v>0.4715363382407158</v>
-      </c>
-      <c r="K8">
-        <v>0.4724774727653378</v>
-      </c>
-      <c r="L8">
-        <v>0.6135587632206365</v>
-      </c>
-      <c r="M8">
-        <v>0.6485209223158507</v>
-      </c>
-      <c r="N8">
-        <v>0.6485209223158507</v>
-      </c>
-      <c r="O8">
-        <v>0.7258051742611309</v>
-      </c>
-      <c r="P8">
-        <v>0.7258051742611309</v>
-      </c>
-      <c r="Q8">
-        <v>0.790881950673171</v>
-      </c>
-      <c r="R8">
-        <v>0.790881950673171</v>
-      </c>
-      <c r="S8">
-        <v>0.790881950673171</v>
-      </c>
-      <c r="T8">
-        <v>0.8053093810913493</v>
-      </c>
-      <c r="U8">
-        <v>0.8053093810913493</v>
-      </c>
-      <c r="V8">
-        <v>0.8190288673605202</v>
-      </c>
-      <c r="W8">
-        <v>0.8476673541309</v>
-      </c>
-      <c r="X8">
-        <v>0.8722979908656558</v>
-      </c>
-      <c r="Y8">
-        <v>0.8790392195302131</v>
-      </c>
-      <c r="Z8">
-        <v>0.8790392195302131</v>
-      </c>
-      <c r="AA8">
-        <v>0.8790392195302131</v>
-      </c>
-      <c r="AB8">
-        <v>0.8790392195302131</v>
-      </c>
-      <c r="AC8">
-        <v>0.8834862007585578</v>
-      </c>
-      <c r="AD8">
-        <v>0.9006422998686134</v>
-      </c>
-      <c r="AE8">
-        <v>0.9006422998686134</v>
-      </c>
-      <c r="AF8">
-        <v>0.9006422998686134</v>
-      </c>
-      <c r="AG8">
-        <v>0.9155674114744101</v>
-      </c>
-      <c r="AH8">
-        <v>0.9439129250123964</v>
-      </c>
-      <c r="AI8">
-        <v>1</v>
-      </c>
-      <c r="AJ8">
-        <v>1</v>
-      </c>
-      <c r="AK8">
-        <v>1</v>
-      </c>
-      <c r="AL8">
-        <v>1</v>
-      </c>
-      <c r="AM8">
-        <v>1</v>
-      </c>
-      <c r="AN8">
-        <v>1</v>
-      </c>
-      <c r="AO8">
-        <v>1</v>
-      </c>
-      <c r="AP8">
-        <v>1</v>
-      </c>
-      <c r="AQ8">
-        <v>1</v>
-      </c>
-      <c r="AR8">
-        <v>1</v>
-      </c>
-      <c r="AS8">
-        <v>1</v>
-      </c>
-      <c r="AT8">
-        <v>1</v>
-      </c>
-      <c r="AU8">
-        <v>1</v>
-      </c>
-      <c r="AV8">
-        <v>1</v>
-      </c>
-      <c r="AW8">
-        <v>1</v>
-      </c>
-      <c r="AX8">
-        <v>1</v>
-      </c>
-      <c r="AY8">
-        <v>1</v>
-      </c>
-      <c r="AZ8">
-        <v>1</v>
-      </c>
-      <c r="BA8">
-        <v>1</v>
-      </c>
-      <c r="BB8">
-        <v>1</v>
-      </c>
-      <c r="BC8">
-        <v>1</v>
-      </c>
-      <c r="BD8">
-        <v>1</v>
-      </c>
-      <c r="BE8">
-        <v>1</v>
-      </c>
-      <c r="BF8">
-        <v>1</v>
-      </c>
-      <c r="BG8">
-        <v>1</v>
-      </c>
-      <c r="BH8">
-        <v>1</v>
-      </c>
-      <c r="BI8">
-        <v>1</v>
-      </c>
-      <c r="BJ8">
-        <v>1</v>
-      </c>
-      <c r="BK8">
-        <v>1</v>
-      </c>
-      <c r="BL8">
-        <v>1</v>
-      </c>
-      <c r="BM8">
-        <v>1</v>
-      </c>
-      <c r="BN8">
-        <v>1</v>
-      </c>
-      <c r="BO8">
-        <v>1</v>
-      </c>
-      <c r="BP8">
-        <v>1</v>
-      </c>
-      <c r="BQ8">
-        <v>1</v>
-      </c>
-      <c r="BR8">
-        <v>1</v>
-      </c>
-      <c r="BS8">
-        <v>1</v>
-      </c>
-      <c r="BT8">
-        <v>1</v>
-      </c>
-      <c r="BU8">
-        <v>1</v>
-      </c>
-      <c r="BV8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:74">
+    <row r="9" spans="1:75">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4962,100 +5022,100 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1135212304626478</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.135543401598499</v>
+        <v>0.1372050771997149</v>
       </c>
       <c r="F9">
-        <v>0.2286456185522732</v>
+        <v>0.1372050771997149</v>
       </c>
       <c r="G9">
-        <v>0.2449103230783452</v>
+        <v>0.241575019322952</v>
       </c>
       <c r="H9">
-        <v>0.3171420023281908</v>
+        <v>0.241575019322952</v>
       </c>
       <c r="I9">
-        <v>0.3264886507266746</v>
+        <v>0.3123837453605341</v>
       </c>
       <c r="J9">
-        <v>0.3264886507266746</v>
+        <v>0.3123837453605341</v>
       </c>
       <c r="K9">
-        <v>0.3282591755627048</v>
+        <v>0.3123837453605341</v>
       </c>
       <c r="L9">
-        <v>0.5742358116491796</v>
+        <v>0.3123837453605341</v>
       </c>
       <c r="M9">
-        <v>0.6942617448836672</v>
+        <v>0.662585945725771</v>
       </c>
       <c r="N9">
-        <v>0.6947685212490274</v>
+        <v>0.8102510186570566</v>
       </c>
       <c r="O9">
-        <v>0.7565871912559727</v>
+        <v>0.8102510186570566</v>
       </c>
       <c r="P9">
-        <v>0.7565871912559727</v>
+        <v>0.8643149315872545</v>
       </c>
       <c r="Q9">
-        <v>0.7732489136752161</v>
+        <v>0.8643149315872545</v>
       </c>
       <c r="R9">
-        <v>0.7732489136752161</v>
+        <v>0.8643149315872545</v>
       </c>
       <c r="S9">
-        <v>0.7732489136752161</v>
+        <v>0.8643149315872545</v>
       </c>
       <c r="T9">
-        <v>0.8059327445559628</v>
+        <v>0.8643149315872545</v>
       </c>
       <c r="U9">
-        <v>0.8059327445559628</v>
+        <v>0.8715280807562917</v>
       </c>
       <c r="V9">
-        <v>0.8059327445559628</v>
+        <v>0.8715280807562917</v>
       </c>
       <c r="W9">
-        <v>0.8883218739797947</v>
+        <v>0.8715280807562917</v>
       </c>
       <c r="X9">
-        <v>0.9242432534333419</v>
+        <v>0.9586706638800887</v>
       </c>
       <c r="Y9">
-        <v>0.9242432534333419</v>
+        <v>0.9710900070044983</v>
       </c>
       <c r="Z9">
-        <v>0.9256254388857378</v>
+        <v>0.9710900070044983</v>
       </c>
       <c r="AA9">
-        <v>0.9256254388857378</v>
+        <v>0.9710900070044983</v>
       </c>
       <c r="AB9">
-        <v>0.9256254388857378</v>
+        <v>0.9710900070044983</v>
       </c>
       <c r="AC9">
-        <v>0.9256254388857378</v>
+        <v>0.9710900070044983</v>
       </c>
       <c r="AD9">
-        <v>0.9256254388857378</v>
+        <v>0.9710900070044983</v>
       </c>
       <c r="AE9">
-        <v>0.9256254388857378</v>
+        <v>0.9710900070044983</v>
       </c>
       <c r="AF9">
-        <v>0.9256254388857378</v>
+        <v>0.9710900070044983</v>
       </c>
       <c r="AG9">
-        <v>0.9256254388857378</v>
+        <v>0.9710900070044983</v>
       </c>
       <c r="AH9">
-        <v>0.9587097161366972</v>
+        <v>0.9710900070044983</v>
       </c>
       <c r="AI9">
-        <v>0.9999999999999999</v>
+        <v>0.9789471006349616</v>
       </c>
       <c r="AJ9">
         <v>0.9999999999999999</v>
@@ -5174,10 +5234,13 @@
       <c r="BV9">
         <v>0.9999999999999999</v>
       </c>
+      <c r="BW9">
+        <v>0.9999999999999999</v>
+      </c>
     </row>
-    <row r="10" spans="1:74">
+    <row r="10" spans="1:75">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5186,100 +5249,100 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1732383495253334</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2682772533424822</v>
+        <v>0.2484199373604326</v>
       </c>
       <c r="F10">
-        <v>0.4025909258371355</v>
+        <v>0.3629403182920116</v>
       </c>
       <c r="G10">
-        <v>0.4556836468501448</v>
+        <v>0.5447102053695565</v>
       </c>
       <c r="H10">
-        <v>0.5088065273726069</v>
+        <v>0.5874068640164899</v>
       </c>
       <c r="I10">
-        <v>0.5088065273726069</v>
+        <v>0.6301551642690798</v>
       </c>
       <c r="J10">
-        <v>0.5349274700125528</v>
+        <v>0.6301551642690798</v>
       </c>
       <c r="K10">
-        <v>0.5544343321815285</v>
+        <v>0.6301551642690798</v>
       </c>
       <c r="L10">
-        <v>0.7294943547732133</v>
+        <v>0.6301551642690798</v>
       </c>
       <c r="M10">
-        <v>0.7370873507537824</v>
+        <v>0.8816943208686499</v>
       </c>
       <c r="N10">
-        <v>0.738473223363607</v>
+        <v>0.8816943208686499</v>
       </c>
       <c r="O10">
-        <v>0.8090027435576488</v>
+        <v>0.8816943208686499</v>
       </c>
       <c r="P10">
-        <v>0.8316608358315669</v>
+        <v>0.9542477087383439</v>
       </c>
       <c r="Q10">
-        <v>0.846440761196101</v>
+        <v>0.9542477087383439</v>
       </c>
       <c r="R10">
-        <v>0.846440761196101</v>
+        <v>0.9542477087383439</v>
       </c>
       <c r="S10">
-        <v>0.846440761196101</v>
+        <v>0.9542477087383439</v>
       </c>
       <c r="T10">
-        <v>0.8475792927336538</v>
+        <v>0.9542477087383439</v>
       </c>
       <c r="U10">
-        <v>0.8475792927336538</v>
+        <v>0.9542477087383439</v>
       </c>
       <c r="V10">
-        <v>0.8490925908620102</v>
+        <v>0.9542477087383439</v>
       </c>
       <c r="W10">
-        <v>0.8931281772318943</v>
+        <v>0.9542477087383439</v>
       </c>
       <c r="X10">
-        <v>0.9228032328574652</v>
+        <v>0.9814359926103914</v>
       </c>
       <c r="Y10">
-        <v>0.9228032328574652</v>
+        <v>0.9840349884212167</v>
       </c>
       <c r="Z10">
-        <v>0.9228032328574652</v>
+        <v>0.9840349884212167</v>
       </c>
       <c r="AA10">
-        <v>0.9243843808446747</v>
+        <v>0.9840349884212167</v>
       </c>
       <c r="AB10">
-        <v>0.9243843808446747</v>
+        <v>0.9840349884212167</v>
       </c>
       <c r="AC10">
-        <v>0.9382329519430724</v>
+        <v>0.9840349884212167</v>
       </c>
       <c r="AD10">
-        <v>0.9382329519430724</v>
+        <v>0.9840349884212167</v>
       </c>
       <c r="AE10">
-        <v>0.9382329519430724</v>
+        <v>0.9840349884212167</v>
       </c>
       <c r="AF10">
-        <v>0.945653342456924</v>
+        <v>0.9840349884212167</v>
       </c>
       <c r="AG10">
-        <v>0.945653342456924</v>
+        <v>0.9840349884212167</v>
       </c>
       <c r="AH10">
-        <v>0.9625189810668768</v>
+        <v>0.9840349884212167</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>0.9840349884212167</v>
       </c>
       <c r="AJ10">
         <v>1</v>
@@ -5398,10 +5461,13 @@
       <c r="BV10">
         <v>1</v>
       </c>
+      <c r="BW10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:74">
+    <row r="11" spans="1:75">
       <c r="A11" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -5410,100 +5476,100 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2024147165386041</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2024147165386041</v>
+        <v>0.2127685680359718</v>
       </c>
       <c r="F11">
-        <v>0.50536880139106</v>
+        <v>0.2127685680359718</v>
       </c>
       <c r="G11">
-        <v>0.5995575471307066</v>
+        <v>0.5361352877488545</v>
       </c>
       <c r="H11">
-        <v>0.5995575471307066</v>
+        <v>0.6298500708392238</v>
       </c>
       <c r="I11">
-        <v>0.5995575471307066</v>
+        <v>0.6298500708392238</v>
       </c>
       <c r="J11">
-        <v>0.6296770376074605</v>
+        <v>0.6298500708392238</v>
       </c>
       <c r="K11">
-        <v>0.6296770376074605</v>
+        <v>0.6530855846619358</v>
       </c>
       <c r="L11">
-        <v>0.6554408337603808</v>
+        <v>0.6530855846619358</v>
       </c>
       <c r="M11">
-        <v>0.7422137537086848</v>
+        <v>0.6715296247608245</v>
       </c>
       <c r="N11">
-        <v>0.7422137537086848</v>
+        <v>0.7570866419985167</v>
       </c>
       <c r="O11">
-        <v>0.7422137537086848</v>
+        <v>0.7570866419985167</v>
       </c>
       <c r="P11">
-        <v>0.7422137537086848</v>
+        <v>0.7570866419985167</v>
       </c>
       <c r="Q11">
-        <v>0.8111986099909742</v>
+        <v>0.7570866419985167</v>
       </c>
       <c r="R11">
-        <v>0.8111986099909742</v>
+        <v>0.8230759317244239</v>
       </c>
       <c r="S11">
-        <v>0.8111986099909742</v>
+        <v>0.8230759317244239</v>
       </c>
       <c r="T11">
-        <v>0.8121753209166143</v>
+        <v>0.8230759317244239</v>
       </c>
       <c r="U11">
-        <v>0.8121753209166143</v>
+        <v>0.8230759317244239</v>
       </c>
       <c r="V11">
-        <v>0.8121753209166143</v>
+        <v>0.8230759317244239</v>
       </c>
       <c r="W11">
-        <v>0.8480656478646291</v>
+        <v>0.8230759317244239</v>
       </c>
       <c r="X11">
-        <v>0.9627809043983722</v>
+        <v>0.8526596438504987</v>
       </c>
       <c r="Y11">
-        <v>0.9627809043983722</v>
+        <v>0.9689545783012427</v>
       </c>
       <c r="Z11">
-        <v>0.9627809043983722</v>
+        <v>0.9689545783012427</v>
       </c>
       <c r="AA11">
-        <v>0.9627809043983722</v>
+        <v>0.9689545783012427</v>
       </c>
       <c r="AB11">
-        <v>0.9627809043983722</v>
+        <v>0.9689545783012427</v>
       </c>
       <c r="AC11">
-        <v>0.9627809043983722</v>
+        <v>0.9689545783012427</v>
       </c>
       <c r="AD11">
-        <v>0.9627809043983722</v>
+        <v>0.9689545783012427</v>
       </c>
       <c r="AE11">
-        <v>0.9627809043983722</v>
+        <v>0.9689545783012427</v>
       </c>
       <c r="AF11">
-        <v>0.9627809043983722</v>
+        <v>0.9689545783012427</v>
       </c>
       <c r="AG11">
-        <v>0.9627809043983722</v>
+        <v>0.9689545783012427</v>
       </c>
       <c r="AH11">
-        <v>0.9627809043983722</v>
+        <v>0.9689545783012427</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0.9689545783012427</v>
       </c>
       <c r="AJ11">
         <v>1</v>
@@ -5620,6 +5686,9 @@
         <v>1</v>
       </c>
       <c r="BV11">
+        <v>1</v>
+      </c>
+      <c r="BW11">
         <v>1</v>
       </c>
     </row>
@@ -5638,453 +5707,453 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>41</v>
+      </c>
+      <c r="D2">
         <v>0.5</v>
       </c>
-      <c r="C2">
-        <v>40</v>
-      </c>
-      <c r="D2">
-        <v>48</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.6101487471345779</v>
       </c>
       <c r="F2">
-        <v>0.5426514970511633</v>
+        <v>45</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>800</v>
       </c>
       <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2">
         <v>10</v>
       </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K2" t="s">
-        <v>97</v>
-      </c>
       <c r="L2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>41</v>
+      </c>
+      <c r="D3">
         <v>0.5</v>
       </c>
-      <c r="C3">
-        <v>40</v>
-      </c>
-      <c r="D3">
-        <v>44</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8235879741416895</v>
       </c>
       <c r="F3">
-        <v>0.5805860932182474</v>
+        <v>45</v>
       </c>
       <c r="G3">
+        <v>800</v>
+      </c>
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3">
         <v>10</v>
       </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K3" t="s">
-        <v>97</v>
-      </c>
       <c r="L3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>41</v>
+      </c>
+      <c r="D4">
         <v>0.5</v>
       </c>
-      <c r="C4">
-        <v>40</v>
-      </c>
-      <c r="D4">
-        <v>44</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.805785144030537</v>
       </c>
       <c r="F4">
-        <v>0.5954961294088478</v>
+        <v>45</v>
       </c>
       <c r="G4">
+        <v>800</v>
+      </c>
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4">
         <v>10</v>
       </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K4" t="s">
-        <v>97</v>
-      </c>
       <c r="L4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>41</v>
+      </c>
+      <c r="D5">
         <v>0.5</v>
       </c>
-      <c r="C5">
-        <v>40</v>
-      </c>
-      <c r="D5">
-        <v>47</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.7380406668099277</v>
       </c>
       <c r="F5">
-        <v>0.5316386715238313</v>
+        <v>45</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>800</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5">
         <v>10</v>
       </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>96</v>
-      </c>
-      <c r="K5" t="s">
-        <v>97</v>
-      </c>
       <c r="L5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>41</v>
+      </c>
+      <c r="D6">
         <v>0.5</v>
       </c>
-      <c r="C6">
-        <v>40</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
+        <v>0.5076969242374814</v>
+      </c>
+      <c r="F6">
         <v>44</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.53126599856787</v>
-      </c>
       <c r="G6">
-        <v>4</v>
+        <v>800</v>
       </c>
       <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6">
         <v>10</v>
       </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K6" t="s">
-        <v>97</v>
-      </c>
       <c r="L6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
         <v>0.5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.5249163849768012</v>
+      </c>
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.5192069410239101</v>
-      </c>
       <c r="G7">
-        <v>5</v>
+        <v>800</v>
       </c>
       <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7">
         <v>10</v>
       </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" t="s">
-        <v>97</v>
-      </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
         <v>0.5</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>11</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.5407774461565711</v>
       </c>
       <c r="F8">
-        <v>0.6135587632206365</v>
+        <v>7</v>
       </c>
       <c r="G8">
+        <v>800</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8">
         <v>10</v>
       </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" t="s">
-        <v>97</v>
-      </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.662585945725771</v>
       </c>
       <c r="F9">
-        <v>0.5742358116491796</v>
+        <v>12</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="H9">
         <v>10</v>
       </c>
-      <c r="I9">
-        <v>800</v>
+      <c r="I9" t="s">
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.5447102053695565</v>
       </c>
       <c r="F10">
-        <v>0.5088065273726069</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>800</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10">
         <v>10</v>
       </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>96</v>
-      </c>
-      <c r="K10" t="s">
-        <v>97</v>
-      </c>
       <c r="L10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <v>0.5</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.5361352877488545</v>
       </c>
       <c r="F11">
-        <v>0.50536880139106</v>
+        <v>6</v>
       </c>
       <c r="G11">
+        <v>800</v>
+      </c>
+      <c r="H11">
         <v>4</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11">
         <v>10</v>
       </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" t="s">
-        <v>97</v>
-      </c>
       <c r="L11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -6102,453 +6171,453 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>41</v>
+      </c>
+      <c r="D2">
         <v>0.7</v>
       </c>
-      <c r="C2">
-        <v>40</v>
-      </c>
-      <c r="D2">
-        <v>55</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7071551769091823</v>
       </c>
       <c r="F2">
-        <v>0.7318568896078059</v>
+        <v>49</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>800</v>
       </c>
       <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2">
         <v>10</v>
       </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K2" t="s">
-        <v>97</v>
-      </c>
       <c r="L2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>41</v>
+      </c>
+      <c r="D3">
         <v>0.7</v>
       </c>
-      <c r="C3">
-        <v>40</v>
-      </c>
-      <c r="D3">
-        <v>48</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8235879741416895</v>
       </c>
       <c r="F3">
-        <v>0.7046063620683128</v>
+        <v>45</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>800</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3">
         <v>10</v>
       </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K3" t="s">
-        <v>97</v>
-      </c>
       <c r="L3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>41</v>
+      </c>
+      <c r="D4">
         <v>0.7</v>
       </c>
-      <c r="C4">
-        <v>40</v>
-      </c>
-      <c r="D4">
-        <v>48</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.805785144030537</v>
       </c>
       <c r="F4">
-        <v>0.7105088374251191</v>
+        <v>45</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>800</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4">
         <v>10</v>
       </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K4" t="s">
-        <v>97</v>
-      </c>
       <c r="L4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>41</v>
+      </c>
+      <c r="D5">
         <v>0.7</v>
       </c>
-      <c r="C5">
-        <v>40</v>
-      </c>
-      <c r="D5">
-        <v>51</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.7380406668099277</v>
       </c>
       <c r="F5">
-        <v>0.7114996417394822</v>
+        <v>45</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>800</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5">
         <v>10</v>
       </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>96</v>
-      </c>
-      <c r="K5" t="s">
-        <v>97</v>
-      </c>
       <c r="L5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>41</v>
+      </c>
+      <c r="D6">
         <v>0.7</v>
       </c>
-      <c r="C6">
-        <v>40</v>
-      </c>
-      <c r="D6">
-        <v>48</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.7065408905219661</v>
       </c>
       <c r="F6">
-        <v>0.7165081795116812</v>
+        <v>45</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>800</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6">
         <v>10</v>
       </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K6" t="s">
-        <v>97</v>
-      </c>
       <c r="L6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
         <v>0.7</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>11</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9042753346443122</v>
       </c>
       <c r="F7">
-        <v>0.7961840850464095</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="H7">
         <v>10</v>
       </c>
-      <c r="I7">
-        <v>800</v>
+      <c r="I7" t="s">
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
         <v>0.7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>14</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.7982145008814732</v>
       </c>
       <c r="F8">
-        <v>0.7258051742611309</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>800</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
-      <c r="I8">
-        <v>800</v>
+      <c r="I8" t="s">
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8102510186570566</v>
       </c>
       <c r="F9">
-        <v>0.7565871912559727</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>800</v>
       </c>
       <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9">
         <v>10</v>
       </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" t="s">
-        <v>97</v>
-      </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
         <v>0.7</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>11</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8816943208686499</v>
       </c>
       <c r="F10">
-        <v>0.7294943547732133</v>
+        <v>12</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="H10">
         <v>10</v>
       </c>
-      <c r="I10">
-        <v>800</v>
+      <c r="I10" t="s">
+        <v>97</v>
       </c>
       <c r="J10" t="s">
-        <v>96</v>
-      </c>
-      <c r="K10" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
       </c>
       <c r="L10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <v>0.7</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7570866419985167</v>
       </c>
       <c r="F11">
-        <v>0.7422137537086848</v>
+        <v>13</v>
       </c>
       <c r="G11">
+        <v>800</v>
+      </c>
+      <c r="H11">
         <v>11</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11">
         <v>10</v>
       </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" t="s">
-        <v>97</v>
-      </c>
       <c r="L11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -6566,453 +6635,453 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>41</v>
+      </c>
+      <c r="D2">
         <v>0.8</v>
       </c>
-      <c r="C2">
-        <v>40</v>
-      </c>
-      <c r="D2">
-        <v>58</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8583594153541967</v>
       </c>
       <c r="F2">
-        <v>0.8258279121365006</v>
+        <v>56</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>800</v>
       </c>
       <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2">
         <v>10</v>
       </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K2" t="s">
-        <v>97</v>
-      </c>
       <c r="L2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>41</v>
+      </c>
+      <c r="D3">
         <v>0.8</v>
       </c>
-      <c r="C3">
-        <v>40</v>
-      </c>
-      <c r="D3">
-        <v>55</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8235879741416895</v>
       </c>
       <c r="F3">
-        <v>0.8019547939084266</v>
+        <v>45</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>800</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3">
         <v>10</v>
       </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K3" t="s">
-        <v>97</v>
-      </c>
       <c r="L3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>41</v>
+      </c>
+      <c r="D4">
         <v>0.8</v>
       </c>
-      <c r="C4">
-        <v>40</v>
-      </c>
-      <c r="D4">
-        <v>55</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.805785144030537</v>
       </c>
       <c r="F4">
-        <v>0.8038585972335438</v>
+        <v>45</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>800</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4">
         <v>10</v>
       </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K4" t="s">
-        <v>97</v>
-      </c>
       <c r="L4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>41</v>
+      </c>
+      <c r="D5">
         <v>0.8</v>
       </c>
-      <c r="C5">
-        <v>40</v>
-      </c>
-      <c r="D5">
-        <v>58</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8718071339350331</v>
       </c>
       <c r="F5">
-        <v>0.8096659244033756</v>
+        <v>49</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>800</v>
       </c>
       <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5">
         <v>10</v>
       </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>96</v>
-      </c>
-      <c r="K5" t="s">
-        <v>97</v>
-      </c>
       <c r="L5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>41</v>
+      </c>
+      <c r="D6">
         <v>0.8</v>
       </c>
-      <c r="C6">
-        <v>40</v>
-      </c>
-      <c r="D6">
-        <v>57</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9265106402216028</v>
       </c>
       <c r="F6">
-        <v>0.810456470288488</v>
+        <v>49</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>800</v>
       </c>
       <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6">
         <v>10</v>
       </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K6" t="s">
-        <v>97</v>
-      </c>
       <c r="L6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
         <v>0.8</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.9042753346443122</v>
+      </c>
+      <c r="F7">
         <v>12</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.8393157599984394</v>
-      </c>
       <c r="G7">
-        <v>11</v>
+        <v>800</v>
       </c>
       <c r="H7">
         <v>10</v>
       </c>
-      <c r="I7">
-        <v>800</v>
+      <c r="I7" t="s">
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
         <v>0.8</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>19</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8083667349412713</v>
       </c>
       <c r="F8">
-        <v>0.8053093810913493</v>
+        <v>13</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>800</v>
       </c>
       <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8">
         <v>10</v>
       </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" t="s">
-        <v>97</v>
-      </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>19</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8102510186570566</v>
       </c>
       <c r="F9">
-        <v>0.8059327445559628</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>800</v>
       </c>
       <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9">
         <v>10</v>
       </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" t="s">
-        <v>97</v>
-      </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
         <v>0.8</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>14</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8816943208686499</v>
       </c>
       <c r="F10">
-        <v>0.8090027435576488</v>
+        <v>12</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>800</v>
       </c>
       <c r="H10">
         <v>10</v>
       </c>
-      <c r="I10">
-        <v>800</v>
+      <c r="I10" t="s">
+        <v>97</v>
       </c>
       <c r="J10" t="s">
-        <v>96</v>
-      </c>
-      <c r="K10" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
       </c>
       <c r="L10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <v>0.8</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>16</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8230759317244239</v>
       </c>
       <c r="F11">
-        <v>0.8111986099909742</v>
+        <v>17</v>
       </c>
       <c r="G11">
+        <v>800</v>
+      </c>
+      <c r="H11">
         <v>15</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11">
         <v>10</v>
       </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" t="s">
-        <v>97</v>
-      </c>
       <c r="L11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -7030,453 +7099,453 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>41</v>
+      </c>
+      <c r="D2">
         <v>0.9</v>
       </c>
-      <c r="C2">
-        <v>40</v>
-      </c>
-      <c r="D2">
-        <v>61</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9124807213947603</v>
       </c>
       <c r="F2">
-        <v>0.9154578710470516</v>
+        <v>59</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>800</v>
       </c>
       <c r="H2">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2">
         <v>10</v>
       </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K2" t="s">
-        <v>97</v>
-      </c>
       <c r="L2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>41</v>
+      </c>
+      <c r="D3">
         <v>0.9</v>
       </c>
-      <c r="C3">
-        <v>40</v>
-      </c>
-      <c r="D3">
-        <v>61</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.944814101928803</v>
       </c>
       <c r="F3">
-        <v>0.9196757275380857</v>
+        <v>49</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>800</v>
       </c>
       <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3">
         <v>10</v>
       </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K3" t="s">
-        <v>97</v>
-      </c>
       <c r="L3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>41</v>
+      </c>
+      <c r="D4">
         <v>0.9</v>
       </c>
-      <c r="C4">
-        <v>40</v>
-      </c>
-      <c r="D4">
-        <v>61</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.93414314945184</v>
       </c>
       <c r="F4">
-        <v>0.9173626100140798</v>
+        <v>49</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>800</v>
       </c>
       <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4">
         <v>10</v>
       </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K4" t="s">
-        <v>97</v>
-      </c>
       <c r="L4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>41</v>
+      </c>
+      <c r="D5">
         <v>0.9</v>
       </c>
-      <c r="C5">
-        <v>40</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="F5">
         <v>62</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9130061602092915</v>
-      </c>
       <c r="G5">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="H5">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5">
         <v>10</v>
       </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>96</v>
-      </c>
-      <c r="K5" t="s">
-        <v>97</v>
-      </c>
       <c r="L5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>41</v>
+      </c>
+      <c r="D6">
         <v>0.9</v>
       </c>
-      <c r="C6">
-        <v>40</v>
-      </c>
-      <c r="D6">
-        <v>61</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9265106402216028</v>
       </c>
       <c r="F6">
-        <v>0.9180789910531767</v>
+        <v>49</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>800</v>
       </c>
       <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6">
         <v>10</v>
       </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K6" t="s">
-        <v>97</v>
-      </c>
       <c r="L6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
         <v>0.9</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>16</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9042753346443122</v>
       </c>
       <c r="F7">
-        <v>0.9069636547363721</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>800</v>
       </c>
       <c r="H7">
         <v>10</v>
       </c>
-      <c r="I7">
-        <v>800</v>
+      <c r="I7" t="s">
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
         <v>0.9</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>29</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9534563362690988</v>
       </c>
       <c r="F8">
-        <v>0.9006422998686134</v>
+        <v>17</v>
       </c>
       <c r="G8">
-        <v>28</v>
+        <v>800</v>
       </c>
       <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8">
         <v>10</v>
       </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" t="s">
-        <v>97</v>
-      </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.9586706638800887</v>
+      </c>
+      <c r="F9">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.9242432534333419</v>
-      </c>
       <c r="G9">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="H9">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9">
         <v>10</v>
       </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" t="s">
-        <v>97</v>
-      </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
         <v>0.9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9542477087383439</v>
       </c>
       <c r="F10">
-        <v>0.9228032328574652</v>
+        <v>15</v>
       </c>
       <c r="G10">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10">
         <v>10</v>
       </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>96</v>
-      </c>
-      <c r="K10" t="s">
-        <v>97</v>
-      </c>
       <c r="L10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <v>0.9</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9689545783012427</v>
       </c>
       <c r="F11">
-        <v>0.9627809043983722</v>
+        <v>24</v>
       </c>
       <c r="G11">
+        <v>800</v>
+      </c>
+      <c r="H11">
         <v>22</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11">
         <v>10</v>
       </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" t="s">
-        <v>97</v>
-      </c>
       <c r="L11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
